--- a/avr/denon-docs/FY21AVR_DENON_PROTOCOL_V02_04062020.xlsx
+++ b/avr/denon-docs/FY21AVR_DENON_PROTOCOL_V02_04062020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prcutler/workspace/circuitpython-programs/avr/denon-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF693DA-0EEE-1543-9453-558EA908F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="48580" windowHeight="24620" tabRatio="448" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Protocol" sheetId="1" r:id="rId1"/>
@@ -12,6 +18,10 @@
     <sheet name="Volume_CMD" sheetId="3" r:id="rId3"/>
     <sheet name="Extension COMMAND" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Extension COMMAND'!$A$1:$D$37</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -9430,19 +9440,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="165" formatCode="d/m/yy"/>
-    <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.00%;[Red]\-0.00%"/>
-    <numFmt numFmtId="173" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00%;[Red]\-0.00%"/>
+    <numFmt numFmtId="172" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="174" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="101">
     <font>
@@ -11160,12 +11170,12 @@
     <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11202,17 +11212,17 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0">
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11228,8 +11238,8 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11795,7 +11805,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -11870,7 +11880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12485,7 +12495,7 @@
     <xf numFmtId="0" fontId="83" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="89" fillId="41" borderId="0" xfId="330" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="89" fillId="41" borderId="0" xfId="330" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="41" borderId="0" xfId="302" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12575,7 +12585,7 @@
     <xf numFmtId="49" fontId="76" fillId="41" borderId="30" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="88" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="88" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12701,7 +12711,7 @@
     <xf numFmtId="0" fontId="70" fillId="41" borderId="15" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12713,46 +12723,25 @@
     <xf numFmtId="0" fontId="87" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="76" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="15" xfId="339" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="9" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="15" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="92" fillId="0" borderId="15" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="41" borderId="0" xfId="356" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="94" fillId="41" borderId="0" xfId="356" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="94" fillId="41" borderId="0" xfId="356" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="99" fillId="41" borderId="15" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12776,29 +12765,11 @@
     <xf numFmtId="0" fontId="100" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="15" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="70" fillId="42" borderId="16" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -12821,7 +12792,7 @@
     <xf numFmtId="0" fontId="70" fillId="43" borderId="14" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="38" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12836,28 +12807,16 @@
     <xf numFmtId="0" fontId="83" fillId="41" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="13" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="9" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="92" fillId="0" borderId="13" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="13" xfId="339" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="92" fillId="0" borderId="14" xfId="339" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="14" xfId="339" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12899,6 +12858,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="38" borderId="0" xfId="210" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12950,7 +12912,7 @@
     <xf numFmtId="0" fontId="13" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12965,9 +12927,6 @@
     <xf numFmtId="0" fontId="13" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="38" borderId="0" xfId="210" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12988,459 +12947,459 @@
     </xf>
   </cellXfs>
   <cellStyles count="453">
-    <cellStyle name="1月" xfId="1"/>
-    <cellStyle name="20% - Accent1" xfId="2"/>
-    <cellStyle name="20% - Accent2" xfId="3"/>
-    <cellStyle name="20% - Accent3" xfId="4"/>
-    <cellStyle name="20% - Accent4" xfId="5"/>
-    <cellStyle name="20% - Accent5" xfId="6"/>
-    <cellStyle name="20% - Accent6" xfId="7"/>
-    <cellStyle name="20% - Énfasis1" xfId="8"/>
-    <cellStyle name="20% - Énfasis2" xfId="9"/>
-    <cellStyle name="20% - Énfasis3" xfId="10"/>
-    <cellStyle name="20% - Énfasis4" xfId="11"/>
-    <cellStyle name="20% - Énfasis5" xfId="12"/>
-    <cellStyle name="20% - Énfasis6" xfId="13"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="14"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="15"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="16"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="17"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="18"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="19"/>
-    <cellStyle name="40% - Accent1" xfId="20"/>
-    <cellStyle name="40% - Accent2" xfId="21"/>
-    <cellStyle name="40% - Accent3" xfId="22"/>
-    <cellStyle name="40% - Accent4" xfId="23"/>
-    <cellStyle name="40% - Accent5" xfId="24"/>
-    <cellStyle name="40% - Accent6" xfId="25"/>
-    <cellStyle name="40% - Énfasis1" xfId="26"/>
-    <cellStyle name="40% - Énfasis2" xfId="27"/>
-    <cellStyle name="40% - Énfasis3" xfId="28"/>
-    <cellStyle name="40% - Énfasis4" xfId="29"/>
-    <cellStyle name="40% - Énfasis5" xfId="30"/>
-    <cellStyle name="40% - Énfasis6" xfId="31"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="32"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="33"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="34"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="35"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="36"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="37"/>
-    <cellStyle name="60% - Accent1" xfId="38"/>
-    <cellStyle name="60% - Accent2" xfId="39"/>
-    <cellStyle name="60% - Accent3" xfId="40"/>
-    <cellStyle name="60% - Accent4" xfId="41"/>
-    <cellStyle name="60% - Accent5" xfId="42"/>
-    <cellStyle name="60% - Accent6" xfId="43"/>
-    <cellStyle name="60% - Énfasis1" xfId="44"/>
-    <cellStyle name="60% - Énfasis2" xfId="45"/>
-    <cellStyle name="60% - Énfasis3" xfId="46"/>
-    <cellStyle name="60% - Énfasis4" xfId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="50"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="51"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="52"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="53"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="54"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="55"/>
-    <cellStyle name="Accent1" xfId="56"/>
-    <cellStyle name="Accent2" xfId="57"/>
-    <cellStyle name="Accent3" xfId="58"/>
-    <cellStyle name="Accent4" xfId="59"/>
-    <cellStyle name="Accent5" xfId="60"/>
-    <cellStyle name="Accent6" xfId="61"/>
-    <cellStyle name="Bad" xfId="62"/>
-    <cellStyle name="Berekening" xfId="63"/>
-    <cellStyle name="Buena" xfId="64"/>
-    <cellStyle name="Calculation" xfId="65"/>
-    <cellStyle name="Cálculo" xfId="66"/>
-    <cellStyle name="Celda de comprobación" xfId="67"/>
-    <cellStyle name="Celda vinculada" xfId="68"/>
-    <cellStyle name="Check Cell" xfId="69"/>
-    <cellStyle name="Comma [4]" xfId="70"/>
-    <cellStyle name="Comma0" xfId="71"/>
-    <cellStyle name="Controlecel" xfId="72"/>
-    <cellStyle name="Currency0" xfId="73"/>
-    <cellStyle name="Dezimal [0]_RESULTS" xfId="74"/>
-    <cellStyle name="Dezimal_RESULTS" xfId="75"/>
-    <cellStyle name="Encabezado 4" xfId="76"/>
-    <cellStyle name="Énfasis1" xfId="77"/>
-    <cellStyle name="Énfasis2" xfId="78"/>
-    <cellStyle name="Énfasis3" xfId="79"/>
-    <cellStyle name="Énfasis4" xfId="80"/>
-    <cellStyle name="Énfasis5" xfId="81"/>
-    <cellStyle name="Énfasis6" xfId="82"/>
-    <cellStyle name="Entrada" xfId="83"/>
-    <cellStyle name="Explanatory Text" xfId="84"/>
-    <cellStyle name="Followed Hyperlink" xfId="85"/>
-    <cellStyle name="Gekoppelde cel" xfId="86"/>
-    <cellStyle name="Goed" xfId="87"/>
-    <cellStyle name="Good" xfId="88"/>
-    <cellStyle name="Grey" xfId="89"/>
-    <cellStyle name="Header1" xfId="90"/>
-    <cellStyle name="Header2" xfId="91"/>
-    <cellStyle name="Heading 1" xfId="92"/>
-    <cellStyle name="Heading 2" xfId="93"/>
-    <cellStyle name="Heading 3" xfId="94"/>
-    <cellStyle name="Heading 4" xfId="95"/>
-    <cellStyle name="Hyperlink" xfId="330"/>
-    <cellStyle name="Incorrecto" xfId="96"/>
-    <cellStyle name="Input" xfId="97"/>
-    <cellStyle name="Input [yellow]" xfId="98"/>
-    <cellStyle name="Input_C4-AVR3313-FRS_STP-000-20111103" xfId="99"/>
-    <cellStyle name="Invoer" xfId="100"/>
-    <cellStyle name="Kop 1" xfId="101"/>
-    <cellStyle name="Kop 2" xfId="102"/>
-    <cellStyle name="Kop 3" xfId="103"/>
-    <cellStyle name="Kop 4" xfId="104"/>
-    <cellStyle name="Linked Cell" xfId="105"/>
-    <cellStyle name="Neutraal" xfId="106"/>
-    <cellStyle name="Neutral" xfId="107"/>
+    <cellStyle name="1月" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent5" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent6" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Énfasis1" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Énfasis2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Énfasis3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Énfasis4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Énfasis5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Énfasis6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - Accent1" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Accent2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - Accent3" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent5" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent6" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Énfasis1" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Énfasis2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Énfasis4" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Énfasis5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Énfasis6" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="60% - Accent1" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60% - Accent2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60% - Accent3" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="60% - Accent4" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60% - Accent5" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="60% - Accent6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="60% - Énfasis1" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="60% - Énfasis2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Énfasis3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Énfasis4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Énfasis5" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Énfasis6" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent3" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent4" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent5" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent6" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Bad" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Berekening" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Buena" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Calculation" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Cálculo" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Celda de comprobación" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Celda vinculada" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Check Cell" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma [4]" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Comma0" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Controlecel" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Currency0" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Dezimal [0]_RESULTS" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Dezimal_RESULTS" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Encabezado 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Énfasis1" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Énfasis2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Énfasis3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Énfasis4" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Énfasis5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Énfasis6" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Entrada" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Explanatory Text" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Gekoppelde cel" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Goed" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Good" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Grey" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header1" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading 1" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Heading 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Heading 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Heading 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink" xfId="330" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Incorrecto" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Input [yellow]" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Input_C4-AVR3313-FRS_STP-000-20111103" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Invoer" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Kop 1" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Kop 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Kop 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Kop 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Linked Cell" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Neutraal" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Neutral" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="108"/>
-    <cellStyle name="Normal - Style1 2" xfId="109"/>
-    <cellStyle name="Normal - Style1 3" xfId="425"/>
-    <cellStyle name="Notas" xfId="110"/>
-    <cellStyle name="Note" xfId="111"/>
-    <cellStyle name="Notitie" xfId="112"/>
-    <cellStyle name="Ongeldig" xfId="113"/>
-    <cellStyle name="Output" xfId="114"/>
-    <cellStyle name="Percent [2]" xfId="115"/>
-    <cellStyle name="Prozent_HP PLotter_open" xfId="116"/>
-    <cellStyle name="Salida" xfId="117"/>
-    <cellStyle name="Standard_HP PLotter_open" xfId="118"/>
-    <cellStyle name="Texto de advertencia" xfId="119"/>
-    <cellStyle name="Texto explicativo" xfId="120"/>
-    <cellStyle name="Titel" xfId="121"/>
-    <cellStyle name="Title" xfId="122"/>
-    <cellStyle name="Título" xfId="123"/>
-    <cellStyle name="Título 1" xfId="124"/>
-    <cellStyle name="Título 2" xfId="125"/>
-    <cellStyle name="Título 3" xfId="126"/>
-    <cellStyle name="Totaal" xfId="127"/>
-    <cellStyle name="Total" xfId="128"/>
-    <cellStyle name="Uitvoer" xfId="129"/>
-    <cellStyle name="Verklarende tekst" xfId="130"/>
-    <cellStyle name="Waarschuwingstekst" xfId="131"/>
-    <cellStyle name="Währung [0]_RESULTS" xfId="132"/>
-    <cellStyle name="Währung_RESULTS" xfId="133"/>
-    <cellStyle name="Warning Text" xfId="134"/>
-    <cellStyle name="アクセント 1 - 20%" xfId="135"/>
-    <cellStyle name="アクセント 1 - 40%" xfId="136"/>
-    <cellStyle name="アクセント 1 - 60%" xfId="137"/>
-    <cellStyle name="アクセント 1 10" xfId="363"/>
-    <cellStyle name="アクセント 1 11" xfId="384"/>
-    <cellStyle name="アクセント 1 12" xfId="374"/>
-    <cellStyle name="アクセント 1 13" xfId="375"/>
-    <cellStyle name="アクセント 1 14" xfId="395"/>
-    <cellStyle name="アクセント 1 15" xfId="348"/>
-    <cellStyle name="アクセント 1 16" xfId="387"/>
-    <cellStyle name="アクセント 1 17" xfId="408"/>
-    <cellStyle name="アクセント 1 18" xfId="376"/>
-    <cellStyle name="アクセント 1 19" xfId="434"/>
-    <cellStyle name="アクセント 1 2" xfId="138"/>
-    <cellStyle name="アクセント 1 20" xfId="435"/>
-    <cellStyle name="アクセント 1 21" xfId="342"/>
-    <cellStyle name="アクセント 1 22" xfId="449"/>
-    <cellStyle name="アクセント 1 23" xfId="452"/>
-    <cellStyle name="アクセント 1 3" xfId="298"/>
-    <cellStyle name="アクセント 1 4" xfId="315"/>
-    <cellStyle name="アクセント 1 5" xfId="313"/>
-    <cellStyle name="アクセント 1 6" xfId="316"/>
-    <cellStyle name="アクセント 1 7" xfId="314"/>
-    <cellStyle name="アクセント 1 8" xfId="324"/>
-    <cellStyle name="アクセント 1 9" xfId="362"/>
-    <cellStyle name="アクセント 2 - 20%" xfId="139"/>
-    <cellStyle name="アクセント 2 - 40%" xfId="140"/>
-    <cellStyle name="アクセント 2 - 60%" xfId="141"/>
-    <cellStyle name="アクセント 2 10" xfId="361"/>
-    <cellStyle name="アクセント 2 11" xfId="386"/>
-    <cellStyle name="アクセント 2 12" xfId="373"/>
-    <cellStyle name="アクセント 2 13" xfId="377"/>
-    <cellStyle name="アクセント 2 14" xfId="394"/>
-    <cellStyle name="アクセント 2 15" xfId="346"/>
-    <cellStyle name="アクセント 2 16" xfId="350"/>
-    <cellStyle name="アクセント 2 17" xfId="409"/>
-    <cellStyle name="アクセント 2 18" xfId="411"/>
-    <cellStyle name="アクセント 2 19" xfId="397"/>
-    <cellStyle name="アクセント 2 2" xfId="142"/>
-    <cellStyle name="アクセント 2 20" xfId="404"/>
-    <cellStyle name="アクセント 2 21" xfId="448"/>
-    <cellStyle name="アクセント 2 22" xfId="446"/>
-    <cellStyle name="アクセント 2 23" xfId="354"/>
-    <cellStyle name="アクセント 2 3" xfId="297"/>
-    <cellStyle name="アクセント 2 4" xfId="317"/>
-    <cellStyle name="アクセント 2 5" xfId="312"/>
-    <cellStyle name="アクセント 2 6" xfId="319"/>
-    <cellStyle name="アクセント 2 7" xfId="311"/>
-    <cellStyle name="アクセント 2 8" xfId="327"/>
-    <cellStyle name="アクセント 2 9" xfId="364"/>
-    <cellStyle name="アクセント 3 - 20%" xfId="143"/>
-    <cellStyle name="アクセント 3 - 40%" xfId="144"/>
-    <cellStyle name="アクセント 3 - 60%" xfId="145"/>
-    <cellStyle name="アクセント 3 10" xfId="360"/>
-    <cellStyle name="アクセント 3 11" xfId="388"/>
-    <cellStyle name="アクセント 3 12" xfId="372"/>
-    <cellStyle name="アクセント 3 13" xfId="379"/>
-    <cellStyle name="アクセント 3 14" xfId="393"/>
-    <cellStyle name="アクセント 3 15" xfId="349"/>
-    <cellStyle name="アクセント 3 16" xfId="345"/>
-    <cellStyle name="アクセント 3 17" xfId="447"/>
-    <cellStyle name="アクセント 3 18" xfId="410"/>
-    <cellStyle name="アクセント 3 19" xfId="355"/>
-    <cellStyle name="アクセント 3 2" xfId="146"/>
-    <cellStyle name="アクセント 3 20" xfId="432"/>
-    <cellStyle name="アクセント 3 21" xfId="431"/>
-    <cellStyle name="アクセント 3 22" xfId="440"/>
-    <cellStyle name="アクセント 3 23" xfId="450"/>
-    <cellStyle name="アクセント 3 3" xfId="296"/>
-    <cellStyle name="アクセント 3 4" xfId="318"/>
-    <cellStyle name="アクセント 3 5" xfId="310"/>
-    <cellStyle name="アクセント 3 6" xfId="322"/>
-    <cellStyle name="アクセント 3 7" xfId="308"/>
-    <cellStyle name="アクセント 3 8" xfId="329"/>
-    <cellStyle name="アクセント 3 9" xfId="365"/>
-    <cellStyle name="アクセント 4 - 20%" xfId="147"/>
-    <cellStyle name="アクセント 4 - 40%" xfId="148"/>
-    <cellStyle name="アクセント 4 - 60%" xfId="149"/>
-    <cellStyle name="アクセント 4 10" xfId="359"/>
-    <cellStyle name="アクセント 4 11" xfId="390"/>
-    <cellStyle name="アクセント 4 12" xfId="371"/>
-    <cellStyle name="アクセント 4 13" xfId="381"/>
-    <cellStyle name="アクセント 4 14" xfId="430"/>
-    <cellStyle name="アクセント 4 15" xfId="442"/>
-    <cellStyle name="アクセント 4 16" xfId="347"/>
-    <cellStyle name="アクセント 4 17" xfId="378"/>
-    <cellStyle name="アクセント 4 18" xfId="445"/>
-    <cellStyle name="アクセント 4 19" xfId="398"/>
-    <cellStyle name="アクセント 4 2" xfId="150"/>
-    <cellStyle name="アクセント 4 20" xfId="426"/>
-    <cellStyle name="アクセント 4 21" xfId="423"/>
-    <cellStyle name="アクセント 4 22" xfId="438"/>
-    <cellStyle name="アクセント 4 23" xfId="407"/>
-    <cellStyle name="アクセント 4 3" xfId="295"/>
-    <cellStyle name="アクセント 4 4" xfId="320"/>
-    <cellStyle name="アクセント 4 5" xfId="309"/>
-    <cellStyle name="アクセント 4 6" xfId="325"/>
-    <cellStyle name="アクセント 4 7" xfId="305"/>
-    <cellStyle name="アクセント 4 8" xfId="331"/>
-    <cellStyle name="アクセント 4 9" xfId="366"/>
-    <cellStyle name="アクセント 5 - 20%" xfId="151"/>
-    <cellStyle name="アクセント 5 - 40%" xfId="152"/>
-    <cellStyle name="アクセント 5 - 60%" xfId="153"/>
-    <cellStyle name="アクセント 5 10" xfId="358"/>
-    <cellStyle name="アクセント 5 11" xfId="391"/>
-    <cellStyle name="アクセント 5 12" xfId="370"/>
-    <cellStyle name="アクセント 5 13" xfId="382"/>
-    <cellStyle name="アクセント 5 14" xfId="389"/>
-    <cellStyle name="アクセント 5 15" xfId="419"/>
-    <cellStyle name="アクセント 5 16" xfId="441"/>
-    <cellStyle name="アクセント 5 17" xfId="413"/>
-    <cellStyle name="アクセント 5 18" xfId="415"/>
-    <cellStyle name="アクセント 5 19" xfId="343"/>
-    <cellStyle name="アクセント 5 2" xfId="154"/>
-    <cellStyle name="アクセント 5 20" xfId="400"/>
-    <cellStyle name="アクセント 5 21" xfId="344"/>
-    <cellStyle name="アクセント 5 22" xfId="351"/>
-    <cellStyle name="アクセント 5 23" xfId="402"/>
-    <cellStyle name="アクセント 5 3" xfId="294"/>
-    <cellStyle name="アクセント 5 4" xfId="321"/>
-    <cellStyle name="アクセント 5 5" xfId="307"/>
-    <cellStyle name="アクセント 5 6" xfId="326"/>
-    <cellStyle name="アクセント 5 7" xfId="304"/>
-    <cellStyle name="アクセント 5 8" xfId="332"/>
-    <cellStyle name="アクセント 5 9" xfId="367"/>
-    <cellStyle name="アクセント 6 - 20%" xfId="155"/>
-    <cellStyle name="アクセント 6 - 40%" xfId="156"/>
-    <cellStyle name="アクセント 6 - 60%" xfId="157"/>
-    <cellStyle name="アクセント 6 10" xfId="357"/>
-    <cellStyle name="アクセント 6 11" xfId="392"/>
-    <cellStyle name="アクセント 6 12" xfId="369"/>
-    <cellStyle name="アクセント 6 13" xfId="383"/>
-    <cellStyle name="アクセント 6 14" xfId="385"/>
-    <cellStyle name="アクセント 6 15" xfId="352"/>
-    <cellStyle name="アクセント 6 16" xfId="443"/>
-    <cellStyle name="アクセント 6 17" xfId="416"/>
-    <cellStyle name="アクセント 6 18" xfId="437"/>
-    <cellStyle name="アクセント 6 19" xfId="444"/>
-    <cellStyle name="アクセント 6 2" xfId="158"/>
-    <cellStyle name="アクセント 6 20" xfId="399"/>
-    <cellStyle name="アクセント 6 21" xfId="401"/>
-    <cellStyle name="アクセント 6 22" xfId="396"/>
-    <cellStyle name="アクセント 6 23" xfId="417"/>
-    <cellStyle name="アクセント 6 3" xfId="300"/>
-    <cellStyle name="アクセント 6 4" xfId="323"/>
-    <cellStyle name="アクセント 6 5" xfId="306"/>
-    <cellStyle name="アクセント 6 6" xfId="328"/>
-    <cellStyle name="アクセント 6 7" xfId="303"/>
-    <cellStyle name="アクセント 6 8" xfId="333"/>
-    <cellStyle name="アクセント 6 9" xfId="368"/>
-    <cellStyle name="タイトル 2" xfId="159"/>
-    <cellStyle name="チェック セル 2" xfId="160"/>
-    <cellStyle name="どちらでもない 2" xfId="161"/>
-    <cellStyle name="パーセント 2" xfId="293"/>
-    <cellStyle name="ハイパーリンク 2" xfId="162"/>
-    <cellStyle name="メモ 2" xfId="163"/>
-    <cellStyle name="リンク セル 2" xfId="164"/>
-    <cellStyle name="콤마 [0]_0829DXW33xx원가" xfId="286"/>
-    <cellStyle name="콤마_0829DXW33xx원가" xfId="287"/>
-    <cellStyle name="통화 [0]_0829DXW33xx원가" xfId="288"/>
-    <cellStyle name="통화_0829DXW33xx원가" xfId="289"/>
-    <cellStyle name="표준_0829DXW33xx원가" xfId="290"/>
-    <cellStyle name="一般_Sheet1" xfId="166"/>
-    <cellStyle name="不良" xfId="281"/>
-    <cellStyle name="入力 2" xfId="180"/>
-    <cellStyle name="出力 2" xfId="178"/>
-    <cellStyle name="強調 1" xfId="167"/>
-    <cellStyle name="強調 2" xfId="168"/>
-    <cellStyle name="強調 3" xfId="169"/>
-    <cellStyle name="悪い 2" xfId="165"/>
-    <cellStyle name="普通" xfId="282"/>
-    <cellStyle name="未定義" xfId="283"/>
-    <cellStyle name="桁区切り 2" xfId="172"/>
-    <cellStyle name="標準 - スタイル1" xfId="181"/>
-    <cellStyle name="標準 - スタイル2" xfId="182"/>
-    <cellStyle name="標準 - スタイル3" xfId="183"/>
-    <cellStyle name="標準 - スタイル4" xfId="184"/>
-    <cellStyle name="標準 - スタイル5" xfId="185"/>
-    <cellStyle name="標準 - スタイル6" xfId="186"/>
-    <cellStyle name="標準 - スタイル7" xfId="187"/>
-    <cellStyle name="標準 - スタイル8" xfId="188"/>
-    <cellStyle name="標準 10" xfId="189"/>
-    <cellStyle name="標準 100" xfId="340"/>
-    <cellStyle name="標準 101" xfId="412"/>
-    <cellStyle name="標準 102" xfId="341"/>
-    <cellStyle name="標準 103" xfId="418"/>
-    <cellStyle name="標準 104" xfId="422"/>
-    <cellStyle name="標準 105" xfId="420"/>
-    <cellStyle name="標準 106" xfId="421"/>
-    <cellStyle name="標準 107" xfId="356"/>
-    <cellStyle name="標準 108" xfId="427"/>
-    <cellStyle name="標準 109" xfId="414"/>
-    <cellStyle name="標準 11" xfId="190"/>
-    <cellStyle name="標準 110" xfId="403"/>
-    <cellStyle name="標準 111" xfId="436"/>
-    <cellStyle name="標準 112" xfId="424"/>
-    <cellStyle name="標準 113" xfId="405"/>
-    <cellStyle name="標準 114" xfId="353"/>
-    <cellStyle name="標準 115" xfId="406"/>
-    <cellStyle name="標準 116" xfId="380"/>
-    <cellStyle name="標準 117" xfId="451"/>
-    <cellStyle name="標準 12" xfId="191"/>
-    <cellStyle name="標準 13" xfId="192"/>
-    <cellStyle name="標準 14" xfId="193"/>
-    <cellStyle name="標準 15" xfId="194"/>
-    <cellStyle name="標準 16" xfId="195"/>
-    <cellStyle name="標準 17" xfId="196"/>
-    <cellStyle name="標準 18" xfId="197"/>
-    <cellStyle name="標準 19" xfId="198"/>
-    <cellStyle name="標準 2" xfId="199"/>
-    <cellStyle name="標準 20" xfId="200"/>
-    <cellStyle name="標準 21" xfId="201"/>
-    <cellStyle name="標準 22" xfId="202"/>
-    <cellStyle name="標準 23" xfId="203"/>
-    <cellStyle name="標準 24" xfId="204"/>
-    <cellStyle name="標準 25" xfId="205"/>
-    <cellStyle name="標準 26" xfId="206"/>
-    <cellStyle name="標準 27" xfId="207"/>
-    <cellStyle name="標準 28" xfId="208"/>
-    <cellStyle name="標準 29" xfId="209"/>
-    <cellStyle name="標準 3" xfId="210"/>
-    <cellStyle name="標準 3 2" xfId="292"/>
-    <cellStyle name="標準 3 3" xfId="428"/>
-    <cellStyle name="標準 30" xfId="211"/>
-    <cellStyle name="標準 31" xfId="212"/>
-    <cellStyle name="標準 32" xfId="213"/>
-    <cellStyle name="標準 33" xfId="214"/>
-    <cellStyle name="標準 34" xfId="215"/>
-    <cellStyle name="標準 35" xfId="216"/>
-    <cellStyle name="標準 36" xfId="217"/>
-    <cellStyle name="標準 37" xfId="218"/>
-    <cellStyle name="標準 38" xfId="219"/>
-    <cellStyle name="標準 39" xfId="220"/>
-    <cellStyle name="標準 4" xfId="221"/>
-    <cellStyle name="標準 40" xfId="222"/>
-    <cellStyle name="標準 41" xfId="223"/>
-    <cellStyle name="標準 42" xfId="224"/>
-    <cellStyle name="標準 43" xfId="225"/>
-    <cellStyle name="標準 44" xfId="226"/>
-    <cellStyle name="標準 45" xfId="227"/>
-    <cellStyle name="標準 46" xfId="228"/>
-    <cellStyle name="標準 47" xfId="229"/>
-    <cellStyle name="標準 48" xfId="230"/>
-    <cellStyle name="標準 49" xfId="231"/>
-    <cellStyle name="標準 5" xfId="232"/>
-    <cellStyle name="標準 50" xfId="233"/>
-    <cellStyle name="標準 51" xfId="234"/>
-    <cellStyle name="標準 52" xfId="235"/>
-    <cellStyle name="標準 53" xfId="236"/>
-    <cellStyle name="標準 54" xfId="237"/>
-    <cellStyle name="標準 55" xfId="238"/>
-    <cellStyle name="標準 56" xfId="239"/>
-    <cellStyle name="標準 57" xfId="240"/>
-    <cellStyle name="標準 58" xfId="241"/>
-    <cellStyle name="標準 59" xfId="242"/>
-    <cellStyle name="標準 6" xfId="243"/>
-    <cellStyle name="標準 60" xfId="244"/>
-    <cellStyle name="標準 61" xfId="245"/>
-    <cellStyle name="標準 62" xfId="246"/>
-    <cellStyle name="標準 63" xfId="247"/>
-    <cellStyle name="標準 64" xfId="248"/>
-    <cellStyle name="標準 65" xfId="249"/>
-    <cellStyle name="標準 66" xfId="250"/>
-    <cellStyle name="標準 67" xfId="251"/>
-    <cellStyle name="標準 68" xfId="252"/>
-    <cellStyle name="標準 69" xfId="253"/>
-    <cellStyle name="標準 7" xfId="254"/>
-    <cellStyle name="標準 70" xfId="255"/>
-    <cellStyle name="標準 71" xfId="256"/>
-    <cellStyle name="標準 72" xfId="257"/>
-    <cellStyle name="標準 73" xfId="258"/>
-    <cellStyle name="標準 74" xfId="259"/>
-    <cellStyle name="標準 75" xfId="260"/>
-    <cellStyle name="標準 76" xfId="261"/>
-    <cellStyle name="標準 77" xfId="262"/>
-    <cellStyle name="標準 78" xfId="263"/>
-    <cellStyle name="標準 79" xfId="264"/>
-    <cellStyle name="標準 8" xfId="265"/>
-    <cellStyle name="標準 80" xfId="266"/>
-    <cellStyle name="標準 81" xfId="267"/>
-    <cellStyle name="標準 82" xfId="268"/>
-    <cellStyle name="標準 83" xfId="269"/>
-    <cellStyle name="標準 84" xfId="270"/>
-    <cellStyle name="標準 85" xfId="271"/>
-    <cellStyle name="標準 86" xfId="272"/>
-    <cellStyle name="標準 87" xfId="273"/>
-    <cellStyle name="標準 88" xfId="274"/>
-    <cellStyle name="標準 89" xfId="275"/>
-    <cellStyle name="標準 9" xfId="276"/>
-    <cellStyle name="標準 90" xfId="277"/>
-    <cellStyle name="標準 91" xfId="278"/>
-    <cellStyle name="標準 92" xfId="279"/>
-    <cellStyle name="標準 93" xfId="291"/>
-    <cellStyle name="標準 93 2" xfId="301"/>
-    <cellStyle name="標準 93 2 2" xfId="433"/>
-    <cellStyle name="標準 93 3" xfId="338"/>
-    <cellStyle name="標準 93 3 2" xfId="439"/>
-    <cellStyle name="標準 93 4" xfId="429"/>
-    <cellStyle name="標準 94" xfId="299"/>
-    <cellStyle name="標準 95" xfId="302"/>
-    <cellStyle name="標準 96" xfId="334"/>
-    <cellStyle name="標準 97" xfId="335"/>
-    <cellStyle name="標準 98" xfId="336"/>
-    <cellStyle name="標準 99" xfId="337"/>
-    <cellStyle name="標準_MVコマンド補足" xfId="280"/>
-    <cellStyle name="標準_RS232C_DvsM_100611" xfId="339"/>
-    <cellStyle name="良" xfId="284"/>
-    <cellStyle name="良い 2" xfId="285"/>
-    <cellStyle name="見出し 1 2" xfId="173"/>
-    <cellStyle name="見出し 2 2" xfId="174"/>
-    <cellStyle name="見出し 3 2" xfId="175"/>
-    <cellStyle name="見出し 4 2" xfId="176"/>
-    <cellStyle name="計算 2" xfId="170"/>
-    <cellStyle name="説明文 2" xfId="179"/>
-    <cellStyle name="警告文 2" xfId="171"/>
-    <cellStyle name="集計 2" xfId="177"/>
+    <cellStyle name="Normal - Style1" xfId="108" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal - Style1 3" xfId="425" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Notas" xfId="110" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Note" xfId="111" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Notitie" xfId="112" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Ongeldig" xfId="113" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output" xfId="114" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="115" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Prozent_HP PLotter_open" xfId="116" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Salida" xfId="117" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Standard_HP PLotter_open" xfId="118" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Texto de advertencia" xfId="119" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Texto explicativo" xfId="120" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Titel" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Title" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Título" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Título 1" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Título 2" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Título 3" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Totaal" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Total" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Uitvoer" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Verklarende tekst" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Waarschuwingstekst" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Währung [0]_RESULTS" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Währung_RESULTS" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Warning Text" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="콤마 [0]_0829DXW33xx원가" xfId="286" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="콤마_0829DXW33xx원가" xfId="287" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="통화 [0]_0829DXW33xx원가" xfId="288" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="통화_0829DXW33xx원가" xfId="289" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="표준_0829DXW33xx원가" xfId="290" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="アクセント 1 - 20%" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="アクセント 1 - 40%" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="アクセント 1 - 60%" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="アクセント 1 10" xfId="363" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="アクセント 1 11" xfId="384" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="アクセント 1 12" xfId="374" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="アクセント 1 13" xfId="375" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="アクセント 1 14" xfId="395" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="アクセント 1 15" xfId="348" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="アクセント 1 16" xfId="387" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="アクセント 1 17" xfId="408" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="アクセント 1 18" xfId="376" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="アクセント 1 19" xfId="434" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="アクセント 1 20" xfId="435" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="アクセント 1 21" xfId="342" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="アクセント 1 22" xfId="449" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="アクセント 1 23" xfId="452" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="アクセント 1 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="アクセント 1 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="アクセント 1 5" xfId="313" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="アクセント 1 6" xfId="316" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="アクセント 1 7" xfId="314" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="アクセント 1 8" xfId="324" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="アクセント 1 9" xfId="362" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="アクセント 2 - 20%" xfId="139" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="アクセント 2 - 40%" xfId="140" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="アクセント 2 - 60%" xfId="141" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="アクセント 2 10" xfId="361" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="アクセント 2 11" xfId="386" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 2 12" xfId="373" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 13" xfId="377" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 2 14" xfId="394" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 2 15" xfId="346" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 2 16" xfId="350" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 2 17" xfId="409" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="アクセント 2 18" xfId="411" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="アクセント 2 19" xfId="397" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="アクセント 2 20" xfId="404" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="アクセント 2 21" xfId="448" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="アクセント 2 22" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="アクセント 2 23" xfId="354" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="アクセント 2 3" xfId="297" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="アクセント 2 4" xfId="317" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="アクセント 2 5" xfId="312" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="アクセント 2 6" xfId="319" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="アクセント 2 7" xfId="311" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="アクセント 2 8" xfId="327" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="アクセント 2 9" xfId="364" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="アクセント 3 - 20%" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="アクセント 3 - 40%" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="アクセント 3 - 60%" xfId="145" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="アクセント 3 10" xfId="360" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="アクセント 3 11" xfId="388" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="アクセント 3 12" xfId="372" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="アクセント 3 13" xfId="379" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="アクセント 3 14" xfId="393" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="アクセント 3 15" xfId="349" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="アクセント 3 16" xfId="345" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="アクセント 3 17" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="アクセント 3 18" xfId="410" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="アクセント 3 19" xfId="355" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="アクセント 3 20" xfId="432" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="アクセント 3 21" xfId="431" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="アクセント 3 22" xfId="440" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="アクセント 3 23" xfId="450" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="アクセント 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="アクセント 3 4" xfId="318" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="アクセント 3 5" xfId="310" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="アクセント 3 6" xfId="322" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="アクセント 3 7" xfId="308" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="アクセント 3 8" xfId="329" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="アクセント 3 9" xfId="365" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="アクセント 4 - 20%" xfId="147" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="アクセント 4 - 40%" xfId="148" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="アクセント 4 - 60%" xfId="149" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="アクセント 4 10" xfId="359" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="アクセント 4 11" xfId="390" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="アクセント 4 12" xfId="371" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="アクセント 4 13" xfId="381" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="アクセント 4 14" xfId="430" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="アクセント 4 15" xfId="442" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="アクセント 4 16" xfId="347" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="アクセント 4 17" xfId="378" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="アクセント 4 18" xfId="445" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="アクセント 4 19" xfId="398" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="アクセント 4 20" xfId="426" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="アクセント 4 21" xfId="423" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="アクセント 4 22" xfId="438" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="アクセント 4 23" xfId="407" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="アクセント 4 3" xfId="295" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="アクセント 4 4" xfId="320" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="アクセント 4 5" xfId="309" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="アクセント 4 6" xfId="325" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="アクセント 4 7" xfId="305" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="アクセント 4 8" xfId="331" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="アクセント 4 9" xfId="366" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="アクセント 5 - 20%" xfId="151" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="アクセント 5 - 40%" xfId="152" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="アクセント 5 - 60%" xfId="153" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="アクセント 5 10" xfId="358" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="アクセント 5 11" xfId="391" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="アクセント 5 12" xfId="370" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="アクセント 5 13" xfId="382" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="アクセント 5 14" xfId="389" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="アクセント 5 15" xfId="419" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="アクセント 5 16" xfId="441" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="アクセント 5 17" xfId="413" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="アクセント 5 18" xfId="415" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="アクセント 5 19" xfId="343" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="アクセント 5 20" xfId="400" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="アクセント 5 21" xfId="344" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="アクセント 5 22" xfId="351" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="アクセント 5 23" xfId="402" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="アクセント 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="アクセント 5 4" xfId="321" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="アクセント 5 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="アクセント 5 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="アクセント 5 7" xfId="304" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="アクセント 5 8" xfId="332" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="アクセント 5 9" xfId="367" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="アクセント 6 - 20%" xfId="155" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="アクセント 6 - 40%" xfId="156" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="アクセント 6 - 60%" xfId="157" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="アクセント 6 10" xfId="357" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="アクセント 6 11" xfId="392" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="アクセント 6 12" xfId="369" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="アクセント 6 13" xfId="383" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="アクセント 6 14" xfId="385" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="アクセント 6 15" xfId="352" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="アクセント 6 16" xfId="443" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="アクセント 6 17" xfId="416" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="アクセント 6 18" xfId="437" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="アクセント 6 19" xfId="444" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="アクセント 6 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="アクセント 6 20" xfId="399" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="アクセント 6 21" xfId="401" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="アクセント 6 22" xfId="396" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="アクセント 6 23" xfId="417" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="アクセント 6 3" xfId="300" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="アクセント 6 4" xfId="323" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="アクセント 6 5" xfId="306" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="アクセント 6 6" xfId="328" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="アクセント 6 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="アクセント 6 8" xfId="333" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="アクセント 6 9" xfId="368" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="タイトル 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="チェック セル 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="どちらでもない 2" xfId="161" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="パーセント 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="162" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="メモ 2" xfId="163" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="リンク セル 2" xfId="164" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="一般_Sheet1" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="不良" xfId="281" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="入力 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="出力 2" xfId="178" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="強調 1" xfId="167" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="強調 2" xfId="168" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="強調 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="悪い 2" xfId="165" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="普通" xfId="282" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="未定義" xfId="283" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="桁区切り 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="標準 - スタイル1" xfId="181" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="標準 - スタイル2" xfId="182" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="標準 - スタイル3" xfId="183" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="標準 - スタイル4" xfId="184" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="標準 - スタイル5" xfId="185" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="標準 - スタイル6" xfId="186" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="標準 - スタイル7" xfId="187" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="標準 - スタイル8" xfId="188" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="標準 10" xfId="189" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="標準 100" xfId="340" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="標準 101" xfId="412" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="標準 102" xfId="341" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="標準 103" xfId="418" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="標準 104" xfId="422" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="標準 105" xfId="420" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="標準 106" xfId="421" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="標準 107" xfId="356" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="標準 108" xfId="427" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="標準 109" xfId="414" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="標準 11" xfId="190" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="標準 110" xfId="403" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="標準 111" xfId="436" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="標準 112" xfId="424" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="標準 113" xfId="405" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="標準 114" xfId="353" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="標準 115" xfId="406" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="標準 116" xfId="380" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="標準 117" xfId="451" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="標準 12" xfId="191" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="標準 13" xfId="192" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="標準 14" xfId="193" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="標準 15" xfId="194" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="標準 16" xfId="195" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="標準 17" xfId="196" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="標準 18" xfId="197" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="標準 19" xfId="198" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="標準 2" xfId="199" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="標準 20" xfId="200" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="標準 21" xfId="201" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="標準 22" xfId="202" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="標準 23" xfId="203" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="標準 24" xfId="204" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="標準 25" xfId="205" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="標準 26" xfId="206" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="標準 27" xfId="207" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="標準 28" xfId="208" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="標準 29" xfId="209" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="標準 3" xfId="210" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="標準 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="標準 3 3" xfId="428" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="標準 30" xfId="211" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="標準 31" xfId="212" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="標準 32" xfId="213" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="標準 33" xfId="214" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="標準 34" xfId="215" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="標準 35" xfId="216" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="標準 36" xfId="217" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="標準 37" xfId="218" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="標準 38" xfId="219" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="標準 39" xfId="220" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="標準 4" xfId="221" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="標準 40" xfId="222" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="標準 41" xfId="223" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="標準 42" xfId="224" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="標準 43" xfId="225" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="標準 44" xfId="226" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="標準 45" xfId="227" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="標準 46" xfId="228" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="標準 47" xfId="229" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="標準 48" xfId="230" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="標準 49" xfId="231" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="標準 5" xfId="232" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="標準 50" xfId="233" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="標準 51" xfId="234" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="標準 52" xfId="235" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="標準 53" xfId="236" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="標準 54" xfId="237" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="標準 55" xfId="238" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="標準 56" xfId="239" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="標準 57" xfId="240" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="標準 58" xfId="241" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="標準 59" xfId="242" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="標準 6" xfId="243" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="標準 60" xfId="244" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="標準 61" xfId="245" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="標準 62" xfId="246" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="標準 63" xfId="247" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="標準 64" xfId="248" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="標準 65" xfId="249" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="標準 66" xfId="250" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="標準 67" xfId="251" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="標準 68" xfId="252" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="標準 69" xfId="253" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="標準 7" xfId="254" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="標準 70" xfId="255" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="標準 71" xfId="256" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="標準 72" xfId="257" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="標準 73" xfId="258" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="標準 74" xfId="259" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="標準 75" xfId="260" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="標準 76" xfId="261" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="標準 77" xfId="262" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="標準 78" xfId="263" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="標準 79" xfId="264" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="標準 8" xfId="265" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="標準 80" xfId="266" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="標準 81" xfId="267" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="標準 82" xfId="268" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="標準 83" xfId="269" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="標準 84" xfId="270" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="標準 85" xfId="271" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="標準 86" xfId="272" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="標準 87" xfId="273" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="標準 88" xfId="274" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="標準 89" xfId="275" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="標準 9" xfId="276" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="標準 90" xfId="277" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="標準 91" xfId="278" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="標準 92" xfId="279" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="標準 93" xfId="291" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="標準 93 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="標準 93 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="標準 93 3" xfId="338" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="標準 93 3 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="標準 93 4" xfId="429" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="標準 94" xfId="299" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="標準 95" xfId="302" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="標準 96" xfId="334" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="標準 97" xfId="335" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="標準 98" xfId="336" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="標準 99" xfId="337" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="標準_MVコマンド補足" xfId="280" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="標準_RS232C_DvsM_100611" xfId="339" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="良" xfId="284" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="良い 2" xfId="285" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="見出し 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="見出し 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="見出し 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="見出し 4 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="計算 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="説明文 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="警告文 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="集計 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13489,7 +13448,7 @@
         <xdr:cNvPr id="2" name="図 1" descr="RCKSK">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13550,7 +13509,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="RCSHP">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13672,6 +13631,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13707,6 +13683,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13882,19 +13875,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O275"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A97" zoomScale="132" zoomScaleNormal="100" zoomScaleSheetLayoutView="132" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
     <col min="3" max="3" width="20" style="7" customWidth="1"/>
     <col min="4" max="6" width="9" style="7"/>
     <col min="7" max="7" width="11.5" style="7" customWidth="1"/>
     <col min="8" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -13907,7 +13900,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="21">
+    <row r="2" spans="2:15" ht="22">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -13929,12 +13922,12 @@
       <c r="D4" s="285"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1">
+    <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1">
+    <row r="6" spans="2:15" ht="16" thickBot="1">
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
@@ -13947,101 +13940,101 @@
       <c r="G6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="358"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="360"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="343"/>
+      <c r="J6" s="343"/>
+      <c r="K6" s="343"/>
+      <c r="L6" s="343"/>
+      <c r="M6" s="344"/>
     </row>
     <row r="7" spans="2:15" ht="28.5" customHeight="1">
-      <c r="B7" s="356" t="s">
+      <c r="B7" s="340" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="357"/>
-      <c r="D7" s="363" t="s">
+      <c r="C7" s="341"/>
+      <c r="D7" s="347" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="364"/>
-      <c r="F7" s="365"/>
+      <c r="E7" s="348"/>
+      <c r="F7" s="349"/>
       <c r="G7" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="372" t="s">
+      <c r="H7" s="356" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="373"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="373"/>
-      <c r="M7" s="374"/>
+      <c r="I7" s="357"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="357"/>
+      <c r="L7" s="357"/>
+      <c r="M7" s="358"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1">
       <c r="B8" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="353"/>
-      <c r="D8" s="369" t="s">
+      <c r="C8" s="336"/>
+      <c r="D8" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="370"/>
-      <c r="F8" s="371"/>
+      <c r="E8" s="354"/>
+      <c r="F8" s="355"/>
       <c r="G8" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="372"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="373"/>
-      <c r="K8" s="373"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="374"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="357"/>
+      <c r="J8" s="357"/>
+      <c r="K8" s="357"/>
+      <c r="L8" s="357"/>
+      <c r="M8" s="358"/>
     </row>
     <row r="9" spans="2:15" ht="28.5" customHeight="1">
       <c r="B9" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="353"/>
-      <c r="D9" s="369" t="s">
+      <c r="C9" s="336"/>
+      <c r="D9" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="370"/>
-      <c r="F9" s="371"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="355"/>
       <c r="G9" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="372"/>
-      <c r="I9" s="373"/>
-      <c r="J9" s="373"/>
-      <c r="K9" s="373"/>
-      <c r="L9" s="373"/>
-      <c r="M9" s="374"/>
+      <c r="H9" s="356"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="357"/>
+      <c r="L9" s="357"/>
+      <c r="M9" s="358"/>
     </row>
     <row r="10" spans="2:15" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="354"/>
-      <c r="D10" s="366" t="s">
+      <c r="C10" s="337"/>
+      <c r="D10" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="367"/>
-      <c r="F10" s="368"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="352"/>
       <c r="G10" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="375"/>
-      <c r="I10" s="376"/>
-      <c r="J10" s="376"/>
-      <c r="K10" s="376"/>
-      <c r="L10" s="376"/>
-      <c r="M10" s="377"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="361"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1">
-      <c r="B11" s="352"/>
+      <c r="B11" s="335"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="361"/>
-      <c r="E11" s="362"/>
-      <c r="F11" s="362"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="346"/>
       <c r="G11" s="68"/>
       <c r="H11" s="66"/>
     </row>
@@ -14050,7 +14043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75">
+    <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -14147,7 +14140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="4" customFormat="1" ht="15.75">
+    <row r="27" spans="2:6" s="4" customFormat="1">
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
@@ -14160,19 +14153,19 @@
     <row r="29" spans="2:6" s="4" customFormat="1">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:6" s="4" customFormat="1" ht="16.5">
+    <row r="30" spans="2:6" s="4" customFormat="1" ht="17">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:6" s="4" customFormat="1" ht="16.5">
+    <row r="31" spans="2:6" s="4" customFormat="1" ht="17">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:6" s="4" customFormat="1" ht="16.5">
+    <row r="32" spans="2:6" s="4" customFormat="1" ht="17">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" s="4" customFormat="1" ht="16.5">
+    <row r="33" spans="2:2" s="4" customFormat="1" ht="17">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" s="4" customFormat="1" ht="16.5">
+    <row r="34" spans="2:2" s="4" customFormat="1" ht="17">
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2" s="4" customFormat="1">
@@ -14254,35 +14247,35 @@
     </row>
     <row r="54" spans="2:11" s="4" customFormat="1"/>
     <row r="55" spans="2:11" s="4" customFormat="1"/>
-    <row r="56" spans="2:11" s="44" customFormat="1">
+    <row r="56" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B56" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:11" s="44" customFormat="1">
+    <row r="57" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B57" s="46"/>
     </row>
-    <row r="58" spans="2:11" s="44" customFormat="1">
+    <row r="58" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B58" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:11" s="44" customFormat="1">
+    <row r="59" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B59" s="44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:11" s="44" customFormat="1" ht="14.25">
+    <row r="60" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B60" s="44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:11" s="44" customFormat="1" ht="14.25">
+    <row r="61" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B61" s="44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="44" customFormat="1" ht="14.25">
+    <row r="62" spans="2:11" s="44" customFormat="1" ht="14">
       <c r="B62" s="44" t="s">
         <v>55</v>
       </c>
@@ -14290,7 +14283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="63" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B63" s="44" t="s">
         <v>57</v>
       </c>
@@ -14303,7 +14296,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="44"/>
     </row>
-    <row r="64" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="64" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B64" s="44" t="s">
         <v>58</v>
       </c>
@@ -14318,7 +14311,7 @@
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
     </row>
-    <row r="65" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="65" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B65" s="44" t="s">
         <v>57</v>
       </c>
@@ -14331,7 +14324,7 @@
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
     </row>
-    <row r="66" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="66" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B66" s="44" t="s">
         <v>60</v>
       </c>
@@ -14346,7 +14339,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="44"/>
     </row>
-    <row r="67" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="67" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B67" s="44" t="s">
         <v>57</v>
       </c>
@@ -14359,7 +14352,7 @@
       <c r="J67" s="44"/>
       <c r="K67" s="44"/>
     </row>
-    <row r="68" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="68" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B68" s="44" t="s">
         <v>62</v>
       </c>
@@ -14374,7 +14367,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="44"/>
     </row>
-    <row r="69" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="69" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B69" s="44" t="s">
         <v>57</v>
       </c>
@@ -14387,7 +14380,7 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
     </row>
-    <row r="70" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="70" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B70" s="44" t="s">
         <v>64</v>
       </c>
@@ -14402,7 +14395,7 @@
       <c r="J70" s="44"/>
       <c r="K70" s="44"/>
     </row>
-    <row r="71" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="71" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B71" s="44" t="s">
         <v>66</v>
       </c>
@@ -14417,7 +14410,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="44"/>
     </row>
-    <row r="72" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="72" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B72" s="44" t="s">
         <v>67</v>
       </c>
@@ -14432,7 +14425,7 @@
       <c r="J72" s="44"/>
       <c r="K72" s="44"/>
     </row>
-    <row r="73" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="73" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -14444,7 +14437,7 @@
       <c r="J73" s="44"/>
       <c r="K73" s="44"/>
     </row>
-    <row r="74" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="74" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B74" s="44" t="s">
         <v>69</v>
       </c>
@@ -14458,7 +14451,7 @@
       <c r="J74" s="44"/>
       <c r="K74" s="44"/>
     </row>
-    <row r="75" spans="2:11" s="47" customFormat="1">
+    <row r="75" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B75" s="44" t="s">
         <v>70</v>
       </c>
@@ -14472,7 +14465,7 @@
       <c r="J75" s="44"/>
       <c r="K75" s="44"/>
     </row>
-    <row r="76" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="76" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B76" s="44" t="s">
         <v>71</v>
       </c>
@@ -14486,7 +14479,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="44"/>
     </row>
-    <row r="77" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="77" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="B77" s="44" t="s">
         <v>72</v>
       </c>
@@ -14500,7 +14493,7 @@
       <c r="J77" s="44"/>
       <c r="K77" s="44"/>
     </row>
-    <row r="78" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="78" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="C78" s="47" t="s">
         <v>73</v>
       </c>
@@ -14512,7 +14505,7 @@
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
     </row>
-    <row r="79" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="79" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="D79" s="44" t="s">
         <v>74</v>
       </c>
@@ -14523,7 +14516,7 @@
       <c r="J79" s="44"/>
       <c r="K79" s="44"/>
     </row>
-    <row r="80" spans="2:11" s="47" customFormat="1" ht="14.25">
+    <row r="80" spans="2:11" s="47" customFormat="1" ht="14">
       <c r="C80" s="47" t="s">
         <v>75</v>
       </c>
@@ -14536,7 +14529,7 @@
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
     </row>
-    <row r="81" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="81" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="D81" s="44" t="s">
         <v>76</v>
       </c>
@@ -14548,7 +14541,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
     </row>
-    <row r="82" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="82" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -14560,17 +14553,17 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
     </row>
-    <row r="83" spans="2:14" s="47" customFormat="1">
+    <row r="83" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B83" s="48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="84" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B84" s="47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="85" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B85" s="47" t="s">
         <v>79</v>
       </c>
@@ -14578,7 +14571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="86" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C86" s="49"/>
       <c r="D86" s="50" t="s">
         <v>81</v>
@@ -14594,7 +14587,7 @@
       <c r="M86" s="49"/>
       <c r="N86" s="49"/>
     </row>
-    <row r="87" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="87" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C87" s="49"/>
       <c r="D87" s="49" t="s">
         <v>82</v>
@@ -14610,7 +14603,7 @@
       <c r="M87" s="49"/>
       <c r="N87" s="49"/>
     </row>
-    <row r="88" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="88" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C88" s="49"/>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
@@ -14624,7 +14617,7 @@
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
     </row>
-    <row r="89" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="89" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B89" s="47" t="s">
         <v>83</v>
       </c>
@@ -14643,7 +14636,7 @@
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
     </row>
-    <row r="90" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="90" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C90" s="49"/>
       <c r="D90" s="49" t="s">
         <v>85</v>
@@ -14659,7 +14652,7 @@
       <c r="M90" s="49"/>
       <c r="N90" s="49"/>
     </row>
-    <row r="91" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="91" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C91" s="49"/>
       <c r="D91" s="49" t="s">
         <v>86</v>
@@ -14675,7 +14668,7 @@
       <c r="M91" s="49"/>
       <c r="N91" s="49"/>
     </row>
-    <row r="92" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="92" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C92" s="49"/>
       <c r="D92" s="49" t="s">
         <v>87</v>
@@ -14691,7 +14684,7 @@
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
     </row>
-    <row r="93" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="93" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C93" s="49"/>
       <c r="D93" s="49" t="s">
         <v>88</v>
@@ -14707,7 +14700,7 @@
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
     </row>
-    <row r="94" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="94" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
       <c r="E94" s="49"/>
@@ -14721,7 +14714,7 @@
       <c r="M94" s="49"/>
       <c r="N94" s="49"/>
     </row>
-    <row r="95" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="95" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="B95" s="47" t="s">
         <v>89</v>
       </c>
@@ -14729,12 +14722,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="47" customFormat="1" ht="14.25">
+    <row r="96" spans="2:14" s="47" customFormat="1" ht="14">
       <c r="D96" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="97" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D97" s="51" t="s">
         <v>91</v>
       </c>
@@ -14745,28 +14738,28 @@
       <c r="I97" s="51"/>
       <c r="J97" s="51"/>
     </row>
-    <row r="98" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="98" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D98" s="47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="2:10" s="52" customFormat="1" ht="14.25"/>
-    <row r="100" spans="2:10" s="47" customFormat="1">
+    <row r="99" spans="2:10" s="52" customFormat="1" ht="14"/>
+    <row r="100" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="B100" s="47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="101" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D101" s="47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="102" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D102" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="103" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="B103" s="47" t="s">
         <v>96</v>
       </c>
@@ -14774,13 +14767,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="2:10" s="47" customFormat="1" ht="14.25"/>
-    <row r="105" spans="2:10" s="47" customFormat="1">
+    <row r="104" spans="2:10" s="47" customFormat="1" ht="14"/>
+    <row r="105" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="B105" s="47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="106" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="B106" s="47" t="s">
         <v>99</v>
       </c>
@@ -14788,7 +14781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="107" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D107" s="47" t="s">
         <v>101</v>
       </c>
@@ -14796,27 +14789,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="108" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="E108" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="109" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="E109" s="47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="110" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="E110" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="111" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="B111" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="2:10" s="47" customFormat="1" ht="14.25">
+    <row r="112" spans="2:10" s="47" customFormat="1" ht="14">
       <c r="D112" s="47" t="s">
         <v>107</v>
       </c>
@@ -14824,394 +14817,402 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="113" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="E113" s="47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="114" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D114" s="47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="115" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="B115" s="47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="47" customFormat="1" ht="14.25"/>
-    <row r="117" spans="2:13" s="47" customFormat="1">
+    <row r="116" spans="2:13" s="47" customFormat="1" ht="14"/>
+    <row r="117" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="B117" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="118" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C118" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="119" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C119" s="47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="120" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C120" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="121" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C121" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="122" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C122" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="123" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="C123" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="47" customFormat="1" ht="14.25"/>
-    <row r="125" spans="2:13" s="47" customFormat="1">
+    <row r="124" spans="2:13" s="47" customFormat="1" ht="14"/>
+    <row r="125" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="B125" s="48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="126" spans="2:13" s="47" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B126" s="378" t="s">
+      <c r="B126" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="378"/>
-      <c r="D126" s="378"/>
-      <c r="E126" s="378"/>
-      <c r="F126" s="378"/>
-      <c r="G126" s="378"/>
-      <c r="H126" s="378"/>
-      <c r="I126" s="378"/>
-      <c r="J126" s="378"/>
-      <c r="K126" s="378"/>
-      <c r="L126" s="378"/>
-      <c r="M126" s="378"/>
+      <c r="C126" s="339"/>
+      <c r="D126" s="339"/>
+      <c r="E126" s="339"/>
+      <c r="F126" s="339"/>
+      <c r="G126" s="339"/>
+      <c r="H126" s="339"/>
+      <c r="I126" s="339"/>
+      <c r="J126" s="339"/>
+      <c r="K126" s="339"/>
+      <c r="L126" s="339"/>
+      <c r="M126" s="339"/>
     </row>
     <row r="127" spans="2:13" s="47" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B127" s="378" t="s">
+      <c r="B127" s="339" t="s">
         <v>121</v>
       </c>
-      <c r="C127" s="378"/>
-      <c r="D127" s="378"/>
-      <c r="E127" s="378"/>
-      <c r="F127" s="378"/>
-      <c r="G127" s="378"/>
-      <c r="H127" s="378"/>
-      <c r="I127" s="378"/>
-      <c r="J127" s="378"/>
-      <c r="K127" s="378"/>
-      <c r="L127" s="378"/>
-      <c r="M127" s="378"/>
+      <c r="C127" s="339"/>
+      <c r="D127" s="339"/>
+      <c r="E127" s="339"/>
+      <c r="F127" s="339"/>
+      <c r="G127" s="339"/>
+      <c r="H127" s="339"/>
+      <c r="I127" s="339"/>
+      <c r="J127" s="339"/>
+      <c r="K127" s="339"/>
+      <c r="L127" s="339"/>
+      <c r="M127" s="339"/>
     </row>
     <row r="128" spans="2:13" s="47" customFormat="1" ht="39" customHeight="1">
-      <c r="B128" s="378" t="s">
+      <c r="B128" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="378"/>
-      <c r="D128" s="378"/>
-      <c r="E128" s="378"/>
-      <c r="F128" s="378"/>
-      <c r="G128" s="378"/>
-      <c r="H128" s="378"/>
-      <c r="I128" s="378"/>
-      <c r="J128" s="378"/>
-      <c r="K128" s="378"/>
-      <c r="L128" s="378"/>
-      <c r="M128" s="378"/>
+      <c r="C128" s="339"/>
+      <c r="D128" s="339"/>
+      <c r="E128" s="339"/>
+      <c r="F128" s="339"/>
+      <c r="G128" s="339"/>
+      <c r="H128" s="339"/>
+      <c r="I128" s="339"/>
+      <c r="J128" s="339"/>
+      <c r="K128" s="339"/>
+      <c r="L128" s="339"/>
+      <c r="M128" s="339"/>
     </row>
     <row r="129" spans="2:13" s="47" customFormat="1" ht="36" customHeight="1">
-      <c r="B129" s="378" t="s">
+      <c r="B129" s="339" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="378"/>
-      <c r="D129" s="378"/>
-      <c r="E129" s="378"/>
-      <c r="F129" s="378"/>
-      <c r="G129" s="378"/>
-      <c r="H129" s="378"/>
-      <c r="I129" s="378"/>
-      <c r="J129" s="378"/>
-      <c r="K129" s="378"/>
-      <c r="L129" s="378"/>
-      <c r="M129" s="378"/>
+      <c r="C129" s="339"/>
+      <c r="D129" s="339"/>
+      <c r="E129" s="339"/>
+      <c r="F129" s="339"/>
+      <c r="G129" s="339"/>
+      <c r="H129" s="339"/>
+      <c r="I129" s="339"/>
+      <c r="J129" s="339"/>
+      <c r="K129" s="339"/>
+      <c r="L129" s="339"/>
+      <c r="M129" s="339"/>
     </row>
     <row r="130" spans="2:13" s="47" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B130" s="378" t="s">
+      <c r="B130" s="339" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="378"/>
-      <c r="D130" s="378"/>
-      <c r="E130" s="378"/>
-      <c r="F130" s="378"/>
-      <c r="G130" s="378"/>
-      <c r="H130" s="378"/>
-      <c r="I130" s="378"/>
-      <c r="J130" s="378"/>
-      <c r="K130" s="378"/>
-      <c r="L130" s="378"/>
-      <c r="M130" s="378"/>
+      <c r="C130" s="339"/>
+      <c r="D130" s="339"/>
+      <c r="E130" s="339"/>
+      <c r="F130" s="339"/>
+      <c r="G130" s="339"/>
+      <c r="H130" s="339"/>
+      <c r="I130" s="339"/>
+      <c r="J130" s="339"/>
+      <c r="K130" s="339"/>
+      <c r="L130" s="339"/>
+      <c r="M130" s="339"/>
     </row>
     <row r="131" spans="2:13" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B131" s="378" t="s">
+      <c r="B131" s="339" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="378"/>
-      <c r="D131" s="378"/>
-      <c r="E131" s="378"/>
-      <c r="F131" s="378"/>
-      <c r="G131" s="378"/>
-      <c r="H131" s="378"/>
-      <c r="I131" s="378"/>
-      <c r="J131" s="378"/>
-      <c r="K131" s="378"/>
-      <c r="L131" s="378"/>
-      <c r="M131" s="378"/>
+      <c r="C131" s="339"/>
+      <c r="D131" s="339"/>
+      <c r="E131" s="339"/>
+      <c r="F131" s="339"/>
+      <c r="G131" s="339"/>
+      <c r="H131" s="339"/>
+      <c r="I131" s="339"/>
+      <c r="J131" s="339"/>
+      <c r="K131" s="339"/>
+      <c r="L131" s="339"/>
+      <c r="M131" s="339"/>
     </row>
     <row r="132" spans="2:13" s="47" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B132" s="378" t="s">
+      <c r="B132" s="339" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="378"/>
-      <c r="D132" s="378"/>
-      <c r="E132" s="378"/>
-      <c r="F132" s="378"/>
-      <c r="G132" s="378"/>
-      <c r="H132" s="378"/>
-      <c r="I132" s="378"/>
-      <c r="J132" s="378"/>
-      <c r="K132" s="378"/>
-      <c r="L132" s="378"/>
-      <c r="M132" s="378"/>
+      <c r="C132" s="339"/>
+      <c r="D132" s="339"/>
+      <c r="E132" s="339"/>
+      <c r="F132" s="339"/>
+      <c r="G132" s="339"/>
+      <c r="H132" s="339"/>
+      <c r="I132" s="339"/>
+      <c r="J132" s="339"/>
+      <c r="K132" s="339"/>
+      <c r="L132" s="339"/>
+      <c r="M132" s="339"/>
     </row>
     <row r="133" spans="2:13" s="47" customFormat="1" ht="24" customHeight="1">
-      <c r="B133" s="378" t="s">
+      <c r="B133" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="378"/>
-      <c r="D133" s="378"/>
-      <c r="E133" s="378"/>
-      <c r="F133" s="378"/>
-      <c r="G133" s="378"/>
-      <c r="H133" s="378"/>
-      <c r="I133" s="378"/>
-      <c r="J133" s="378"/>
-      <c r="K133" s="378"/>
-      <c r="L133" s="378"/>
-      <c r="M133" s="378"/>
+      <c r="C133" s="339"/>
+      <c r="D133" s="339"/>
+      <c r="E133" s="339"/>
+      <c r="F133" s="339"/>
+      <c r="G133" s="339"/>
+      <c r="H133" s="339"/>
+      <c r="I133" s="339"/>
+      <c r="J133" s="339"/>
+      <c r="K133" s="339"/>
+      <c r="L133" s="339"/>
+      <c r="M133" s="339"/>
     </row>
     <row r="134" spans="2:13" s="47" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B134" s="378" t="s">
+      <c r="B134" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="378"/>
-      <c r="D134" s="378"/>
-      <c r="E134" s="378"/>
-      <c r="F134" s="378"/>
-      <c r="G134" s="378"/>
-      <c r="H134" s="378"/>
-      <c r="I134" s="378"/>
-      <c r="J134" s="378"/>
-      <c r="K134" s="378"/>
-      <c r="L134" s="378"/>
-      <c r="M134" s="378"/>
-    </row>
-    <row r="135" spans="2:13" s="47" customFormat="1" ht="14.25">
+      <c r="C134" s="339"/>
+      <c r="D134" s="339"/>
+      <c r="E134" s="339"/>
+      <c r="F134" s="339"/>
+      <c r="G134" s="339"/>
+      <c r="H134" s="339"/>
+      <c r="I134" s="339"/>
+      <c r="J134" s="339"/>
+      <c r="K134" s="339"/>
+      <c r="L134" s="339"/>
+      <c r="M134" s="339"/>
+    </row>
+    <row r="135" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="B135" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="136" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D136" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="137" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D137" s="47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="138" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D138" s="47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="139" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D139" s="47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="140" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D140" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="141" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D141" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="142" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D142" s="47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="143" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="D143" s="47" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="47" customFormat="1" ht="14.25">
+    <row r="144" spans="2:13" s="47" customFormat="1" ht="14">
       <c r="B144" s="47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="146" spans="2:2" s="47" customFormat="1" ht="14.25">
+    <row r="145" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="146" spans="2:2" s="47" customFormat="1" ht="14">
       <c r="B146" s="47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="148" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="149" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="150" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="151" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="152" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="153" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="154" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="155" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="156" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="157" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="158" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="159" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="160" spans="2:2" s="47" customFormat="1" ht="14.25"/>
-    <row r="161" s="47" customFormat="1" ht="14.25"/>
-    <row r="162" s="47" customFormat="1" ht="14.25"/>
-    <row r="163" s="47" customFormat="1" ht="14.25"/>
-    <row r="164" s="47" customFormat="1" ht="14.25"/>
-    <row r="165" s="47" customFormat="1" ht="14.25"/>
-    <row r="166" s="47" customFormat="1" ht="14.25"/>
-    <row r="167" s="47" customFormat="1" ht="14.25"/>
-    <row r="168" s="47" customFormat="1" ht="14.25"/>
-    <row r="169" s="47" customFormat="1" ht="14.25"/>
-    <row r="170" s="47" customFormat="1" ht="14.25"/>
-    <row r="171" s="47" customFormat="1" ht="14.25"/>
-    <row r="172" s="47" customFormat="1" ht="14.25"/>
-    <row r="173" s="47" customFormat="1" ht="14.25"/>
-    <row r="174" s="47" customFormat="1" ht="14.25"/>
-    <row r="175" s="47" customFormat="1" ht="14.25"/>
-    <row r="176" s="47" customFormat="1" ht="14.25"/>
-    <row r="177" s="47" customFormat="1" ht="14.25"/>
-    <row r="178" s="47" customFormat="1" ht="14.25"/>
-    <row r="179" s="47" customFormat="1" ht="14.25"/>
-    <row r="180" s="47" customFormat="1" ht="14.25"/>
-    <row r="181" s="47" customFormat="1" ht="14.25"/>
-    <row r="182" s="47" customFormat="1" ht="14.25"/>
-    <row r="183" s="47" customFormat="1" ht="14.25"/>
-    <row r="184" s="47" customFormat="1" ht="14.25"/>
-    <row r="185" s="47" customFormat="1" ht="14.25"/>
-    <row r="186" s="47" customFormat="1" ht="14.25"/>
-    <row r="187" s="47" customFormat="1" ht="14.25"/>
-    <row r="188" s="47" customFormat="1" ht="14.25"/>
-    <row r="189" s="47" customFormat="1" ht="14.25"/>
-    <row r="190" s="47" customFormat="1" ht="14.25"/>
-    <row r="191" s="47" customFormat="1" ht="14.25"/>
-    <row r="192" s="47" customFormat="1" ht="14.25"/>
-    <row r="193" s="47" customFormat="1" ht="14.25"/>
-    <row r="194" s="47" customFormat="1" ht="14.25"/>
-    <row r="195" s="47" customFormat="1" ht="14.25"/>
-    <row r="196" s="47" customFormat="1" ht="14.25"/>
-    <row r="197" s="47" customFormat="1" ht="14.25"/>
-    <row r="198" s="47" customFormat="1" ht="14.25"/>
-    <row r="199" s="47" customFormat="1" ht="14.25"/>
-    <row r="200" s="47" customFormat="1" ht="14.25"/>
-    <row r="201" s="47" customFormat="1" ht="14.25"/>
-    <row r="202" s="47" customFormat="1" ht="14.25"/>
-    <row r="203" s="47" customFormat="1" ht="14.25"/>
-    <row r="204" s="47" customFormat="1" ht="14.25"/>
-    <row r="205" s="47" customFormat="1" ht="14.25"/>
-    <row r="206" s="47" customFormat="1" ht="14.25"/>
-    <row r="207" s="47" customFormat="1" ht="14.25"/>
-    <row r="208" s="47" customFormat="1" ht="14.25"/>
-    <row r="209" s="47" customFormat="1" ht="14.25"/>
-    <row r="210" s="47" customFormat="1" ht="14.25"/>
-    <row r="211" s="47" customFormat="1" ht="14.25"/>
-    <row r="212" s="47" customFormat="1" ht="14.25"/>
-    <row r="213" s="47" customFormat="1" ht="14.25"/>
-    <row r="214" s="47" customFormat="1" ht="14.25"/>
-    <row r="215" s="47" customFormat="1" ht="14.25"/>
-    <row r="216" s="47" customFormat="1" ht="14.25"/>
-    <row r="217" s="47" customFormat="1" ht="14.25"/>
-    <row r="218" s="47" customFormat="1" ht="14.25"/>
-    <row r="219" s="47" customFormat="1" ht="14.25"/>
-    <row r="220" s="47" customFormat="1" ht="14.25"/>
-    <row r="221" s="47" customFormat="1" ht="14.25"/>
-    <row r="222" s="47" customFormat="1" ht="14.25"/>
-    <row r="223" s="47" customFormat="1" ht="14.25"/>
-    <row r="224" s="47" customFormat="1" ht="14.25"/>
-    <row r="225" s="47" customFormat="1" ht="14.25"/>
-    <row r="226" s="47" customFormat="1" ht="14.25"/>
-    <row r="227" s="47" customFormat="1" ht="14.25"/>
-    <row r="228" s="47" customFormat="1" ht="14.25"/>
-    <row r="229" s="47" customFormat="1" ht="14.25"/>
-    <row r="230" s="47" customFormat="1" ht="14.25"/>
-    <row r="231" s="47" customFormat="1" ht="14.25"/>
-    <row r="232" s="47" customFormat="1" ht="14.25"/>
-    <row r="233" s="47" customFormat="1" ht="14.25"/>
-    <row r="234" s="47" customFormat="1" ht="14.25"/>
-    <row r="235" s="47" customFormat="1" ht="14.25"/>
-    <row r="236" s="47" customFormat="1" ht="14.25"/>
-    <row r="237" s="47" customFormat="1" ht="14.25"/>
-    <row r="238" s="47" customFormat="1" ht="14.25"/>
-    <row r="239" s="47" customFormat="1" ht="14.25"/>
-    <row r="240" s="47" customFormat="1" ht="14.25"/>
-    <row r="241" s="47" customFormat="1" ht="14.25"/>
-    <row r="242" s="47" customFormat="1" ht="14.25"/>
-    <row r="243" s="47" customFormat="1" ht="14.25"/>
-    <row r="244" s="47" customFormat="1" ht="14.25"/>
-    <row r="245" s="47" customFormat="1" ht="14.25"/>
-    <row r="246" s="47" customFormat="1" ht="14.25"/>
-    <row r="247" s="47" customFormat="1" ht="14.25"/>
-    <row r="248" s="47" customFormat="1" ht="14.25"/>
-    <row r="249" s="47" customFormat="1" ht="14.25"/>
-    <row r="250" s="47" customFormat="1" ht="14.25"/>
-    <row r="251" s="47" customFormat="1" ht="14.25"/>
-    <row r="252" s="47" customFormat="1" ht="14.25"/>
-    <row r="253" s="47" customFormat="1" ht="14.25"/>
-    <row r="254" s="47" customFormat="1" ht="14.25"/>
-    <row r="255" s="47" customFormat="1" ht="14.25"/>
-    <row r="256" s="47" customFormat="1" ht="14.25"/>
-    <row r="257" s="47" customFormat="1" ht="14.25"/>
-    <row r="258" s="47" customFormat="1" ht="14.25"/>
-    <row r="259" s="47" customFormat="1" ht="14.25"/>
-    <row r="260" s="47" customFormat="1" ht="14.25"/>
-    <row r="261" s="47" customFormat="1" ht="14.25"/>
-    <row r="262" s="47" customFormat="1" ht="14.25"/>
-    <row r="263" s="47" customFormat="1" ht="14.25"/>
-    <row r="264" s="47" customFormat="1" ht="14.25"/>
-    <row r="265" s="47" customFormat="1" ht="14.25"/>
-    <row r="266" s="47" customFormat="1" ht="14.25"/>
-    <row r="267" s="47" customFormat="1" ht="14.25"/>
-    <row r="268" s="47" customFormat="1" ht="14.25"/>
-    <row r="269" s="47" customFormat="1" ht="14.25"/>
-    <row r="270" s="47" customFormat="1" ht="14.25"/>
-    <row r="271" s="47" customFormat="1" ht="14.25"/>
-    <row r="272" s="47" customFormat="1" ht="14.25"/>
-    <row r="273" s="47" customFormat="1" ht="14.25"/>
-    <row r="274" s="47" customFormat="1" ht="14.25"/>
-    <row r="275" s="47" customFormat="1" ht="14.25"/>
+    <row r="147" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="148" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="149" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="150" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="151" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="152" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="153" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="154" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="155" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="156" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="157" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="158" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="159" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="160" spans="2:2" s="47" customFormat="1" ht="14"/>
+    <row r="161" s="47" customFormat="1" ht="14"/>
+    <row r="162" s="47" customFormat="1" ht="14"/>
+    <row r="163" s="47" customFormat="1" ht="14"/>
+    <row r="164" s="47" customFormat="1" ht="14"/>
+    <row r="165" s="47" customFormat="1" ht="14"/>
+    <row r="166" s="47" customFormat="1" ht="14"/>
+    <row r="167" s="47" customFormat="1" ht="14"/>
+    <row r="168" s="47" customFormat="1" ht="14"/>
+    <row r="169" s="47" customFormat="1" ht="14"/>
+    <row r="170" s="47" customFormat="1" ht="14"/>
+    <row r="171" s="47" customFormat="1" ht="14"/>
+    <row r="172" s="47" customFormat="1" ht="14"/>
+    <row r="173" s="47" customFormat="1" ht="14"/>
+    <row r="174" s="47" customFormat="1" ht="14"/>
+    <row r="175" s="47" customFormat="1" ht="14"/>
+    <row r="176" s="47" customFormat="1" ht="14"/>
+    <row r="177" s="47" customFormat="1" ht="14"/>
+    <row r="178" s="47" customFormat="1" ht="14"/>
+    <row r="179" s="47" customFormat="1" ht="14"/>
+    <row r="180" s="47" customFormat="1" ht="14"/>
+    <row r="181" s="47" customFormat="1" ht="14"/>
+    <row r="182" s="47" customFormat="1" ht="14"/>
+    <row r="183" s="47" customFormat="1" ht="14"/>
+    <row r="184" s="47" customFormat="1" ht="14"/>
+    <row r="185" s="47" customFormat="1" ht="14"/>
+    <row r="186" s="47" customFormat="1" ht="14"/>
+    <row r="187" s="47" customFormat="1" ht="14"/>
+    <row r="188" s="47" customFormat="1" ht="14"/>
+    <row r="189" s="47" customFormat="1" ht="14"/>
+    <row r="190" s="47" customFormat="1" ht="14"/>
+    <row r="191" s="47" customFormat="1" ht="14"/>
+    <row r="192" s="47" customFormat="1" ht="14"/>
+    <row r="193" s="47" customFormat="1" ht="14"/>
+    <row r="194" s="47" customFormat="1" ht="14"/>
+    <row r="195" s="47" customFormat="1" ht="14"/>
+    <row r="196" s="47" customFormat="1" ht="14"/>
+    <row r="197" s="47" customFormat="1" ht="14"/>
+    <row r="198" s="47" customFormat="1" ht="14"/>
+    <row r="199" s="47" customFormat="1" ht="14"/>
+    <row r="200" s="47" customFormat="1" ht="14"/>
+    <row r="201" s="47" customFormat="1" ht="14"/>
+    <row r="202" s="47" customFormat="1" ht="14"/>
+    <row r="203" s="47" customFormat="1" ht="14"/>
+    <row r="204" s="47" customFormat="1" ht="14"/>
+    <row r="205" s="47" customFormat="1" ht="14"/>
+    <row r="206" s="47" customFormat="1" ht="14"/>
+    <row r="207" s="47" customFormat="1" ht="14"/>
+    <row r="208" s="47" customFormat="1" ht="14"/>
+    <row r="209" s="47" customFormat="1" ht="14"/>
+    <row r="210" s="47" customFormat="1" ht="14"/>
+    <row r="211" s="47" customFormat="1" ht="14"/>
+    <row r="212" s="47" customFormat="1" ht="14"/>
+    <row r="213" s="47" customFormat="1" ht="14"/>
+    <row r="214" s="47" customFormat="1" ht="14"/>
+    <row r="215" s="47" customFormat="1" ht="14"/>
+    <row r="216" s="47" customFormat="1" ht="14"/>
+    <row r="217" s="47" customFormat="1" ht="14"/>
+    <row r="218" s="47" customFormat="1" ht="14"/>
+    <row r="219" s="47" customFormat="1" ht="14"/>
+    <row r="220" s="47" customFormat="1" ht="14"/>
+    <row r="221" s="47" customFormat="1" ht="14"/>
+    <row r="222" s="47" customFormat="1" ht="14"/>
+    <row r="223" s="47" customFormat="1" ht="14"/>
+    <row r="224" s="47" customFormat="1" ht="14"/>
+    <row r="225" s="47" customFormat="1" ht="14"/>
+    <row r="226" s="47" customFormat="1" ht="14"/>
+    <row r="227" s="47" customFormat="1" ht="14"/>
+    <row r="228" s="47" customFormat="1" ht="14"/>
+    <row r="229" s="47" customFormat="1" ht="14"/>
+    <row r="230" s="47" customFormat="1" ht="14"/>
+    <row r="231" s="47" customFormat="1" ht="14"/>
+    <row r="232" s="47" customFormat="1" ht="14"/>
+    <row r="233" s="47" customFormat="1" ht="14"/>
+    <row r="234" s="47" customFormat="1" ht="14"/>
+    <row r="235" s="47" customFormat="1" ht="14"/>
+    <row r="236" s="47" customFormat="1" ht="14"/>
+    <row r="237" s="47" customFormat="1" ht="14"/>
+    <row r="238" s="47" customFormat="1" ht="14"/>
+    <row r="239" s="47" customFormat="1" ht="14"/>
+    <row r="240" s="47" customFormat="1" ht="14"/>
+    <row r="241" s="47" customFormat="1" ht="14"/>
+    <row r="242" s="47" customFormat="1" ht="14"/>
+    <row r="243" s="47" customFormat="1" ht="14"/>
+    <row r="244" s="47" customFormat="1" ht="14"/>
+    <row r="245" s="47" customFormat="1" ht="14"/>
+    <row r="246" s="47" customFormat="1" ht="14"/>
+    <row r="247" s="47" customFormat="1" ht="14"/>
+    <row r="248" s="47" customFormat="1" ht="14"/>
+    <row r="249" s="47" customFormat="1" ht="14"/>
+    <row r="250" s="47" customFormat="1" ht="14"/>
+    <row r="251" s="47" customFormat="1" ht="14"/>
+    <row r="252" s="47" customFormat="1" ht="14"/>
+    <row r="253" s="47" customFormat="1" ht="14"/>
+    <row r="254" s="47" customFormat="1" ht="14"/>
+    <row r="255" s="47" customFormat="1" ht="14"/>
+    <row r="256" s="47" customFormat="1" ht="14"/>
+    <row r="257" s="47" customFormat="1" ht="14"/>
+    <row r="258" s="47" customFormat="1" ht="14"/>
+    <row r="259" s="47" customFormat="1" ht="14"/>
+    <row r="260" s="47" customFormat="1" ht="14"/>
+    <row r="261" s="47" customFormat="1" ht="14"/>
+    <row r="262" s="47" customFormat="1" ht="14"/>
+    <row r="263" s="47" customFormat="1" ht="14"/>
+    <row r="264" s="47" customFormat="1" ht="14"/>
+    <row r="265" s="47" customFormat="1" ht="14"/>
+    <row r="266" s="47" customFormat="1" ht="14"/>
+    <row r="267" s="47" customFormat="1" ht="14"/>
+    <row r="268" s="47" customFormat="1" ht="14"/>
+    <row r="269" s="47" customFormat="1" ht="14"/>
+    <row r="270" s="47" customFormat="1" ht="14"/>
+    <row r="271" s="47" customFormat="1" ht="14"/>
+    <row r="272" s="47" customFormat="1" ht="14"/>
+    <row r="273" s="47" customFormat="1" ht="14"/>
+    <row r="274" s="47" customFormat="1" ht="14"/>
+    <row r="275" s="47" customFormat="1" ht="14"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H7:M10"/>
     <mergeCell ref="B134:M134"/>
     <mergeCell ref="B126:M126"/>
     <mergeCell ref="B127:M127"/>
@@ -15221,56 +15222,50 @@
     <mergeCell ref="B131:M131"/>
     <mergeCell ref="B132:M132"/>
     <mergeCell ref="B133:M133"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H7:M10"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="40" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F707" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="221" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="109" customWidth="1"/>
-    <col min="3" max="3" width="66.125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="221" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="60" customWidth="1"/>
     <col min="5" max="5" width="23" style="60" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="43.75" style="160" customWidth="1"/>
-    <col min="8" max="10" width="12.375" style="305" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="70" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="160" customWidth="1"/>
+    <col min="8" max="10" width="12.33203125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="70" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="70" customWidth="1"/>
-    <col min="13" max="13" width="72.375" style="101" customWidth="1"/>
+    <col min="13" max="13" width="72.33203125" style="101" customWidth="1"/>
     <col min="14" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="88" customFormat="1" ht="23.25">
+    <row r="1" spans="1:15" s="88" customFormat="1" ht="23">
       <c r="A1" s="111" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="217"/>
-      <c r="D1" s="306" t="s">
+      <c r="D1" s="299" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="307">
+      <c r="E1" s="300">
         <v>43963</v>
       </c>
       <c r="F1" s="216" t="s">
@@ -15287,7 +15282,7 @@
       <c r="N1" s="113"/>
       <c r="O1" s="113"/>
     </row>
-    <row r="2" spans="1:15" s="88" customFormat="1" ht="20.25">
+    <row r="2" spans="1:15" s="88" customFormat="1" ht="20">
       <c r="A2" s="283" t="s">
         <v>144</v>
       </c>
@@ -15311,7 +15306,7 @@
       <c r="N2" s="113"/>
       <c r="O2" s="113"/>
     </row>
-    <row r="3" spans="1:15" s="63" customFormat="1" ht="20.25">
+    <row r="3" spans="1:15" s="63" customFormat="1" ht="20">
       <c r="A3" s="166"/>
       <c r="B3" s="112"/>
       <c r="C3" s="160"/>
@@ -15319,9 +15314,9 @@
       <c r="E3" s="160"/>
       <c r="F3" s="160"/>
       <c r="G3" s="160"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="101"/>
@@ -15336,9 +15331,9 @@
       <c r="E4" s="160"/>
       <c r="F4" s="160"/>
       <c r="G4" s="160"/>
-      <c r="H4" s="295"/>
-      <c r="I4" s="295"/>
-      <c r="J4" s="295"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="101"/>
@@ -15347,27 +15342,27 @@
       <c r="A5" s="166"/>
       <c r="B5" s="117"/>
       <c r="C5" s="160"/>
-      <c r="D5" s="380" t="s">
+      <c r="D5" s="363" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="380"/>
-      <c r="F5" s="380"/>
-      <c r="G5" s="380"/>
-      <c r="H5" s="381" t="s">
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
+      <c r="H5" s="364" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
-      <c r="L5" s="383"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="366"/>
       <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="379" t="s">
+      <c r="A6" s="362" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="379"/>
-      <c r="C6" s="379"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="362"/>
       <c r="D6" s="146" t="s">
         <v>147</v>
       </c>
@@ -15395,7 +15390,7 @@
       <c r="L6" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="323" t="s">
+      <c r="M6" s="310" t="s">
         <v>158</v>
       </c>
     </row>
@@ -15673,7 +15668,7 @@
       </c>
       <c r="M14" s="89"/>
     </row>
-    <row r="15" spans="1:15" ht="27">
+    <row r="15" spans="1:15" ht="30">
       <c r="A15" s="144"/>
       <c r="B15" s="119" t="s">
         <v>190</v>
@@ -16055,13 +16050,13 @@
         <v>225</v>
       </c>
       <c r="D26" s="195"/>
-      <c r="E26" s="315" t="s">
+      <c r="E26" s="218" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="315" t="s">
+      <c r="F26" s="218" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="315" t="s">
+      <c r="G26" s="218" t="s">
         <v>165</v>
       </c>
       <c r="H26" s="82" t="s">
@@ -16086,13 +16081,13 @@
       <c r="B27" s="119"/>
       <c r="C27" s="179"/>
       <c r="D27" s="195"/>
-      <c r="E27" s="315" t="s">
+      <c r="E27" s="218" t="s">
         <v>229</v>
       </c>
-      <c r="F27" s="315" t="s">
+      <c r="F27" s="218" t="s">
         <v>230</v>
       </c>
-      <c r="G27" s="315" t="s">
+      <c r="G27" s="218" t="s">
         <v>165</v>
       </c>
       <c r="H27" s="82" t="s">
@@ -17042,10 +17037,10 @@
       <c r="H55" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I55" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J55" s="296" t="s">
+      <c r="I55" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J55" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K55" s="82" t="s">
@@ -17075,10 +17070,10 @@
       <c r="H56" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I56" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J56" s="296" t="s">
+      <c r="I56" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J56" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K56" s="82" t="s">
@@ -17108,10 +17103,10 @@
       <c r="H57" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I57" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J57" s="296" t="s">
+      <c r="I57" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J57" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K57" s="82" t="s">
@@ -17143,10 +17138,10 @@
       <c r="H58" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J58" s="296" t="s">
+      <c r="I58" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K58" s="82" t="s">
@@ -17176,10 +17171,10 @@
       <c r="H59" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I59" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J59" s="296" t="s">
+      <c r="I59" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K59" s="82" t="s">
@@ -17209,10 +17204,10 @@
       <c r="H60" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" s="296" t="s">
+      <c r="I60" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K60" s="82" t="s">
@@ -18661,7 +18656,7 @@
       <c r="I103" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J103" s="296" t="s">
+      <c r="J103" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K103" s="82" t="s">
@@ -18694,7 +18689,7 @@
       <c r="I104" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J104" s="296" t="s">
+      <c r="J104" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K104" s="82" t="s">
@@ -18727,7 +18722,7 @@
       <c r="I105" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J105" s="296" t="s">
+      <c r="J105" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K105" s="82" t="s">
@@ -18762,7 +18757,7 @@
       <c r="I106" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J106" s="296" t="s">
+      <c r="J106" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K106" s="82" t="s">
@@ -18795,7 +18790,7 @@
       <c r="I107" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J107" s="296" t="s">
+      <c r="J107" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K107" s="82" t="s">
@@ -18828,7 +18823,7 @@
       <c r="I108" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J108" s="296" t="s">
+      <c r="J108" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K108" s="82" t="s">
@@ -18863,7 +18858,7 @@
       <c r="I109" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J109" s="296" t="s">
+      <c r="J109" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K109" s="82" t="s">
@@ -18896,7 +18891,7 @@
       <c r="I110" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J110" s="296" t="s">
+      <c r="J110" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K110" s="82" t="s">
@@ -18929,7 +18924,7 @@
       <c r="I111" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J111" s="296" t="s">
+      <c r="J111" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K111" s="82" t="s">
@@ -18961,10 +18956,10 @@
       <c r="H112" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I112" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J112" s="296" t="s">
+      <c r="I112" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J112" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K112" s="114" t="s">
@@ -18994,10 +18989,10 @@
       <c r="H113" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I113" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J113" s="296" t="s">
+      <c r="I113" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J113" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K113" s="114" t="s">
@@ -19027,10 +19022,10 @@
       <c r="H114" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I114" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J114" s="296" t="s">
+      <c r="I114" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J114" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K114" s="114" t="s">
@@ -19041,7 +19036,7 @@
       </c>
       <c r="M114" s="89"/>
     </row>
-    <row r="115" spans="1:13" ht="54">
+    <row r="115" spans="1:13" ht="60">
       <c r="A115" s="144"/>
       <c r="B115" s="119" t="s">
         <v>486</v>
@@ -19086,10 +19081,10 @@
       <c r="E116" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="F116" s="317" t="s">
+      <c r="F116" s="201" t="s">
         <v>492</v>
       </c>
-      <c r="G116" s="318" t="s">
+      <c r="G116" s="309" t="s">
         <v>493</v>
       </c>
       <c r="H116" s="79" t="s">
@@ -19109,7 +19104,7 @@
       </c>
       <c r="M116" s="89"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" ht="15">
       <c r="A117" s="144"/>
       <c r="B117" s="118" t="s">
         <v>494</v>
@@ -19121,10 +19116,10 @@
       <c r="E117" s="153" t="s">
         <v>496</v>
       </c>
-      <c r="F117" s="317" t="s">
+      <c r="F117" s="201" t="s">
         <v>497</v>
       </c>
-      <c r="G117" s="318" t="s">
+      <c r="G117" s="309" t="s">
         <v>165</v>
       </c>
       <c r="H117" s="82" t="s">
@@ -19144,7 +19139,7 @@
       </c>
       <c r="M117" s="89"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" ht="15">
       <c r="A118" s="144"/>
       <c r="B118" s="119"/>
       <c r="C118" s="157" t="s">
@@ -19154,10 +19149,10 @@
       <c r="E118" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="F118" s="317" t="s">
+      <c r="F118" s="201" t="s">
         <v>500</v>
       </c>
-      <c r="G118" s="318" t="s">
+      <c r="G118" s="309" t="s">
         <v>501</v>
       </c>
       <c r="H118" s="82" t="s">
@@ -19177,7 +19172,7 @@
       </c>
       <c r="M118" s="89"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" ht="15">
       <c r="A119" s="144"/>
       <c r="B119" s="119"/>
       <c r="C119" s="157"/>
@@ -19185,10 +19180,10 @@
       <c r="E119" s="153" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="317" t="s">
+      <c r="F119" s="201" t="s">
         <v>503</v>
       </c>
-      <c r="G119" s="318" t="s">
+      <c r="G119" s="309" t="s">
         <v>504</v>
       </c>
       <c r="H119" s="82" t="s">
@@ -19208,7 +19203,7 @@
       </c>
       <c r="M119" s="89"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" ht="15">
       <c r="A120" s="144"/>
       <c r="B120" s="119"/>
       <c r="C120" s="157"/>
@@ -19216,10 +19211,10 @@
       <c r="E120" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F120" s="317" t="s">
+      <c r="F120" s="201" t="s">
         <v>505</v>
       </c>
-      <c r="G120" s="318" t="s">
+      <c r="G120" s="309" t="s">
         <v>165</v>
       </c>
       <c r="H120" s="82" t="s">
@@ -19253,10 +19248,10 @@
       <c r="E121" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="F121" s="315" t="s">
+      <c r="F121" s="218" t="s">
         <v>509</v>
       </c>
-      <c r="G121" s="315" t="s">
+      <c r="G121" s="218" t="s">
         <v>165</v>
       </c>
       <c r="H121" s="79" t="s">
@@ -19284,10 +19279,10 @@
       <c r="E122" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="F122" s="315" t="s">
+      <c r="F122" s="218" t="s">
         <v>510</v>
       </c>
-      <c r="G122" s="315" t="s">
+      <c r="G122" s="218" t="s">
         <v>165</v>
       </c>
       <c r="H122" s="79" t="s">
@@ -19317,10 +19312,10 @@
       <c r="E123" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="F123" s="315" t="s">
+      <c r="F123" s="218" t="s">
         <v>512</v>
       </c>
-      <c r="G123" s="315"/>
+      <c r="G123" s="218"/>
       <c r="H123" s="79" t="s">
         <v>166</v>
       </c>
@@ -19352,10 +19347,10 @@
       <c r="E124" s="135" t="s">
         <v>516</v>
       </c>
-      <c r="F124" s="322" t="s">
+      <c r="F124" s="223" t="s">
         <v>517</v>
       </c>
-      <c r="G124" s="315" t="s">
+      <c r="G124" s="218" t="s">
         <v>176</v>
       </c>
       <c r="H124" s="79" t="s">
@@ -19673,7 +19668,7 @@
       <c r="B134" s="119"/>
       <c r="C134" s="136"/>
       <c r="D134" s="195"/>
-      <c r="E134" s="324" t="s">
+      <c r="E134" s="311" t="s">
         <v>542</v>
       </c>
       <c r="F134" s="247" t="s">
@@ -19779,13 +19774,13 @@
       <c r="G137" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H137" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I137" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J137" s="296" t="s">
+      <c r="H137" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I137" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J137" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K137" s="82" t="s">
@@ -19814,13 +19809,13 @@
       <c r="G138" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H138" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I138" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J138" s="296" t="s">
+      <c r="H138" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I138" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J138" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K138" s="82" t="s">
@@ -19849,13 +19844,13 @@
       <c r="G139" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H139" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I139" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J139" s="296" t="s">
+      <c r="H139" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I139" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J139" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K139" s="82" t="s">
@@ -19884,13 +19879,13 @@
       <c r="G140" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H140" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I140" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J140" s="296" t="s">
+      <c r="H140" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I140" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J140" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K140" s="82" t="s">
@@ -19919,13 +19914,13 @@
       <c r="G141" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H141" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I141" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J141" s="296" t="s">
+      <c r="H141" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I141" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J141" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K141" s="82" t="s">
@@ -20603,13 +20598,13 @@
       <c r="G163" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H163" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I163" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J163" s="296" t="s">
+      <c r="H163" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I163" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J163" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K163" s="82" t="s">
@@ -20636,13 +20631,13 @@
       <c r="G164" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H164" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I164" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J164" s="296" t="s">
+      <c r="H164" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I164" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J164" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K164" s="82" t="s">
@@ -20771,7 +20766,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" ht="15">
       <c r="A169" s="121"/>
       <c r="B169" s="118" t="s">
         <v>625</v>
@@ -21078,13 +21073,13 @@
       <c r="G178" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H178" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I178" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J178" s="296" t="s">
+      <c r="H178" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I178" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J178" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K178" s="82" t="s">
@@ -21113,13 +21108,13 @@
       <c r="G179" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H179" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I179" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J179" s="296" t="s">
+      <c r="H179" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I179" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J179" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K179" s="82" t="s">
@@ -21148,13 +21143,13 @@
       <c r="G180" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H180" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I180" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J180" s="296" t="s">
+      <c r="H180" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I180" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J180" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K180" s="82" t="s">
@@ -21183,13 +21178,13 @@
       <c r="G181" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H181" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I181" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J181" s="296" t="s">
+      <c r="H181" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I181" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J181" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K181" s="82" t="s">
@@ -21218,13 +21213,13 @@
       <c r="G182" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H182" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I182" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J182" s="296" t="s">
+      <c r="H182" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I182" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J182" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K182" s="82" t="s">
@@ -21330,7 +21325,7 @@
       </c>
       <c r="M185" s="89"/>
     </row>
-    <row r="186" spans="1:13" ht="27">
+    <row r="186" spans="1:13" ht="30">
       <c r="A186" s="121"/>
       <c r="B186" s="119"/>
       <c r="C186" s="153" t="s">
@@ -22111,7 +22106,7 @@
       </c>
       <c r="M210" s="89"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" ht="15">
       <c r="A211" s="144"/>
       <c r="B211" s="119"/>
       <c r="C211" s="192"/>
@@ -22121,13 +22116,13 @@
       <c r="G211" s="154" t="s">
         <v>708</v>
       </c>
-      <c r="H211" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I211" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J211" s="296" t="s">
+      <c r="H211" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I211" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J211" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K211" s="82" t="s">
@@ -22138,7 +22133,7 @@
       </c>
       <c r="M211" s="89"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" ht="15">
       <c r="A212" s="144"/>
       <c r="B212" s="119"/>
       <c r="C212" s="192"/>
@@ -22148,13 +22143,13 @@
       <c r="G212" s="154" t="s">
         <v>709</v>
       </c>
-      <c r="H212" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I212" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J212" s="296" t="s">
+      <c r="H212" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I212" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J212" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K212" s="82" t="s">
@@ -22165,7 +22160,7 @@
       </c>
       <c r="M212" s="89"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" ht="15">
       <c r="A213" s="144"/>
       <c r="B213" s="119"/>
       <c r="C213" s="192"/>
@@ -22175,13 +22170,13 @@
       <c r="G213" s="154" t="s">
         <v>710</v>
       </c>
-      <c r="H213" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I213" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J213" s="296" t="s">
+      <c r="H213" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I213" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J213" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K213" s="82" t="s">
@@ -22192,7 +22187,7 @@
       </c>
       <c r="M213" s="89"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" ht="15">
       <c r="A214" s="144"/>
       <c r="B214" s="119"/>
       <c r="C214" s="192"/>
@@ -22202,13 +22197,13 @@
       <c r="G214" s="154" t="s">
         <v>711</v>
       </c>
-      <c r="H214" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I214" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J214" s="296" t="s">
+      <c r="H214" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I214" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J214" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K214" s="82" t="s">
@@ -22219,7 +22214,7 @@
       </c>
       <c r="M214" s="89"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" ht="15">
       <c r="A215" s="144"/>
       <c r="B215" s="119"/>
       <c r="C215" s="192"/>
@@ -22229,13 +22224,13 @@
       <c r="G215" s="154" t="s">
         <v>712</v>
       </c>
-      <c r="H215" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I215" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J215" s="296" t="s">
+      <c r="H215" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I215" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J215" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K215" s="82" t="s">
@@ -22246,7 +22241,7 @@
       </c>
       <c r="M215" s="89"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" ht="15">
       <c r="A216" s="144"/>
       <c r="B216" s="119"/>
       <c r="C216" s="192"/>
@@ -22256,13 +22251,13 @@
       <c r="G216" s="154" t="s">
         <v>713</v>
       </c>
-      <c r="H216" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I216" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J216" s="296" t="s">
+      <c r="H216" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I216" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J216" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K216" s="82" t="s">
@@ -22273,7 +22268,7 @@
       </c>
       <c r="M216" s="89"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" ht="15">
       <c r="A217" s="144"/>
       <c r="B217" s="119"/>
       <c r="C217" s="192"/>
@@ -22283,13 +22278,13 @@
       <c r="G217" s="154" t="s">
         <v>714</v>
       </c>
-      <c r="H217" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I217" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J217" s="296" t="s">
+      <c r="H217" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I217" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J217" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K217" s="82" t="s">
@@ -22300,7 +22295,7 @@
       </c>
       <c r="M217" s="89"/>
     </row>
-    <row r="218" spans="1:13" s="61" customFormat="1">
+    <row r="218" spans="1:13" s="61" customFormat="1" ht="15">
       <c r="A218" s="144"/>
       <c r="B218" s="119"/>
       <c r="C218" s="192"/>
@@ -22310,13 +22305,13 @@
       <c r="G218" s="154" t="s">
         <v>715</v>
       </c>
-      <c r="H218" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I218" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J218" s="296" t="s">
+      <c r="H218" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I218" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J218" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K218" s="82" t="s">
@@ -22327,7 +22322,7 @@
       </c>
       <c r="M218" s="89"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" ht="15">
       <c r="A219" s="121"/>
       <c r="B219" s="119"/>
       <c r="C219" s="192"/>
@@ -22354,7 +22349,7 @@
       </c>
       <c r="M219" s="89"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" ht="15">
       <c r="A220" s="144"/>
       <c r="B220" s="119"/>
       <c r="C220" s="192"/>
@@ -22381,7 +22376,7 @@
       </c>
       <c r="M220" s="89"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" ht="15">
       <c r="A221" s="121"/>
       <c r="B221" s="119"/>
       <c r="C221" s="192"/>
@@ -22408,7 +22403,7 @@
       </c>
       <c r="M221" s="89"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" ht="15">
       <c r="A222" s="144"/>
       <c r="B222" s="119"/>
       <c r="C222" s="192"/>
@@ -22418,13 +22413,13 @@
       <c r="G222" s="154" t="s">
         <v>719</v>
       </c>
-      <c r="H222" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I222" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J222" s="296" t="s">
+      <c r="H222" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I222" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J222" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K222" s="82" t="s">
@@ -22435,7 +22430,7 @@
       </c>
       <c r="M222" s="89"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" ht="15">
       <c r="A223" s="144"/>
       <c r="B223" s="119"/>
       <c r="C223" s="192"/>
@@ -22445,13 +22440,13 @@
       <c r="G223" s="154" t="s">
         <v>720</v>
       </c>
-      <c r="H223" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I223" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J223" s="296" t="s">
+      <c r="H223" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I223" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J223" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K223" s="82" t="s">
@@ -22472,13 +22467,13 @@
       <c r="G224" s="154" t="s">
         <v>721</v>
       </c>
-      <c r="H224" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I224" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J224" s="296" t="s">
+      <c r="H224" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I224" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J224" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K224" s="82" t="s">
@@ -22499,13 +22494,13 @@
       <c r="G225" s="154" t="s">
         <v>722</v>
       </c>
-      <c r="H225" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I225" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J225" s="296" t="s">
+      <c r="H225" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I225" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J225" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K225" s="82" t="s">
@@ -22516,7 +22511,7 @@
       </c>
       <c r="M225" s="89"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" ht="15">
       <c r="A226" s="144"/>
       <c r="B226" s="119"/>
       <c r="C226" s="192"/>
@@ -22543,7 +22538,7 @@
       </c>
       <c r="M226" s="89"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" ht="15">
       <c r="A227" s="144"/>
       <c r="B227" s="119"/>
       <c r="C227" s="192"/>
@@ -22553,13 +22548,13 @@
       <c r="G227" s="187" t="s">
         <v>724</v>
       </c>
-      <c r="H227" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I227" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J227" s="296" t="s">
+      <c r="H227" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I227" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J227" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K227" s="82" t="s">
@@ -22570,7 +22565,7 @@
       </c>
       <c r="M227" s="89"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" ht="15">
       <c r="A228" s="144"/>
       <c r="B228" s="119"/>
       <c r="C228" s="192"/>
@@ -22580,13 +22575,13 @@
       <c r="G228" s="187" t="s">
         <v>725</v>
       </c>
-      <c r="H228" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I228" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J228" s="296" t="s">
+      <c r="H228" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I228" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J228" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K228" s="82" t="s">
@@ -22597,7 +22592,7 @@
       </c>
       <c r="M228" s="89"/>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" ht="15">
       <c r="A229" s="144"/>
       <c r="B229" s="119"/>
       <c r="C229" s="192"/>
@@ -22607,13 +22602,13 @@
       <c r="G229" s="187" t="s">
         <v>726</v>
       </c>
-      <c r="H229" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I229" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J229" s="296" t="s">
+      <c r="H229" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I229" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J229" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K229" s="82" t="s">
@@ -22624,7 +22619,7 @@
       </c>
       <c r="M229" s="89"/>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" ht="15">
       <c r="A230" s="144"/>
       <c r="B230" s="119"/>
       <c r="C230" s="209"/>
@@ -22651,7 +22646,7 @@
       </c>
       <c r="M230" s="89"/>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" ht="15">
       <c r="A231" s="144"/>
       <c r="B231" s="119"/>
       <c r="C231" s="192"/>
@@ -22678,7 +22673,7 @@
       </c>
       <c r="M231" s="89"/>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" ht="15">
       <c r="A232" s="144"/>
       <c r="B232" s="119"/>
       <c r="C232" s="192"/>
@@ -22688,13 +22683,13 @@
       <c r="G232" s="154" t="s">
         <v>729</v>
       </c>
-      <c r="H232" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I232" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J232" s="296" t="s">
+      <c r="H232" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I232" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J232" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K232" s="82" t="s">
@@ -22705,7 +22700,7 @@
       </c>
       <c r="M232" s="89"/>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" ht="15">
       <c r="A233" s="144"/>
       <c r="B233" s="119"/>
       <c r="C233" s="192"/>
@@ -22715,13 +22710,13 @@
       <c r="G233" s="154" t="s">
         <v>730</v>
       </c>
-      <c r="H233" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I233" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J233" s="296" t="s">
+      <c r="H233" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I233" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J233" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K233" s="82" t="s">
@@ -22732,7 +22727,7 @@
       </c>
       <c r="M233" s="89"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" ht="15">
       <c r="A234" s="144"/>
       <c r="B234" s="119"/>
       <c r="C234" s="192"/>
@@ -22742,13 +22737,13 @@
       <c r="G234" s="154" t="s">
         <v>731</v>
       </c>
-      <c r="H234" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I234" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J234" s="296" t="s">
+      <c r="H234" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I234" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J234" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K234" s="82" t="s">
@@ -22759,7 +22754,7 @@
       </c>
       <c r="M234" s="89"/>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" ht="15">
       <c r="A235" s="144"/>
       <c r="B235" s="119"/>
       <c r="C235" s="192"/>
@@ -22769,13 +22764,13 @@
       <c r="G235" s="154" t="s">
         <v>732</v>
       </c>
-      <c r="H235" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I235" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J235" s="296" t="s">
+      <c r="H235" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I235" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J235" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K235" s="82" t="s">
@@ -22786,7 +22781,7 @@
       </c>
       <c r="M235" s="89"/>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" ht="15">
       <c r="A236" s="144"/>
       <c r="B236" s="119"/>
       <c r="C236" s="192"/>
@@ -22813,7 +22808,7 @@
       </c>
       <c r="M236" s="89"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" ht="15">
       <c r="A237" s="144"/>
       <c r="B237" s="119"/>
       <c r="C237" s="192"/>
@@ -22823,13 +22818,13 @@
       <c r="G237" s="187" t="s">
         <v>734</v>
       </c>
-      <c r="H237" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I237" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J237" s="296" t="s">
+      <c r="H237" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I237" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J237" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K237" s="82" t="s">
@@ -22840,7 +22835,7 @@
       </c>
       <c r="M237" s="89"/>
     </row>
-    <row r="238" spans="1:13" s="61" customFormat="1">
+    <row r="238" spans="1:13" s="61" customFormat="1" ht="15">
       <c r="A238" s="144"/>
       <c r="B238" s="119"/>
       <c r="C238" s="192"/>
@@ -22850,13 +22845,13 @@
       <c r="G238" s="187" t="s">
         <v>735</v>
       </c>
-      <c r="H238" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I238" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J238" s="296" t="s">
+      <c r="H238" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I238" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J238" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K238" s="82" t="s">
@@ -22867,7 +22862,7 @@
       </c>
       <c r="M238" s="89"/>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" ht="15">
       <c r="A239" s="144"/>
       <c r="B239" s="119"/>
       <c r="C239" s="192"/>
@@ -22877,13 +22872,13 @@
       <c r="G239" s="187" t="s">
         <v>736</v>
       </c>
-      <c r="H239" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I239" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J239" s="296" t="s">
+      <c r="H239" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I239" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J239" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K239" s="82" t="s">
@@ -22894,7 +22889,7 @@
       </c>
       <c r="M239" s="89"/>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" ht="15">
       <c r="A240" s="144"/>
       <c r="B240" s="119"/>
       <c r="C240" s="209"/>
@@ -22921,7 +22916,7 @@
       </c>
       <c r="M240" s="89"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" ht="15">
       <c r="A241" s="144"/>
       <c r="B241" s="119"/>
       <c r="C241" s="192"/>
@@ -22950,7 +22945,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" ht="15">
       <c r="A242" s="144"/>
       <c r="B242" s="119"/>
       <c r="C242" s="192"/>
@@ -22960,13 +22955,13 @@
       <c r="G242" s="154" t="s">
         <v>740</v>
       </c>
-      <c r="H242" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I242" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J242" s="296" t="s">
+      <c r="H242" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I242" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J242" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K242" s="82" t="s">
@@ -22977,7 +22972,7 @@
       </c>
       <c r="M242" s="89"/>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" ht="15">
       <c r="A243" s="144"/>
       <c r="B243" s="119"/>
       <c r="C243" s="192"/>
@@ -22987,13 +22982,13 @@
       <c r="G243" s="154" t="s">
         <v>741</v>
       </c>
-      <c r="H243" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I243" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J243" s="296" t="s">
+      <c r="H243" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I243" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J243" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K243" s="82" t="s">
@@ -23004,7 +22999,7 @@
       </c>
       <c r="M243" s="89"/>
     </row>
-    <row r="244" spans="1:13" s="61" customFormat="1">
+    <row r="244" spans="1:13" s="61" customFormat="1" ht="15">
       <c r="A244" s="144"/>
       <c r="B244" s="119"/>
       <c r="C244" s="192"/>
@@ -23014,13 +23009,13 @@
       <c r="G244" s="154" t="s">
         <v>742</v>
       </c>
-      <c r="H244" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I244" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J244" s="296" t="s">
+      <c r="H244" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I244" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J244" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K244" s="82" t="s">
@@ -23031,7 +23026,7 @@
       </c>
       <c r="M244" s="89"/>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" ht="15">
       <c r="A245" s="144"/>
       <c r="B245" s="119"/>
       <c r="C245" s="192"/>
@@ -23041,13 +23036,13 @@
       <c r="G245" s="154" t="s">
         <v>743</v>
       </c>
-      <c r="H245" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I245" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J245" s="296" t="s">
+      <c r="H245" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I245" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J245" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K245" s="82" t="s">
@@ -23058,7 +23053,7 @@
       </c>
       <c r="M245" s="89"/>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" ht="15">
       <c r="A246" s="144"/>
       <c r="B246" s="119"/>
       <c r="C246" s="192"/>
@@ -23085,7 +23080,7 @@
       </c>
       <c r="M246" s="89"/>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" ht="15">
       <c r="A247" s="144"/>
       <c r="B247" s="119"/>
       <c r="C247" s="192"/>
@@ -23095,13 +23090,13 @@
       <c r="G247" s="187" t="s">
         <v>745</v>
       </c>
-      <c r="H247" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I247" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J247" s="296" t="s">
+      <c r="H247" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I247" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J247" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K247" s="82" t="s">
@@ -23112,7 +23107,7 @@
       </c>
       <c r="M247" s="89"/>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" ht="15">
       <c r="A248" s="144"/>
       <c r="B248" s="119"/>
       <c r="C248" s="192"/>
@@ -23122,13 +23117,13 @@
       <c r="G248" s="187" t="s">
         <v>746</v>
       </c>
-      <c r="H248" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I248" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J248" s="296" t="s">
+      <c r="H248" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I248" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J248" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K248" s="82" t="s">
@@ -23139,7 +23134,7 @@
       </c>
       <c r="M248" s="89"/>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" ht="15">
       <c r="A249" s="144"/>
       <c r="B249" s="119"/>
       <c r="C249" s="192"/>
@@ -23149,13 +23144,13 @@
       <c r="G249" s="187" t="s">
         <v>747</v>
       </c>
-      <c r="H249" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I249" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J249" s="296" t="s">
+      <c r="H249" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I249" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J249" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K249" s="82" t="s">
@@ -23166,7 +23161,7 @@
       </c>
       <c r="M249" s="89"/>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" ht="15">
       <c r="A250" s="144"/>
       <c r="B250" s="119"/>
       <c r="C250" s="209"/>
@@ -23193,7 +23188,7 @@
       </c>
       <c r="M250" s="89"/>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" ht="15">
       <c r="A251" s="144"/>
       <c r="B251" s="119"/>
       <c r="C251" s="192"/>
@@ -23220,7 +23215,7 @@
       </c>
       <c r="M251" s="89"/>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" ht="15">
       <c r="A252" s="121"/>
       <c r="B252" s="119"/>
       <c r="C252" s="192"/>
@@ -23230,13 +23225,13 @@
       <c r="G252" s="154" t="s">
         <v>750</v>
       </c>
-      <c r="H252" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I252" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J252" s="296" t="s">
+      <c r="H252" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I252" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J252" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K252" s="82" t="s">
@@ -23247,7 +23242,7 @@
       </c>
       <c r="M252" s="89"/>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" ht="15">
       <c r="A253" s="121"/>
       <c r="B253" s="119"/>
       <c r="C253" s="192"/>
@@ -23257,13 +23252,13 @@
       <c r="G253" s="154" t="s">
         <v>751</v>
       </c>
-      <c r="H253" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I253" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J253" s="296" t="s">
+      <c r="H253" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I253" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J253" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K253" s="82" t="s">
@@ -23274,7 +23269,7 @@
       </c>
       <c r="M253" s="89"/>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" ht="15">
       <c r="A254" s="144"/>
       <c r="B254" s="119"/>
       <c r="C254" s="192"/>
@@ -23284,13 +23279,13 @@
       <c r="G254" s="154" t="s">
         <v>752</v>
       </c>
-      <c r="H254" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I254" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J254" s="296" t="s">
+      <c r="H254" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I254" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J254" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K254" s="82" t="s">
@@ -23301,7 +23296,7 @@
       </c>
       <c r="M254" s="89"/>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" ht="15">
       <c r="A255" s="144"/>
       <c r="B255" s="119"/>
       <c r="C255" s="192"/>
@@ -23311,13 +23306,13 @@
       <c r="G255" s="154" t="s">
         <v>753</v>
       </c>
-      <c r="H255" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I255" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J255" s="296" t="s">
+      <c r="H255" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I255" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J255" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K255" s="82" t="s">
@@ -23328,7 +23323,7 @@
       </c>
       <c r="M255" s="89"/>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" ht="15">
       <c r="A256" s="144"/>
       <c r="B256" s="119"/>
       <c r="C256" s="192"/>
@@ -23392,13 +23387,13 @@
       <c r="G258" s="213" t="s">
         <v>756</v>
       </c>
-      <c r="H258" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I258" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J258" s="296" t="s">
+      <c r="H258" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I258" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J258" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K258" s="82" t="s">
@@ -23419,13 +23414,13 @@
       <c r="G259" s="213" t="s">
         <v>757</v>
       </c>
-      <c r="H259" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I259" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J259" s="296" t="s">
+      <c r="H259" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I259" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J259" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K259" s="82" t="s">
@@ -23446,13 +23441,13 @@
       <c r="G260" s="213" t="s">
         <v>758</v>
       </c>
-      <c r="H260" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I260" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J260" s="296" t="s">
+      <c r="H260" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I260" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J260" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K260" s="82" t="s">
@@ -23463,7 +23458,7 @@
       </c>
       <c r="M260" s="89"/>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" ht="15">
       <c r="A261" s="144"/>
       <c r="B261" s="119"/>
       <c r="C261" s="192"/>
@@ -23490,7 +23485,7 @@
       </c>
       <c r="M261" s="89"/>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" ht="15">
       <c r="A262" s="144"/>
       <c r="B262" s="119"/>
       <c r="C262" s="192"/>
@@ -23517,7 +23512,7 @@
       </c>
       <c r="M262" s="89"/>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" ht="15">
       <c r="A263" s="144"/>
       <c r="B263" s="119"/>
       <c r="C263" s="192"/>
@@ -23533,7 +23528,7 @@
       <c r="I263" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J263" s="296" t="s">
+      <c r="J263" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K263" s="97" t="s">
@@ -23546,7 +23541,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" ht="15">
       <c r="A264" s="144"/>
       <c r="B264" s="119"/>
       <c r="C264" s="192"/>
@@ -23562,7 +23557,7 @@
       <c r="I264" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J264" s="297" t="s">
+      <c r="J264" s="294" t="s">
         <v>228</v>
       </c>
       <c r="K264" s="83" t="s">
@@ -23575,7 +23570,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" ht="15">
       <c r="A265" s="144"/>
       <c r="B265" s="119"/>
       <c r="C265" s="192"/>
@@ -23591,7 +23586,7 @@
       <c r="I265" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J265" s="297" t="s">
+      <c r="J265" s="294" t="s">
         <v>228</v>
       </c>
       <c r="K265" s="83" t="s">
@@ -23604,7 +23599,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" ht="15">
       <c r="A266" s="144"/>
       <c r="B266" s="119"/>
       <c r="C266" s="192"/>
@@ -23620,7 +23615,7 @@
       <c r="I266" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J266" s="297" t="s">
+      <c r="J266" s="294" t="s">
         <v>228</v>
       </c>
       <c r="K266" s="83" t="s">
@@ -23633,7 +23628,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" ht="15">
       <c r="A267" s="144"/>
       <c r="B267" s="119"/>
       <c r="C267" s="192"/>
@@ -23649,7 +23644,7 @@
       <c r="I267" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="J267" s="298" t="s">
+      <c r="J267" s="295" t="s">
         <v>228</v>
       </c>
       <c r="K267" s="84" t="s">
@@ -23662,7 +23657,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" ht="15">
       <c r="A268" s="144"/>
       <c r="B268" s="119"/>
       <c r="C268" s="192"/>
@@ -23678,7 +23673,7 @@
       <c r="I268" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J268" s="298" t="s">
+      <c r="J268" s="295" t="s">
         <v>228</v>
       </c>
       <c r="K268" s="97" t="s">
@@ -23691,7 +23686,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" ht="15">
       <c r="A269" s="144"/>
       <c r="B269" s="119"/>
       <c r="C269" s="192"/>
@@ -23707,7 +23702,7 @@
       <c r="I269" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="J269" s="296" t="s">
+      <c r="J269" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K269" s="82" t="s">
@@ -23736,7 +23731,7 @@
       <c r="I270" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="J270" s="296" t="s">
+      <c r="J270" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K270" s="82" t="s">
@@ -23749,7 +23744,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" ht="15">
       <c r="A271" s="144"/>
       <c r="B271" s="119"/>
       <c r="C271" s="192"/>
@@ -23765,7 +23760,7 @@
       <c r="I271" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="J271" s="296" t="s">
+      <c r="J271" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K271" s="82" t="s">
@@ -23778,7 +23773,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" ht="15">
       <c r="A272" s="144"/>
       <c r="B272" s="119"/>
       <c r="C272" s="192"/>
@@ -23794,7 +23789,7 @@
       <c r="I272" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J272" s="296" t="s">
+      <c r="J272" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K272" s="97" t="s">
@@ -23807,7 +23802,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" ht="15">
       <c r="A273" s="144"/>
       <c r="B273" s="119"/>
       <c r="C273" s="192"/>
@@ -23823,7 +23818,7 @@
       <c r="I273" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J273" s="296" t="s">
+      <c r="J273" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K273" s="97" t="s">
@@ -23865,7 +23860,7 @@
       </c>
       <c r="M274" s="89"/>
     </row>
-    <row r="275" spans="1:13" s="61" customFormat="1">
+    <row r="275" spans="1:13" s="61" customFormat="1" ht="15">
       <c r="A275" s="144"/>
       <c r="B275" s="119"/>
       <c r="C275" s="192"/>
@@ -23875,13 +23870,13 @@
       <c r="G275" s="173" t="s">
         <v>776</v>
       </c>
-      <c r="H275" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I275" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J275" s="296" t="s">
+      <c r="H275" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I275" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J275" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K275" s="82" t="s">
@@ -23892,7 +23887,7 @@
       </c>
       <c r="M275" s="89"/>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" ht="15">
       <c r="A276" s="144"/>
       <c r="B276" s="119"/>
       <c r="C276" s="192"/>
@@ -23902,13 +23897,13 @@
       <c r="G276" s="173" t="s">
         <v>777</v>
       </c>
-      <c r="H276" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I276" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J276" s="296" t="s">
+      <c r="H276" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I276" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J276" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K276" s="82" t="s">
@@ -23919,7 +23914,7 @@
       </c>
       <c r="M276" s="89"/>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" ht="15">
       <c r="A277" s="144"/>
       <c r="B277" s="119"/>
       <c r="C277" s="192"/>
@@ -23929,13 +23924,13 @@
       <c r="G277" s="158" t="s">
         <v>778</v>
       </c>
-      <c r="H277" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I277" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J277" s="296" t="s">
+      <c r="H277" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I277" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J277" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K277" s="82" t="s">
@@ -23946,7 +23941,7 @@
       </c>
       <c r="M277" s="89"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" ht="15">
       <c r="A278" s="121"/>
       <c r="B278" s="119"/>
       <c r="C278" s="192"/>
@@ -23956,13 +23951,13 @@
       <c r="G278" s="158" t="s">
         <v>779</v>
       </c>
-      <c r="H278" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I278" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J278" s="296" t="s">
+      <c r="H278" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I278" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J278" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K278" s="82" t="s">
@@ -23973,7 +23968,7 @@
       </c>
       <c r="M278" s="89"/>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" ht="15">
       <c r="A279" s="144"/>
       <c r="B279" s="119"/>
       <c r="C279" s="192"/>
@@ -23983,13 +23978,13 @@
       <c r="G279" s="158" t="s">
         <v>780</v>
       </c>
-      <c r="H279" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I279" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J279" s="296" t="s">
+      <c r="H279" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I279" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J279" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K279" s="82" t="s">
@@ -24000,7 +23995,7 @@
       </c>
       <c r="M279" s="89"/>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" ht="15">
       <c r="A280" s="144"/>
       <c r="B280" s="119"/>
       <c r="C280" s="192"/>
@@ -24027,7 +24022,7 @@
       </c>
       <c r="M280" s="89"/>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" ht="15">
       <c r="A281" s="144"/>
       <c r="B281" s="119"/>
       <c r="C281" s="192"/>
@@ -24054,7 +24049,7 @@
       </c>
       <c r="M281" s="89"/>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" ht="15">
       <c r="A282" s="144"/>
       <c r="B282" s="119"/>
       <c r="C282" s="192"/>
@@ -24081,14 +24076,14 @@
       </c>
       <c r="M282" s="89"/>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" ht="15">
       <c r="A283" s="144"/>
       <c r="B283" s="119"/>
       <c r="C283" s="192"/>
       <c r="D283" s="195"/>
       <c r="E283" s="195"/>
       <c r="F283" s="195"/>
-      <c r="G283" s="335" t="s">
+      <c r="G283" s="322" t="s">
         <v>783</v>
       </c>
       <c r="H283" s="79" t="s">
@@ -24108,14 +24103,14 @@
       </c>
       <c r="M283" s="89"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" ht="15">
       <c r="A284" s="144"/>
       <c r="B284" s="119"/>
       <c r="C284" s="192"/>
       <c r="D284" s="195"/>
       <c r="E284" s="195"/>
       <c r="F284" s="195"/>
-      <c r="G284" s="335" t="s">
+      <c r="G284" s="322" t="s">
         <v>784</v>
       </c>
       <c r="H284" s="79" t="s">
@@ -24135,14 +24130,14 @@
       </c>
       <c r="M284" s="89"/>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" ht="15">
       <c r="A285" s="144"/>
       <c r="B285" s="119"/>
       <c r="C285" s="192"/>
       <c r="D285" s="195"/>
       <c r="E285" s="195"/>
       <c r="F285" s="195"/>
-      <c r="G285" s="335" t="s">
+      <c r="G285" s="322" t="s">
         <v>785</v>
       </c>
       <c r="H285" s="79" t="s">
@@ -24162,7 +24157,7 @@
       </c>
       <c r="M285" s="89"/>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" ht="15">
       <c r="A286" s="144"/>
       <c r="B286" s="119"/>
       <c r="C286" s="192"/>
@@ -24189,7 +24184,7 @@
       </c>
       <c r="M286" s="89"/>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" ht="15">
       <c r="A287" s="121"/>
       <c r="B287" s="119"/>
       <c r="C287" s="192"/>
@@ -24216,7 +24211,7 @@
       </c>
       <c r="M287" s="89"/>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" ht="15">
       <c r="A288" s="121"/>
       <c r="B288" s="119"/>
       <c r="C288" s="192"/>
@@ -24226,13 +24221,13 @@
       <c r="G288" s="154" t="s">
         <v>788</v>
       </c>
-      <c r="H288" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I288" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J288" s="296" t="s">
+      <c r="H288" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I288" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J288" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K288" s="82" t="s">
@@ -24243,7 +24238,7 @@
       </c>
       <c r="M288" s="89"/>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" ht="15">
       <c r="A289" s="144"/>
       <c r="B289" s="119"/>
       <c r="C289" s="192"/>
@@ -24253,13 +24248,13 @@
       <c r="G289" s="154" t="s">
         <v>789</v>
       </c>
-      <c r="H289" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I289" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J289" s="296" t="s">
+      <c r="H289" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I289" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J289" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K289" s="82" t="s">
@@ -24270,7 +24265,7 @@
       </c>
       <c r="M289" s="89"/>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" ht="15">
       <c r="A290" s="144"/>
       <c r="B290" s="119"/>
       <c r="C290" s="192"/>
@@ -24280,13 +24275,13 @@
       <c r="G290" s="154" t="s">
         <v>790</v>
       </c>
-      <c r="H290" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I290" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J290" s="296" t="s">
+      <c r="H290" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I290" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J290" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K290" s="82" t="s">
@@ -24297,7 +24292,7 @@
       </c>
       <c r="M290" s="89"/>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" ht="15">
       <c r="A291" s="144"/>
       <c r="B291" s="119"/>
       <c r="C291" s="209"/>
@@ -24324,7 +24319,7 @@
       </c>
       <c r="M291" s="89"/>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" ht="15">
       <c r="A292" s="144"/>
       <c r="B292" s="119"/>
       <c r="C292" s="192"/>
@@ -24351,7 +24346,7 @@
       </c>
       <c r="M292" s="89"/>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" ht="15">
       <c r="A293" s="144"/>
       <c r="B293" s="119"/>
       <c r="C293" s="192"/>
@@ -24378,7 +24373,7 @@
       </c>
       <c r="M293" s="89"/>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" ht="15">
       <c r="A294" s="144"/>
       <c r="B294" s="119"/>
       <c r="C294" s="192"/>
@@ -24388,13 +24383,13 @@
       <c r="G294" s="154" t="s">
         <v>794</v>
       </c>
-      <c r="H294" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I294" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J294" s="296" t="s">
+      <c r="H294" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I294" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J294" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K294" s="82" t="s">
@@ -24405,7 +24400,7 @@
       </c>
       <c r="M294" s="89"/>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" ht="15">
       <c r="A295" s="121"/>
       <c r="B295" s="119"/>
       <c r="C295" s="192"/>
@@ -24415,13 +24410,13 @@
       <c r="G295" s="187" t="s">
         <v>795</v>
       </c>
-      <c r="H295" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I295" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J295" s="296" t="s">
+      <c r="H295" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I295" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J295" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K295" s="82" t="s">
@@ -24432,7 +24427,7 @@
       </c>
       <c r="M295" s="89"/>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" ht="15">
       <c r="A296" s="121"/>
       <c r="B296" s="119"/>
       <c r="C296" s="192"/>
@@ -24442,13 +24437,13 @@
       <c r="G296" s="187" t="s">
         <v>796</v>
       </c>
-      <c r="H296" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I296" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J296" s="296" t="s">
+      <c r="H296" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I296" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J296" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K296" s="82" t="s">
@@ -24459,7 +24454,7 @@
       </c>
       <c r="M296" s="89"/>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" ht="15">
       <c r="A297" s="144"/>
       <c r="B297" s="119"/>
       <c r="C297" s="192"/>
@@ -24469,13 +24464,13 @@
       <c r="G297" s="187" t="s">
         <v>797</v>
       </c>
-      <c r="H297" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I297" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J297" s="296" t="s">
+      <c r="H297" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I297" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J297" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K297" s="82" t="s">
@@ -24486,7 +24481,7 @@
       </c>
       <c r="M297" s="89"/>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" ht="15">
       <c r="A298" s="144"/>
       <c r="B298" s="119"/>
       <c r="C298" s="192"/>
@@ -24513,7 +24508,7 @@
       </c>
       <c r="M298" s="89"/>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" ht="15">
       <c r="A299" s="144"/>
       <c r="B299" s="119"/>
       <c r="C299" s="192"/>
@@ -24540,7 +24535,7 @@
       </c>
       <c r="M299" s="89"/>
     </row>
-    <row r="300" spans="1:13" s="61" customFormat="1">
+    <row r="300" spans="1:13" s="61" customFormat="1" ht="15">
       <c r="A300" s="144"/>
       <c r="B300" s="119"/>
       <c r="C300" s="192"/>
@@ -24567,7 +24562,7 @@
       </c>
       <c r="M300" s="89"/>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" ht="15">
       <c r="A301" s="144"/>
       <c r="B301" s="119"/>
       <c r="C301" s="192"/>
@@ -24594,7 +24589,7 @@
       </c>
       <c r="M301" s="89"/>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" ht="15">
       <c r="A302" s="144"/>
       <c r="B302" s="119"/>
       <c r="C302" s="192"/>
@@ -24621,7 +24616,7 @@
       </c>
       <c r="M302" s="89"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" ht="15">
       <c r="A303" s="144"/>
       <c r="B303" s="119"/>
       <c r="C303" s="192"/>
@@ -24648,7 +24643,7 @@
       </c>
       <c r="M303" s="89"/>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" ht="15">
       <c r="A304" s="144"/>
       <c r="B304" s="119"/>
       <c r="C304" s="192"/>
@@ -24675,7 +24670,7 @@
       </c>
       <c r="M304" s="89"/>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" ht="15">
       <c r="A305" s="144"/>
       <c r="B305" s="119"/>
       <c r="C305" s="192"/>
@@ -24702,7 +24697,7 @@
       </c>
       <c r="M305" s="89"/>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" ht="15">
       <c r="A306" s="144"/>
       <c r="B306" s="119"/>
       <c r="C306" s="192"/>
@@ -24712,13 +24707,13 @@
       <c r="G306" s="154" t="s">
         <v>806</v>
       </c>
-      <c r="H306" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I306" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J306" s="296" t="s">
+      <c r="H306" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I306" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J306" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K306" s="82" t="s">
@@ -24729,7 +24724,7 @@
       </c>
       <c r="M306" s="89"/>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" ht="15">
       <c r="A307" s="144"/>
       <c r="B307" s="119"/>
       <c r="C307" s="192"/>
@@ -24739,13 +24734,13 @@
       <c r="G307" s="154" t="s">
         <v>807</v>
       </c>
-      <c r="H307" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I307" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J307" s="296" t="s">
+      <c r="H307" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I307" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J307" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K307" s="82" t="s">
@@ -24756,7 +24751,7 @@
       </c>
       <c r="M307" s="89"/>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" ht="15">
       <c r="A308" s="144"/>
       <c r="B308" s="119"/>
       <c r="C308" s="192"/>
@@ -24766,13 +24761,13 @@
       <c r="G308" s="154" t="s">
         <v>808</v>
       </c>
-      <c r="H308" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I308" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J308" s="296" t="s">
+      <c r="H308" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I308" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J308" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K308" s="82" t="s">
@@ -24783,7 +24778,7 @@
       </c>
       <c r="M308" s="89"/>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" ht="15">
       <c r="A309" s="144"/>
       <c r="B309" s="119"/>
       <c r="C309" s="209"/>
@@ -24810,7 +24805,7 @@
       </c>
       <c r="M309" s="89"/>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" ht="15">
       <c r="A310" s="144"/>
       <c r="B310" s="119"/>
       <c r="C310" s="192"/>
@@ -24820,13 +24815,13 @@
       <c r="G310" s="154" t="s">
         <v>810</v>
       </c>
-      <c r="H310" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I310" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J310" s="296" t="s">
+      <c r="H310" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I310" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J310" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K310" s="82" t="s">
@@ -24837,7 +24832,7 @@
       </c>
       <c r="M310" s="89"/>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" ht="15">
       <c r="A311" s="144"/>
       <c r="B311" s="119"/>
       <c r="C311" s="192"/>
@@ -24847,13 +24842,13 @@
       <c r="G311" s="187" t="s">
         <v>811</v>
       </c>
-      <c r="H311" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I311" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J311" s="296" t="s">
+      <c r="H311" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I311" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J311" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K311" s="82" t="s">
@@ -24864,7 +24859,7 @@
       </c>
       <c r="M311" s="89"/>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" ht="15">
       <c r="A312" s="144"/>
       <c r="B312" s="119"/>
       <c r="C312" s="192"/>
@@ -24874,13 +24869,13 @@
       <c r="G312" s="187" t="s">
         <v>812</v>
       </c>
-      <c r="H312" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I312" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J312" s="296" t="s">
+      <c r="H312" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I312" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J312" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K312" s="82" t="s">
@@ -24891,7 +24886,7 @@
       </c>
       <c r="M312" s="89"/>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" ht="15">
       <c r="A313" s="144"/>
       <c r="B313" s="119"/>
       <c r="C313" s="192"/>
@@ -24901,13 +24896,13 @@
       <c r="G313" s="187" t="s">
         <v>813</v>
       </c>
-      <c r="H313" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I313" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J313" s="296" t="s">
+      <c r="H313" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I313" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J313" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K313" s="82" t="s">
@@ -24918,7 +24913,7 @@
       </c>
       <c r="M313" s="89"/>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" ht="15">
       <c r="A314" s="144"/>
       <c r="B314" s="119"/>
       <c r="C314" s="192"/>
@@ -24945,7 +24940,7 @@
       </c>
       <c r="M314" s="89"/>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" ht="15">
       <c r="A315" s="144"/>
       <c r="B315" s="119"/>
       <c r="C315" s="192"/>
@@ -24972,7 +24967,7 @@
       </c>
       <c r="M315" s="89"/>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" ht="15">
       <c r="A316" s="144"/>
       <c r="B316" s="119"/>
       <c r="C316" s="192"/>
@@ -24999,7 +24994,7 @@
       </c>
       <c r="M316" s="89"/>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" ht="15">
       <c r="A317" s="144"/>
       <c r="B317" s="119"/>
       <c r="C317" s="192"/>
@@ -25026,7 +25021,7 @@
       </c>
       <c r="M317" s="89"/>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" ht="15">
       <c r="A318" s="144"/>
       <c r="B318" s="119"/>
       <c r="C318" s="192"/>
@@ -25053,14 +25048,14 @@
       </c>
       <c r="M318" s="89"/>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" ht="15">
       <c r="A319" s="144"/>
       <c r="B319" s="119"/>
       <c r="C319" s="192"/>
       <c r="D319" s="195"/>
       <c r="E319" s="195"/>
       <c r="F319" s="195"/>
-      <c r="G319" s="335" t="s">
+      <c r="G319" s="322" t="s">
         <v>819</v>
       </c>
       <c r="H319" s="79" t="s">
@@ -25080,14 +25075,14 @@
       </c>
       <c r="M319" s="89"/>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" ht="15">
       <c r="A320" s="144"/>
       <c r="B320" s="119"/>
       <c r="C320" s="192"/>
       <c r="D320" s="195"/>
       <c r="E320" s="195"/>
       <c r="F320" s="195"/>
-      <c r="G320" s="335" t="s">
+      <c r="G320" s="322" t="s">
         <v>820</v>
       </c>
       <c r="H320" s="79" t="s">
@@ -25107,7 +25102,7 @@
       </c>
       <c r="M320" s="89"/>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" ht="15">
       <c r="A321" s="144"/>
       <c r="B321" s="119"/>
       <c r="C321" s="192"/>
@@ -25134,7 +25129,7 @@
       </c>
       <c r="M321" s="89"/>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" ht="15">
       <c r="A322" s="144"/>
       <c r="B322" s="119"/>
       <c r="C322" s="192"/>
@@ -25144,13 +25139,13 @@
       <c r="G322" s="154" t="s">
         <v>750</v>
       </c>
-      <c r="H322" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I322" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J322" s="296" t="s">
+      <c r="H322" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I322" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J322" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K322" s="82" t="s">
@@ -25161,7 +25156,7 @@
       </c>
       <c r="M322" s="89"/>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" ht="15">
       <c r="A323" s="144"/>
       <c r="B323" s="119"/>
       <c r="C323" s="192"/>
@@ -25171,13 +25166,13 @@
       <c r="G323" s="154" t="s">
         <v>751</v>
       </c>
-      <c r="H323" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I323" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J323" s="296" t="s">
+      <c r="H323" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I323" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J323" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K323" s="82" t="s">
@@ -25188,7 +25183,7 @@
       </c>
       <c r="M323" s="89"/>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" ht="15">
       <c r="A324" s="144"/>
       <c r="B324" s="119"/>
       <c r="C324" s="192"/>
@@ -25198,13 +25193,13 @@
       <c r="G324" s="154" t="s">
         <v>752</v>
       </c>
-      <c r="H324" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I324" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J324" s="296" t="s">
+      <c r="H324" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I324" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J324" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K324" s="82" t="s">
@@ -25215,7 +25210,7 @@
       </c>
       <c r="M324" s="89"/>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" ht="15">
       <c r="A325" s="121"/>
       <c r="B325" s="119"/>
       <c r="C325" s="192"/>
@@ -25225,13 +25220,13 @@
       <c r="G325" s="154" t="s">
         <v>753</v>
       </c>
-      <c r="H325" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I325" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J325" s="296" t="s">
+      <c r="H325" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I325" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J325" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K325" s="82" t="s">
@@ -25242,7 +25237,7 @@
       </c>
       <c r="M325" s="89"/>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" ht="15">
       <c r="A326" s="121"/>
       <c r="B326" s="119"/>
       <c r="C326" s="192"/>
@@ -25306,13 +25301,13 @@
       <c r="G328" s="213" t="s">
         <v>756</v>
       </c>
-      <c r="H328" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I328" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J328" s="296" t="s">
+      <c r="H328" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I328" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J328" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K328" s="82" t="s">
@@ -25333,13 +25328,13 @@
       <c r="G329" s="213" t="s">
         <v>757</v>
       </c>
-      <c r="H329" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I329" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J329" s="296" t="s">
+      <c r="H329" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I329" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J329" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K329" s="82" t="s">
@@ -25360,13 +25355,13 @@
       <c r="G330" s="213" t="s">
         <v>758</v>
       </c>
-      <c r="H330" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I330" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J330" s="296" t="s">
+      <c r="H330" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I330" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J330" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K330" s="82" t="s">
@@ -25377,7 +25372,7 @@
       </c>
       <c r="M330" s="89"/>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" ht="15">
       <c r="A331" s="121"/>
       <c r="B331" s="119"/>
       <c r="C331" s="192"/>
@@ -25404,7 +25399,7 @@
       </c>
       <c r="M331" s="89"/>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" ht="15">
       <c r="A332" s="121"/>
       <c r="B332" s="119"/>
       <c r="C332" s="192"/>
@@ -25431,7 +25426,7 @@
       </c>
       <c r="M332" s="89"/>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" ht="15">
       <c r="A333" s="144"/>
       <c r="B333" s="119"/>
       <c r="C333" s="192"/>
@@ -25447,7 +25442,7 @@
       <c r="I333" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J333" s="296" t="s">
+      <c r="J333" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K333" s="97" t="s">
@@ -25460,7 +25455,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" ht="15">
       <c r="A334" s="144"/>
       <c r="B334" s="119"/>
       <c r="C334" s="192"/>
@@ -25473,10 +25468,10 @@
       <c r="H334" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="I334" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J334" s="296" t="s">
+      <c r="I334" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J334" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K334" s="82" t="s">
@@ -25489,7 +25484,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" ht="15">
       <c r="A335" s="144"/>
       <c r="B335" s="119"/>
       <c r="C335" s="192"/>
@@ -25502,10 +25497,10 @@
       <c r="H335" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="I335" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J335" s="296" t="s">
+      <c r="I335" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J335" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K335" s="82" t="s">
@@ -25518,7 +25513,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" ht="15">
       <c r="A336" s="144"/>
       <c r="B336" s="119"/>
       <c r="C336" s="192"/>
@@ -25531,10 +25526,10 @@
       <c r="H336" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="I336" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J336" s="296" t="s">
+      <c r="I336" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J336" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K336" s="82" t="s">
@@ -25547,7 +25542,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" ht="15">
       <c r="A337" s="144"/>
       <c r="B337" s="119"/>
       <c r="C337" s="192"/>
@@ -25560,10 +25555,10 @@
       <c r="H337" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="I337" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J337" s="296" t="s">
+      <c r="I337" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J337" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K337" s="82" t="s">
@@ -25576,7 +25571,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" ht="15">
       <c r="A338" s="144"/>
       <c r="B338" s="119"/>
       <c r="C338" s="192"/>
@@ -25592,7 +25587,7 @@
       <c r="I338" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J338" s="296" t="s">
+      <c r="J338" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K338" s="97" t="s">
@@ -25605,7 +25600,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" ht="15">
       <c r="A339" s="144"/>
       <c r="B339" s="119"/>
       <c r="C339" s="192"/>
@@ -25618,10 +25613,10 @@
       <c r="H339" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="I339" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J339" s="296" t="s">
+      <c r="I339" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J339" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K339" s="82" t="s">
@@ -25634,7 +25629,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" ht="15">
       <c r="A340" s="144"/>
       <c r="B340" s="119"/>
       <c r="C340" s="192"/>
@@ -25647,10 +25642,10 @@
       <c r="H340" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="I340" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J340" s="296" t="s">
+      <c r="I340" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J340" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K340" s="82" t="s">
@@ -25663,7 +25658,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" ht="15">
       <c r="A341" s="144"/>
       <c r="B341" s="119"/>
       <c r="C341" s="192"/>
@@ -25676,10 +25671,10 @@
       <c r="H341" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="I341" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J341" s="296" t="s">
+      <c r="I341" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J341" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K341" s="82" t="s">
@@ -25692,7 +25687,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" ht="15">
       <c r="A342" s="144"/>
       <c r="B342" s="119"/>
       <c r="C342" s="192"/>
@@ -25708,7 +25703,7 @@
       <c r="I342" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J342" s="296" t="s">
+      <c r="J342" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K342" s="97" t="s">
@@ -25721,7 +25716,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" ht="15">
       <c r="A343" s="144"/>
       <c r="B343" s="119"/>
       <c r="C343" s="192"/>
@@ -25737,7 +25732,7 @@
       <c r="I343" s="97" t="s">
         <v>762</v>
       </c>
-      <c r="J343" s="296" t="s">
+      <c r="J343" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K343" s="97" t="s">
@@ -25750,7 +25745,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" ht="15">
       <c r="A344" s="144"/>
       <c r="B344" s="119"/>
       <c r="C344" s="157"/>
@@ -25770,7 +25765,7 @@
       <c r="I344" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J344" s="296" t="s">
+      <c r="J344" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K344" s="82" t="s">
@@ -25781,7 +25776,7 @@
       </c>
       <c r="M344" s="89"/>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" ht="15">
       <c r="A345" s="144"/>
       <c r="B345" s="119"/>
       <c r="C345" s="157"/>
@@ -25801,7 +25796,7 @@
       <c r="I345" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J345" s="296" t="s">
+      <c r="J345" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K345" s="82" t="s">
@@ -25857,13 +25852,13 @@
       <c r="G347" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H347" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I347" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J347" s="296" t="s">
+      <c r="H347" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I347" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J347" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K347" s="82" t="s">
@@ -25888,13 +25883,13 @@
       <c r="G348" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H348" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I348" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J348" s="296" t="s">
+      <c r="H348" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I348" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J348" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K348" s="82" t="s">
@@ -25981,13 +25976,13 @@
       <c r="G351" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H351" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I351" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J351" s="296" t="s">
+      <c r="H351" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I351" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J351" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K351" s="82" t="s">
@@ -26239,13 +26234,13 @@
       <c r="G359" s="218" t="s">
         <v>856</v>
       </c>
-      <c r="H359" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I359" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J359" s="296" t="s">
+      <c r="H359" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I359" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J359" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K359" s="82" t="s">
@@ -26388,7 +26383,7 @@
       </c>
       <c r="M363" s="89"/>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" ht="15">
       <c r="A364" s="142"/>
       <c r="B364" s="118" t="s">
         <v>870</v>
@@ -26423,7 +26418,7 @@
       </c>
       <c r="M364" s="89"/>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" ht="15">
       <c r="A365" s="142"/>
       <c r="B365" s="119"/>
       <c r="C365" s="189" t="s">
@@ -26456,7 +26451,7 @@
       </c>
       <c r="M365" s="89"/>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" ht="15">
       <c r="A366" s="142"/>
       <c r="B366" s="119"/>
       <c r="C366" s="189" t="s">
@@ -26489,7 +26484,7 @@
       </c>
       <c r="M366" s="89"/>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" ht="15">
       <c r="A367" s="142"/>
       <c r="B367" s="119"/>
       <c r="C367" s="190" t="s">
@@ -26544,7 +26539,7 @@
       <c r="I368" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J368" s="336" t="s">
+      <c r="J368" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K368" s="82" t="s">
@@ -26579,7 +26574,7 @@
       <c r="I369" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J369" s="336" t="s">
+      <c r="J369" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K369" s="82" t="s">
@@ -26612,7 +26607,7 @@
       <c r="I370" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J370" s="336" t="s">
+      <c r="J370" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K370" s="82" t="s">
@@ -26645,7 +26640,7 @@
       <c r="I371" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J371" s="336" t="s">
+      <c r="J371" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K371" s="82" t="s">
@@ -26672,13 +26667,13 @@
       <c r="G372" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H372" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="I372" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="J372" s="336" t="s">
+      <c r="H372" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="I372" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="J372" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K372" s="82" t="s">
@@ -26711,7 +26706,7 @@
       <c r="I373" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J373" s="336" t="s">
+      <c r="J373" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K373" s="82" t="s">
@@ -26738,13 +26733,13 @@
       <c r="G374" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="H374" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="I374" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="J374" s="336" t="s">
+      <c r="H374" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="I374" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="J374" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K374" s="82" t="s">
@@ -26777,7 +26772,7 @@
       <c r="I375" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J375" s="336" t="s">
+      <c r="J375" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K375" s="82" t="s">
@@ -26810,7 +26805,7 @@
       <c r="I376" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J376" s="336" t="s">
+      <c r="J376" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K376" s="82" t="s">
@@ -26841,7 +26836,7 @@
       <c r="I377" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J377" s="336" t="s">
+      <c r="J377" s="323" t="s">
         <v>228</v>
       </c>
       <c r="K377" s="82" t="s">
@@ -27000,19 +26995,19 @@
       <c r="G382" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H382" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="I382" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="J382" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="K382" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="L382" s="336" t="s">
+      <c r="H382" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="I382" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="J382" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="K382" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="L382" s="323" t="s">
         <v>228</v>
       </c>
       <c r="M382" s="89"/>
@@ -27066,19 +27061,19 @@
       <c r="G384" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="H384" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="I384" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="J384" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="K384" s="336" t="s">
-        <v>228</v>
-      </c>
-      <c r="L384" s="336" t="s">
+      <c r="H384" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="I384" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="J384" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="K384" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="L384" s="323" t="s">
         <v>228</v>
       </c>
       <c r="M384" s="89"/>
@@ -27198,13 +27193,13 @@
       <c r="G388" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H388" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I388" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J388" s="296" t="s">
+      <c r="H388" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I388" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J388" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K388" s="82" t="s">
@@ -27231,13 +27226,13 @@
       <c r="G389" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H389" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I389" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J389" s="296" t="s">
+      <c r="H389" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I389" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J389" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K389" s="82" t="s">
@@ -27262,13 +27257,13 @@
         <v>953</v>
       </c>
       <c r="G390" s="126"/>
-      <c r="H390" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I390" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J390" s="296" t="s">
+      <c r="H390" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I390" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J390" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K390" s="82" t="s">
@@ -27448,7 +27443,7 @@
       </c>
       <c r="M395" s="89"/>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" ht="15">
       <c r="A396" s="144"/>
       <c r="B396" s="119"/>
       <c r="C396" s="157" t="s">
@@ -27481,7 +27476,7 @@
       </c>
       <c r="M396" s="89"/>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" ht="15">
       <c r="A397" s="144"/>
       <c r="B397" s="119"/>
       <c r="C397" s="239" t="s">
@@ -27497,10 +27492,10 @@
       <c r="G397" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H397" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I397" s="296" t="s">
+      <c r="H397" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I397" s="114" t="s">
         <v>228</v>
       </c>
       <c r="J397" s="78" t="s">
@@ -28371,7 +28366,7 @@
       <c r="I423" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J423" s="296" t="s">
+      <c r="J423" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K423" s="82" t="s">
@@ -28404,7 +28399,7 @@
       <c r="I424" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J424" s="296" t="s">
+      <c r="J424" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K424" s="82" t="s">
@@ -28437,7 +28432,7 @@
       <c r="I425" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J425" s="296" t="s">
+      <c r="J425" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K425" s="82" t="s">
@@ -28468,7 +28463,7 @@
       <c r="I426" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J426" s="296" t="s">
+      <c r="J426" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K426" s="82" t="s">
@@ -28500,10 +28495,10 @@
       <c r="H427" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="I427" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J427" s="296" t="s">
+      <c r="I427" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J427" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K427" s="82" t="s">
@@ -28531,10 +28526,10 @@
       <c r="H428" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="I428" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J428" s="296" t="s">
+      <c r="I428" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J428" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K428" s="82" t="s">
@@ -28562,10 +28557,10 @@
       <c r="H429" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="I429" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J429" s="299" t="s">
+      <c r="I429" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J429" s="296" t="s">
         <v>228</v>
       </c>
       <c r="K429" s="280" t="s">
@@ -28593,10 +28588,10 @@
       <c r="H430" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="I430" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J430" s="299" t="s">
+      <c r="I430" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J430" s="296" t="s">
         <v>228</v>
       </c>
       <c r="K430" s="280" t="s">
@@ -28624,10 +28619,10 @@
       <c r="H431" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="I431" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J431" s="299" t="s">
+      <c r="I431" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J431" s="296" t="s">
         <v>228</v>
       </c>
       <c r="K431" s="280" t="s">
@@ -28834,7 +28829,7 @@
       </c>
       <c r="M437" s="89"/>
     </row>
-    <row r="438" spans="1:13" ht="67.5">
+    <row r="438" spans="1:13" ht="90">
       <c r="A438" s="144"/>
       <c r="B438" s="120"/>
       <c r="C438" s="185" t="s">
@@ -28883,7 +28878,7 @@
       <c r="G439" s="218" t="s">
         <v>1110</v>
       </c>
-      <c r="H439" s="343" t="s">
+      <c r="H439" s="326" t="s">
         <v>228</v>
       </c>
       <c r="I439" s="279" t="s">
@@ -28916,7 +28911,7 @@
       <c r="G440" s="218" t="s">
         <v>1110</v>
       </c>
-      <c r="H440" s="343" t="s">
+      <c r="H440" s="326" t="s">
         <v>228</v>
       </c>
       <c r="I440" s="279" t="s">
@@ -28949,7 +28944,7 @@
       <c r="G441" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="H441" s="343" t="s">
+      <c r="H441" s="326" t="s">
         <v>228</v>
       </c>
       <c r="I441" s="279" t="s">
@@ -28966,7 +28961,7 @@
       </c>
       <c r="M441" s="89"/>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" ht="15">
       <c r="A442" s="144"/>
       <c r="B442" s="120"/>
       <c r="C442" s="185" t="s">
@@ -28982,7 +28977,7 @@
       <c r="G442" s="276" t="s">
         <v>1118</v>
       </c>
-      <c r="H442" s="343" t="s">
+      <c r="H442" s="326" t="s">
         <v>228</v>
       </c>
       <c r="I442" s="279" t="s">
@@ -29149,13 +29144,13 @@
       <c r="G447" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H447" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I447" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J447" s="296" t="s">
+      <c r="H447" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I447" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J447" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K447" s="82" t="s">
@@ -29182,13 +29177,13 @@
       <c r="G448" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H448" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I448" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J448" s="296" t="s">
+      <c r="H448" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I448" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J448" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K448" s="82" t="s">
@@ -29213,13 +29208,13 @@
       <c r="G449" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H449" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I449" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J449" s="296" t="s">
+      <c r="H449" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I449" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J449" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K449" s="82" t="s">
@@ -29244,13 +29239,13 @@
       <c r="G450" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H450" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I450" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J450" s="296" t="s">
+      <c r="H450" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I450" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J450" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K450" s="82" t="s">
@@ -29275,13 +29270,13 @@
         <v>1144</v>
       </c>
       <c r="G451" s="218"/>
-      <c r="H451" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I451" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J451" s="296" t="s">
+      <c r="H451" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I451" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J451" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K451" s="82" t="s">
@@ -29310,13 +29305,13 @@
       <c r="G452" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="H452" s="300" t="s">
+      <c r="H452" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I452" s="300" t="s">
+      <c r="I452" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J452" s="300" t="s">
+      <c r="J452" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K452" s="261" t="s">
@@ -29341,13 +29336,13 @@
       <c r="G453" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="H453" s="300" t="s">
+      <c r="H453" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I453" s="300" t="s">
+      <c r="I453" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J453" s="300" t="s">
+      <c r="J453" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K453" s="261" t="s">
@@ -29372,13 +29367,13 @@
         <v>1154</v>
       </c>
       <c r="G454" s="260"/>
-      <c r="H454" s="300" t="s">
+      <c r="H454" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I454" s="300" t="s">
+      <c r="I454" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J454" s="300" t="s">
+      <c r="J454" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K454" s="261" t="s">
@@ -29407,13 +29402,13 @@
       <c r="G455" s="259" t="s">
         <v>1159</v>
       </c>
-      <c r="H455" s="300" t="s">
+      <c r="H455" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I455" s="300" t="s">
+      <c r="I455" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J455" s="300" t="s">
+      <c r="J455" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K455" s="261" t="s">
@@ -29440,13 +29435,13 @@
       <c r="G456" s="259" t="s">
         <v>1159</v>
       </c>
-      <c r="H456" s="300" t="s">
+      <c r="H456" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I456" s="300" t="s">
+      <c r="I456" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J456" s="300" t="s">
+      <c r="J456" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K456" s="261" t="s">
@@ -29473,13 +29468,13 @@
       <c r="G457" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="H457" s="300" t="s">
+      <c r="H457" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I457" s="300" t="s">
+      <c r="I457" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J457" s="300" t="s">
+      <c r="J457" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K457" s="261" t="s">
@@ -29504,13 +29499,13 @@
         <v>1168</v>
       </c>
       <c r="G458" s="260"/>
-      <c r="H458" s="300" t="s">
+      <c r="H458" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I458" s="300" t="s">
+      <c r="I458" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J458" s="300" t="s">
+      <c r="J458" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K458" s="261" t="s">
@@ -29539,13 +29534,13 @@
       <c r="G459" s="259" t="s">
         <v>1173</v>
       </c>
-      <c r="H459" s="300" t="s">
+      <c r="H459" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I459" s="300" t="s">
+      <c r="I459" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J459" s="300" t="s">
+      <c r="J459" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K459" s="261" t="s">
@@ -29572,13 +29567,13 @@
       <c r="G460" s="259" t="s">
         <v>1173</v>
       </c>
-      <c r="H460" s="300" t="s">
+      <c r="H460" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I460" s="300" t="s">
+      <c r="I460" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J460" s="300" t="s">
+      <c r="J460" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K460" s="261" t="s">
@@ -29605,13 +29600,13 @@
       <c r="G461" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="H461" s="300" t="s">
+      <c r="H461" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I461" s="300" t="s">
+      <c r="I461" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J461" s="300" t="s">
+      <c r="J461" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K461" s="261" t="s">
@@ -29636,13 +29631,13 @@
         <v>1181</v>
       </c>
       <c r="G462" s="260"/>
-      <c r="H462" s="300" t="s">
+      <c r="H462" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="I462" s="300" t="s">
+      <c r="I462" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="J462" s="300" t="s">
+      <c r="J462" s="261" t="s">
         <v>1149</v>
       </c>
       <c r="K462" s="261" t="s">
@@ -29671,13 +29666,13 @@
       <c r="G463" s="259" t="s">
         <v>1186</v>
       </c>
-      <c r="H463" s="301" t="s">
+      <c r="H463" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="I463" s="301" t="s">
+      <c r="I463" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="J463" s="301" t="s">
+      <c r="J463" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="K463" s="266" t="s">
@@ -29704,13 +29699,13 @@
       <c r="G464" s="259" t="s">
         <v>1186</v>
       </c>
-      <c r="H464" s="301" t="s">
+      <c r="H464" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="I464" s="301" t="s">
+      <c r="I464" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="J464" s="301" t="s">
+      <c r="J464" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="K464" s="266" t="s">
@@ -29737,13 +29732,13 @@
       <c r="G465" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="H465" s="301" t="s">
+      <c r="H465" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="I465" s="301" t="s">
+      <c r="I465" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="J465" s="301" t="s">
+      <c r="J465" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="K465" s="266" t="s">
@@ -29768,19 +29763,19 @@
         <v>1194</v>
       </c>
       <c r="G466" s="260"/>
-      <c r="H466" s="301" t="s">
+      <c r="H466" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="I466" s="301" t="s">
+      <c r="I466" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="J466" s="301" t="s">
+      <c r="J466" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="K466" s="301" t="s">
+      <c r="K466" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="L466" s="301" t="s">
+      <c r="L466" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="M466" s="89"/>
@@ -29803,19 +29798,19 @@
       <c r="G467" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H467" s="302" t="s">
+      <c r="H467" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="I467" s="302" t="s">
+      <c r="I467" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="J467" s="301" t="s">
+      <c r="J467" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="K467" s="301" t="s">
+      <c r="K467" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="L467" s="301" t="s">
+      <c r="L467" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="M467" s="89"/>
@@ -29834,19 +29829,19 @@
       <c r="G468" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="H468" s="302" t="s">
+      <c r="H468" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="I468" s="302" t="s">
+      <c r="I468" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="J468" s="301" t="s">
+      <c r="J468" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="K468" s="301" t="s">
+      <c r="K468" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="L468" s="301" t="s">
+      <c r="L468" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="M468" s="89"/>
@@ -29865,39 +29860,39 @@
         <v>1203</v>
       </c>
       <c r="G469" s="218"/>
-      <c r="H469" s="302" t="s">
+      <c r="H469" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="I469" s="302" t="s">
+      <c r="I469" s="297" t="s">
         <v>1149</v>
       </c>
-      <c r="J469" s="301" t="s">
+      <c r="J469" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="K469" s="301" t="s">
+      <c r="K469" s="266" t="s">
         <v>1149</v>
       </c>
-      <c r="L469" s="301" t="s">
+      <c r="L469" s="266" t="s">
         <v>1149</v>
       </c>
       <c r="M469" s="89"/>
     </row>
-    <row r="470" spans="1:13" s="340" customFormat="1">
-      <c r="A470" s="337"/>
-      <c r="B470" s="319" t="s">
+    <row r="470" spans="1:13" s="61" customFormat="1">
+      <c r="A470" s="250"/>
+      <c r="B470" s="240" t="s">
         <v>1204</v>
       </c>
-      <c r="C470" s="338" t="s">
+      <c r="C470" s="174" t="s">
         <v>1205</v>
       </c>
-      <c r="D470" s="320"/>
-      <c r="E470" s="315" t="s">
+      <c r="D470" s="222"/>
+      <c r="E470" s="218" t="s">
         <v>1206</v>
       </c>
-      <c r="F470" s="315" t="s">
+      <c r="F470" s="218" t="s">
         <v>1207</v>
       </c>
-      <c r="G470" s="315" t="s">
+      <c r="G470" s="218" t="s">
         <v>176</v>
       </c>
       <c r="H470" s="275" t="s">
@@ -29915,20 +29910,20 @@
       <c r="L470" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="M470" s="339"/>
-    </row>
-    <row r="471" spans="1:13" s="340" customFormat="1">
-      <c r="A471" s="337"/>
-      <c r="B471" s="341"/>
-      <c r="C471" s="321"/>
-      <c r="D471" s="320"/>
-      <c r="E471" s="315" t="s">
+      <c r="M470" s="252"/>
+    </row>
+    <row r="471" spans="1:13" s="61" customFormat="1">
+      <c r="A471" s="250"/>
+      <c r="B471" s="324"/>
+      <c r="C471" s="209"/>
+      <c r="D471" s="222"/>
+      <c r="E471" s="218" t="s">
         <v>1208</v>
       </c>
-      <c r="F471" s="315" t="s">
+      <c r="F471" s="218" t="s">
         <v>1209</v>
       </c>
-      <c r="G471" s="315" t="s">
+      <c r="G471" s="218" t="s">
         <v>176</v>
       </c>
       <c r="H471" s="275" t="s">
@@ -29946,22 +29941,22 @@
       <c r="L471" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="M471" s="339"/>
-    </row>
-    <row r="472" spans="1:13" s="340" customFormat="1">
-      <c r="A472" s="337"/>
-      <c r="B472" s="342"/>
-      <c r="C472" s="316" t="s">
+      <c r="M471" s="252"/>
+    </row>
+    <row r="472" spans="1:13" s="61" customFormat="1">
+      <c r="A472" s="250"/>
+      <c r="B472" s="325"/>
+      <c r="C472" s="308" t="s">
         <v>1210</v>
       </c>
-      <c r="D472" s="320"/>
-      <c r="E472" s="315" t="s">
+      <c r="D472" s="222"/>
+      <c r="E472" s="218" t="s">
         <v>1211</v>
       </c>
-      <c r="F472" s="315" t="s">
+      <c r="F472" s="218" t="s">
         <v>1212</v>
       </c>
-      <c r="G472" s="315"/>
+      <c r="G472" s="218"/>
       <c r="H472" s="275" t="s">
         <v>166</v>
       </c>
@@ -29977,7 +29972,7 @@
       <c r="L472" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="M472" s="339"/>
+      <c r="M472" s="252"/>
     </row>
     <row r="473" spans="1:13">
       <c r="A473" s="121"/>
@@ -30210,17 +30205,17 @@
     </row>
     <row r="480" spans="1:13">
       <c r="A480" s="144"/>
-      <c r="B480" s="308" t="s">
+      <c r="B480" s="301" t="s">
         <v>1234</v>
       </c>
-      <c r="C480" s="309" t="s">
+      <c r="C480" s="302" t="s">
         <v>1235</v>
       </c>
-      <c r="D480" s="310"/>
-      <c r="E480" s="311" t="s">
+      <c r="D480" s="303"/>
+      <c r="E480" s="304" t="s">
         <v>1236</v>
       </c>
-      <c r="F480" s="311" t="s">
+      <c r="F480" s="304" t="s">
         <v>1237</v>
       </c>
       <c r="G480" s="277"/>
@@ -30243,13 +30238,13 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="144"/>
-      <c r="B481" s="312"/>
-      <c r="C481" s="309"/>
-      <c r="D481" s="310"/>
-      <c r="E481" s="311" t="s">
+      <c r="B481" s="305"/>
+      <c r="C481" s="302"/>
+      <c r="D481" s="303"/>
+      <c r="E481" s="304" t="s">
         <v>1238</v>
       </c>
-      <c r="F481" s="311" t="s">
+      <c r="F481" s="304" t="s">
         <v>1239</v>
       </c>
       <c r="G481" s="277"/>
@@ -30272,13 +30267,13 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="144"/>
-      <c r="B482" s="312"/>
-      <c r="C482" s="309"/>
-      <c r="D482" s="310"/>
-      <c r="E482" s="311" t="s">
+      <c r="B482" s="305"/>
+      <c r="C482" s="302"/>
+      <c r="D482" s="303"/>
+      <c r="E482" s="304" t="s">
         <v>1240</v>
       </c>
-      <c r="F482" s="311" t="s">
+      <c r="F482" s="304" t="s">
         <v>1241</v>
       </c>
       <c r="G482" s="277"/>
@@ -30301,15 +30296,15 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="144"/>
-      <c r="B483" s="312"/>
-      <c r="C483" s="313" t="s">
+      <c r="B483" s="305"/>
+      <c r="C483" s="306" t="s">
         <v>1242</v>
       </c>
-      <c r="D483" s="310"/>
-      <c r="E483" s="311" t="s">
+      <c r="D483" s="303"/>
+      <c r="E483" s="304" t="s">
         <v>1243</v>
       </c>
-      <c r="F483" s="311" t="s">
+      <c r="F483" s="304" t="s">
         <v>1244</v>
       </c>
       <c r="G483" s="277"/>
@@ -30332,15 +30327,15 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="144"/>
-      <c r="B484" s="312"/>
-      <c r="C484" s="309" t="s">
+      <c r="B484" s="305"/>
+      <c r="C484" s="302" t="s">
         <v>1245</v>
       </c>
-      <c r="D484" s="310"/>
-      <c r="E484" s="311" t="s">
+      <c r="D484" s="303"/>
+      <c r="E484" s="304" t="s">
         <v>1246</v>
       </c>
-      <c r="F484" s="311" t="s">
+      <c r="F484" s="304" t="s">
         <v>1247</v>
       </c>
       <c r="G484" s="277"/>
@@ -30363,13 +30358,13 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="144"/>
-      <c r="B485" s="312"/>
-      <c r="C485" s="309"/>
-      <c r="D485" s="310"/>
-      <c r="E485" s="311" t="s">
+      <c r="B485" s="305"/>
+      <c r="C485" s="302"/>
+      <c r="D485" s="303"/>
+      <c r="E485" s="304" t="s">
         <v>1248</v>
       </c>
-      <c r="F485" s="311" t="s">
+      <c r="F485" s="304" t="s">
         <v>1249</v>
       </c>
       <c r="G485" s="277"/>
@@ -30392,15 +30387,15 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="144"/>
-      <c r="B486" s="312"/>
-      <c r="C486" s="313" t="s">
+      <c r="B486" s="305"/>
+      <c r="C486" s="306" t="s">
         <v>1250</v>
       </c>
-      <c r="D486" s="310"/>
-      <c r="E486" s="311" t="s">
+      <c r="D486" s="303"/>
+      <c r="E486" s="304" t="s">
         <v>1251</v>
       </c>
-      <c r="F486" s="311" t="s">
+      <c r="F486" s="304" t="s">
         <v>1252</v>
       </c>
       <c r="G486" s="277"/>
@@ -30421,17 +30416,17 @@
       </c>
       <c r="M486" s="89"/>
     </row>
-    <row r="487" spans="1:13" ht="27">
+    <row r="487" spans="1:13" ht="30">
       <c r="A487" s="144"/>
-      <c r="B487" s="312"/>
-      <c r="C487" s="314" t="s">
+      <c r="B487" s="305"/>
+      <c r="C487" s="307" t="s">
         <v>1253</v>
       </c>
-      <c r="D487" s="310"/>
-      <c r="E487" s="311" t="s">
+      <c r="D487" s="303"/>
+      <c r="E487" s="304" t="s">
         <v>1254</v>
       </c>
-      <c r="F487" s="311" t="s">
+      <c r="F487" s="304" t="s">
         <v>1255</v>
       </c>
       <c r="G487" s="277" t="s">
@@ -30456,15 +30451,15 @@
     </row>
     <row r="488" spans="1:13">
       <c r="A488" s="144"/>
-      <c r="B488" s="312"/>
-      <c r="C488" s="313" t="s">
+      <c r="B488" s="305"/>
+      <c r="C488" s="306" t="s">
         <v>1256</v>
       </c>
-      <c r="D488" s="310"/>
-      <c r="E488" s="311" t="s">
+      <c r="D488" s="303"/>
+      <c r="E488" s="304" t="s">
         <v>1257</v>
       </c>
-      <c r="F488" s="311" t="s">
+      <c r="F488" s="304" t="s">
         <v>1258</v>
       </c>
       <c r="G488" s="277"/>
@@ -30485,17 +30480,17 @@
       </c>
       <c r="M488" s="89"/>
     </row>
-    <row r="489" spans="1:13" ht="27">
+    <row r="489" spans="1:13" ht="30">
       <c r="A489" s="144"/>
-      <c r="B489" s="312"/>
-      <c r="C489" s="314" t="s">
+      <c r="B489" s="305"/>
+      <c r="C489" s="307" t="s">
         <v>1259</v>
       </c>
-      <c r="D489" s="310"/>
-      <c r="E489" s="311" t="s">
+      <c r="D489" s="303"/>
+      <c r="E489" s="304" t="s">
         <v>1260</v>
       </c>
-      <c r="F489" s="311" t="s">
+      <c r="F489" s="304" t="s">
         <v>1261</v>
       </c>
       <c r="G489" s="277" t="s">
@@ -30520,15 +30515,15 @@
     </row>
     <row r="490" spans="1:13">
       <c r="A490" s="144"/>
-      <c r="B490" s="312"/>
-      <c r="C490" s="313" t="s">
+      <c r="B490" s="305"/>
+      <c r="C490" s="306" t="s">
         <v>1262</v>
       </c>
-      <c r="D490" s="310"/>
-      <c r="E490" s="311" t="s">
+      <c r="D490" s="303"/>
+      <c r="E490" s="304" t="s">
         <v>1263</v>
       </c>
-      <c r="F490" s="311" t="s">
+      <c r="F490" s="304" t="s">
         <v>1264</v>
       </c>
       <c r="G490" s="277"/>
@@ -30551,15 +30546,15 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="144"/>
-      <c r="B491" s="312"/>
-      <c r="C491" s="309" t="s">
+      <c r="B491" s="305"/>
+      <c r="C491" s="302" t="s">
         <v>1265</v>
       </c>
-      <c r="D491" s="310"/>
-      <c r="E491" s="311" t="s">
+      <c r="D491" s="303"/>
+      <c r="E491" s="304" t="s">
         <v>1266</v>
       </c>
-      <c r="F491" s="311" t="s">
+      <c r="F491" s="304" t="s">
         <v>1267</v>
       </c>
       <c r="G491" s="277"/>
@@ -30582,13 +30577,13 @@
     </row>
     <row r="492" spans="1:13">
       <c r="A492" s="144"/>
-      <c r="B492" s="312"/>
-      <c r="C492" s="309"/>
-      <c r="D492" s="310"/>
-      <c r="E492" s="311" t="s">
+      <c r="B492" s="305"/>
+      <c r="C492" s="302"/>
+      <c r="D492" s="303"/>
+      <c r="E492" s="304" t="s">
         <v>1268</v>
       </c>
-      <c r="F492" s="311" t="s">
+      <c r="F492" s="304" t="s">
         <v>1269</v>
       </c>
       <c r="G492" s="277"/>
@@ -30611,15 +30606,15 @@
     </row>
     <row r="493" spans="1:13">
       <c r="A493" s="144"/>
-      <c r="B493" s="312"/>
-      <c r="C493" s="313" t="s">
+      <c r="B493" s="305"/>
+      <c r="C493" s="306" t="s">
         <v>1270</v>
       </c>
-      <c r="D493" s="310"/>
-      <c r="E493" s="311" t="s">
+      <c r="D493" s="303"/>
+      <c r="E493" s="304" t="s">
         <v>1271</v>
       </c>
-      <c r="F493" s="311" t="s">
+      <c r="F493" s="304" t="s">
         <v>1272</v>
       </c>
       <c r="G493" s="277"/>
@@ -31197,7 +31192,7 @@
       </c>
       <c r="M510" s="89"/>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" ht="15">
       <c r="A511" s="144"/>
       <c r="B511" s="119"/>
       <c r="C511" s="157" t="s">
@@ -31525,7 +31520,7 @@
       </c>
       <c r="M520" s="89"/>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" ht="15">
       <c r="A521" s="144"/>
       <c r="B521" s="119"/>
       <c r="C521" s="235" t="s">
@@ -31944,7 +31939,7 @@
       </c>
       <c r="M533" s="89"/>
     </row>
-    <row r="534" spans="1:13" ht="27">
+    <row r="534" spans="1:13" ht="30">
       <c r="A534" s="144"/>
       <c r="B534" s="118" t="s">
         <v>1395</v>
@@ -31962,13 +31957,13 @@
       <c r="G534" s="201" t="s">
         <v>1399</v>
       </c>
-      <c r="H534" s="303" t="s">
-        <v>228</v>
-      </c>
-      <c r="I534" s="303" t="s">
-        <v>228</v>
-      </c>
-      <c r="J534" s="303" t="s">
+      <c r="H534" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="I534" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="J534" s="73" t="s">
         <v>228</v>
       </c>
       <c r="K534" s="86" t="s">
@@ -31993,13 +31988,13 @@
       <c r="G535" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H535" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I535" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J535" s="296" t="s">
+      <c r="H535" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I535" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J535" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K535" s="82" t="s">
@@ -32778,7 +32773,7 @@
       </c>
       <c r="M559" s="89"/>
     </row>
-    <row r="560" spans="1:13" ht="28.5">
+    <row r="560" spans="1:13" ht="30">
       <c r="A560" s="144"/>
       <c r="B560" s="118" t="s">
         <v>1473</v>
@@ -32802,7 +32797,7 @@
       <c r="I560" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J560" s="296" t="s">
+      <c r="J560" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K560" s="82" t="s">
@@ -32835,7 +32830,7 @@
       <c r="I561" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J561" s="296" t="s">
+      <c r="J561" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K561" s="82" t="s">
@@ -32868,7 +32863,7 @@
       <c r="I562" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J562" s="296" t="s">
+      <c r="J562" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K562" s="82" t="s">
@@ -32901,7 +32896,7 @@
       <c r="I563" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J563" s="296" t="s">
+      <c r="J563" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K563" s="82" t="s">
@@ -32934,7 +32929,7 @@
       <c r="I564" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J564" s="296" t="s">
+      <c r="J564" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K564" s="114" t="s">
@@ -32965,7 +32960,7 @@
       <c r="I565" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J565" s="296" t="s">
+      <c r="J565" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K565" s="82" t="s">
@@ -33000,7 +32995,7 @@
       <c r="I566" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J566" s="296" t="s">
+      <c r="J566" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K566" s="82" t="s">
@@ -33033,7 +33028,7 @@
       <c r="I567" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J567" s="296" t="s">
+      <c r="J567" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K567" s="82" t="s">
@@ -33066,7 +33061,7 @@
       <c r="I568" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J568" s="296" t="s">
+      <c r="J568" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K568" s="82" t="s">
@@ -33097,7 +33092,7 @@
       <c r="I569" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J569" s="296" t="s">
+      <c r="J569" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K569" s="82" t="s">
@@ -33132,7 +33127,7 @@
       <c r="I570" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J570" s="296" t="s">
+      <c r="J570" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K570" s="114" t="s">
@@ -33165,7 +33160,7 @@
       <c r="I571" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J571" s="296" t="s">
+      <c r="J571" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K571" s="114" t="s">
@@ -33196,7 +33191,7 @@
       <c r="I572" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J572" s="296" t="s">
+      <c r="J572" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K572" s="114" t="s">
@@ -33209,22 +33204,22 @@
     </row>
     <row r="573" spans="1:13" ht="15" customHeight="1">
       <c r="A573" s="144"/>
-      <c r="B573" s="344" t="s">
+      <c r="B573" s="327" t="s">
         <v>1516</v>
       </c>
-      <c r="C573" s="345" t="s">
+      <c r="C573" s="328" t="s">
         <v>1517</v>
       </c>
-      <c r="D573" s="347" t="s">
+      <c r="D573" s="330" t="s">
         <v>564</v>
       </c>
-      <c r="E573" s="328" t="s">
+      <c r="E573" s="315" t="s">
         <v>1518</v>
       </c>
-      <c r="F573" s="328" t="s">
+      <c r="F573" s="315" t="s">
         <v>1519</v>
       </c>
-      <c r="G573" s="324" t="s">
+      <c r="G573" s="311" t="s">
         <v>165</v>
       </c>
       <c r="H573" s="78" t="s">
@@ -33247,17 +33242,17 @@
     <row r="574" spans="1:13" ht="15" customHeight="1">
       <c r="A574" s="144"/>
       <c r="B574" s="269"/>
-      <c r="C574" s="345" t="s">
+      <c r="C574" s="328" t="s">
         <v>1520</v>
       </c>
-      <c r="D574" s="348"/>
-      <c r="E574" s="329" t="s">
+      <c r="D574" s="331"/>
+      <c r="E574" s="316" t="s">
         <v>1521</v>
       </c>
-      <c r="F574" s="329" t="s">
+      <c r="F574" s="316" t="s">
         <v>1522</v>
       </c>
-      <c r="G574" s="324" t="s">
+      <c r="G574" s="311" t="s">
         <v>165</v>
       </c>
       <c r="H574" s="78" t="s">
@@ -33280,17 +33275,17 @@
     <row r="575" spans="1:13" ht="15" customHeight="1">
       <c r="A575" s="144"/>
       <c r="B575" s="269"/>
-      <c r="C575" s="325" t="s">
+      <c r="C575" s="312" t="s">
         <v>1523</v>
       </c>
-      <c r="D575" s="348"/>
-      <c r="E575" s="329" t="s">
+      <c r="D575" s="331"/>
+      <c r="E575" s="316" t="s">
         <v>1524</v>
       </c>
-      <c r="F575" s="329" t="s">
+      <c r="F575" s="316" t="s">
         <v>1525</v>
       </c>
-      <c r="G575" s="324" t="s">
+      <c r="G575" s="311" t="s">
         <v>165</v>
       </c>
       <c r="H575" s="78" t="s">
@@ -33313,17 +33308,17 @@
     <row r="576" spans="1:13" ht="15" customHeight="1">
       <c r="A576" s="144"/>
       <c r="B576" s="269"/>
-      <c r="C576" s="325" t="s">
+      <c r="C576" s="312" t="s">
         <v>1526</v>
       </c>
-      <c r="D576" s="348"/>
-      <c r="E576" s="329" t="s">
+      <c r="D576" s="331"/>
+      <c r="E576" s="316" t="s">
         <v>1527</v>
       </c>
-      <c r="F576" s="329" t="s">
+      <c r="F576" s="316" t="s">
         <v>1528</v>
       </c>
-      <c r="G576" s="324" t="s">
+      <c r="G576" s="311" t="s">
         <v>165</v>
       </c>
       <c r="H576" s="78" t="s">
@@ -33343,20 +33338,20 @@
       </c>
       <c r="M576" s="89"/>
     </row>
-    <row r="577" spans="1:15" ht="27">
+    <row r="577" spans="1:15" ht="30">
       <c r="A577" s="144"/>
-      <c r="B577" s="346"/>
-      <c r="C577" s="327" t="s">
+      <c r="B577" s="329"/>
+      <c r="C577" s="314" t="s">
         <v>1529</v>
       </c>
-      <c r="D577" s="329"/>
-      <c r="E577" s="329" t="s">
+      <c r="D577" s="316"/>
+      <c r="E577" s="316" t="s">
         <v>1530</v>
       </c>
-      <c r="F577" s="329" t="s">
+      <c r="F577" s="316" t="s">
         <v>1531</v>
       </c>
-      <c r="G577" s="349" t="s">
+      <c r="G577" s="332" t="s">
         <v>1532</v>
       </c>
       <c r="H577" s="78" t="s">
@@ -33381,19 +33376,19 @@
       <c r="B578" s="269" t="s">
         <v>1533</v>
       </c>
-      <c r="C578" s="325" t="s">
+      <c r="C578" s="312" t="s">
         <v>1534</v>
       </c>
-      <c r="D578" s="326" t="s">
+      <c r="D578" s="313" t="s">
         <v>1535</v>
       </c>
-      <c r="E578" s="328" t="s">
+      <c r="E578" s="315" t="s">
         <v>1536</v>
       </c>
-      <c r="F578" s="328" t="s">
+      <c r="F578" s="315" t="s">
         <v>1537</v>
       </c>
-      <c r="G578" s="324" t="s">
+      <c r="G578" s="311" t="s">
         <v>165</v>
       </c>
       <c r="H578" s="78" t="s">
@@ -33416,14 +33411,14 @@
     <row r="579" spans="1:15" ht="15" customHeight="1">
       <c r="A579" s="144"/>
       <c r="B579" s="269"/>
-      <c r="C579" s="325" t="s">
+      <c r="C579" s="312" t="s">
         <v>1538</v>
       </c>
-      <c r="D579" s="326"/>
-      <c r="E579" s="329" t="s">
+      <c r="D579" s="313"/>
+      <c r="E579" s="316" t="s">
         <v>1539</v>
       </c>
-      <c r="F579" s="329" t="s">
+      <c r="F579" s="316" t="s">
         <v>1540</v>
       </c>
       <c r="G579" s="281" t="s">
@@ -33449,14 +33444,14 @@
     <row r="580" spans="1:15" ht="15" customHeight="1">
       <c r="A580" s="144"/>
       <c r="B580" s="269"/>
-      <c r="C580" s="327" t="s">
+      <c r="C580" s="314" t="s">
         <v>1541</v>
       </c>
-      <c r="D580" s="326"/>
-      <c r="E580" s="329" t="s">
+      <c r="D580" s="313"/>
+      <c r="E580" s="316" t="s">
         <v>1542</v>
       </c>
-      <c r="F580" s="329" t="s">
+      <c r="F580" s="316" t="s">
         <v>1543</v>
       </c>
       <c r="G580" s="281"/>
@@ -34104,7 +34099,7 @@
       </c>
       <c r="M599" s="89"/>
     </row>
-    <row r="600" spans="1:13" ht="27">
+    <row r="600" spans="1:13" ht="30">
       <c r="A600" s="144"/>
       <c r="B600" s="119"/>
       <c r="C600" s="228" t="s">
@@ -35337,7 +35332,7 @@
       <c r="I637" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J637" s="296" t="s">
+      <c r="J637" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K637" s="82" t="s">
@@ -35368,7 +35363,7 @@
       <c r="I638" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J638" s="296" t="s">
+      <c r="J638" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K638" s="82" t="s">
@@ -35705,7 +35700,7 @@
       </c>
       <c r="M648" s="89"/>
     </row>
-    <row r="649" spans="1:13" ht="28.5">
+    <row r="649" spans="1:13" ht="30">
       <c r="A649" s="193" t="s">
         <v>1752</v>
       </c>
@@ -35746,7 +35741,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="28.5">
+    <row r="650" spans="1:13" ht="30">
       <c r="A650" s="144" t="s">
         <v>1762</v>
       </c>
@@ -35820,7 +35815,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="27">
+    <row r="652" spans="1:13" ht="30">
       <c r="A652" s="121"/>
       <c r="B652" s="119" t="s">
         <v>1771</v>
@@ -35836,9 +35831,9 @@
         <v>1774</v>
       </c>
       <c r="G652" s="126"/>
-      <c r="H652" s="332"/>
-      <c r="I652" s="332"/>
-      <c r="J652" s="332"/>
+      <c r="H652" s="319"/>
+      <c r="I652" s="319"/>
+      <c r="J652" s="319"/>
       <c r="K652" s="81"/>
       <c r="L652" s="81"/>
       <c r="M652" s="92"/>
@@ -35894,13 +35889,13 @@
       <c r="G654" s="200" t="s">
         <v>1782</v>
       </c>
-      <c r="H654" s="330" t="s">
+      <c r="H654" s="317" t="s">
         <v>1783</v>
       </c>
-      <c r="I654" s="330" t="s">
+      <c r="I654" s="317" t="s">
         <v>1783</v>
       </c>
-      <c r="J654" s="330" t="s">
+      <c r="J654" s="317" t="s">
         <v>1783</v>
       </c>
       <c r="K654" s="115" t="s">
@@ -36031,8 +36026,8 @@
       </c>
       <c r="G658" s="126"/>
       <c r="H658" s="81"/>
-      <c r="I658" s="332"/>
-      <c r="J658" s="332"/>
+      <c r="I658" s="319"/>
+      <c r="J658" s="319"/>
       <c r="K658" s="81"/>
       <c r="L658" s="81"/>
       <c r="M658" s="92"/>
@@ -36180,8 +36175,8 @@
       <c r="F663" s="126"/>
       <c r="G663" s="224"/>
       <c r="H663" s="81"/>
-      <c r="I663" s="350"/>
-      <c r="J663" s="350"/>
+      <c r="I663" s="333"/>
+      <c r="J663" s="333"/>
       <c r="K663" s="81"/>
       <c r="L663" s="81"/>
       <c r="M663" s="92"/>
@@ -36222,7 +36217,7 @@
     <row r="665" spans="1:13" ht="14.25" customHeight="1">
       <c r="A665" s="144"/>
       <c r="B665" s="119"/>
-      <c r="C665" s="351" t="s">
+      <c r="C665" s="334" t="s">
         <v>1808</v>
       </c>
       <c r="D665" s="195"/>
@@ -36236,8 +36231,8 @@
         <v>176</v>
       </c>
       <c r="H665" s="81"/>
-      <c r="I665" s="350"/>
-      <c r="J665" s="350"/>
+      <c r="I665" s="333"/>
+      <c r="J665" s="333"/>
       <c r="K665" s="81"/>
       <c r="L665" s="81"/>
       <c r="M665" s="92" t="s">
@@ -36282,17 +36277,17 @@
     <row r="667" spans="1:13" ht="14.25" customHeight="1">
       <c r="A667" s="144"/>
       <c r="B667" s="119"/>
-      <c r="C667" s="331" t="s">
+      <c r="C667" s="318" t="s">
         <v>1815</v>
       </c>
       <c r="D667" s="215"/>
-      <c r="E667" s="315" t="s">
+      <c r="E667" s="218" t="s">
         <v>1816</v>
       </c>
-      <c r="F667" s="315" t="s">
+      <c r="F667" s="218" t="s">
         <v>1817</v>
       </c>
-      <c r="G667" s="315" t="s">
+      <c r="G667" s="218" t="s">
         <v>176</v>
       </c>
       <c r="H667" s="85" t="s">
@@ -36351,10 +36346,10 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="669" spans="1:13" ht="27">
+    <row r="669" spans="1:13" ht="30">
       <c r="A669" s="144"/>
       <c r="B669" s="119"/>
-      <c r="C669" s="334" t="s">
+      <c r="C669" s="321" t="s">
         <v>1824</v>
       </c>
       <c r="D669" s="189"/>
@@ -36436,14 +36431,14 @@
       <c r="F671" s="153" t="s">
         <v>1833</v>
       </c>
-      <c r="G671" s="315"/>
-      <c r="H671" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I671" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J671" s="304" t="s">
+      <c r="G671" s="218"/>
+      <c r="H671" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I671" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J671" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K671" s="97" t="s">
@@ -36469,14 +36464,14 @@
       <c r="F672" s="153" t="s">
         <v>1836</v>
       </c>
-      <c r="G672" s="315"/>
-      <c r="H672" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I672" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J672" s="304" t="s">
+      <c r="G672" s="218"/>
+      <c r="H672" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I672" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J672" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K672" s="97" t="s">
@@ -36502,14 +36497,14 @@
       <c r="F673" s="153" t="s">
         <v>1838</v>
       </c>
-      <c r="G673" s="315"/>
-      <c r="H673" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I673" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J673" s="304" t="s">
+      <c r="G673" s="218"/>
+      <c r="H673" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I673" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J673" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K673" s="97" t="s">
@@ -36535,14 +36530,14 @@
       <c r="F674" s="153" t="s">
         <v>1840</v>
       </c>
-      <c r="G674" s="315"/>
-      <c r="H674" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I674" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J674" s="304" t="s">
+      <c r="G674" s="218"/>
+      <c r="H674" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I674" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J674" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K674" s="97" t="s">
@@ -36570,14 +36565,14 @@
       <c r="F675" s="153" t="s">
         <v>1844</v>
       </c>
-      <c r="G675" s="315"/>
-      <c r="H675" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I675" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J675" s="304" t="s">
+      <c r="G675" s="218"/>
+      <c r="H675" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I675" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J675" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K675" s="97" t="s">
@@ -36603,14 +36598,14 @@
       <c r="F676" s="153" t="s">
         <v>1847</v>
       </c>
-      <c r="G676" s="315"/>
-      <c r="H676" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I676" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J676" s="304" t="s">
+      <c r="G676" s="218"/>
+      <c r="H676" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I676" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J676" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K676" s="97" t="s">
@@ -36636,14 +36631,14 @@
       <c r="F677" s="153" t="s">
         <v>1850</v>
       </c>
-      <c r="G677" s="315"/>
-      <c r="H677" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I677" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J677" s="304" t="s">
+      <c r="G677" s="218"/>
+      <c r="H677" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I677" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J677" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K677" s="97" t="s">
@@ -36671,16 +36666,16 @@
       <c r="F678" s="153" t="s">
         <v>1853</v>
       </c>
-      <c r="G678" s="317" t="s">
+      <c r="G678" s="201" t="s">
         <v>1854</v>
       </c>
-      <c r="H678" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="I678" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="J678" s="304" t="s">
+      <c r="H678" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="I678" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="J678" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K678" s="97" t="s">
@@ -36693,7 +36688,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="679" spans="1:13" ht="28.5">
+    <row r="679" spans="1:13" ht="30">
       <c r="A679" s="159" t="s">
         <v>1855</v>
       </c>
@@ -36732,7 +36727,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="680" spans="1:13" ht="28.5">
+    <row r="680" spans="1:13" ht="30">
       <c r="A680" s="121"/>
       <c r="B680" s="119"/>
       <c r="C680" s="152"/>
@@ -36765,7 +36760,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="681" spans="1:13" ht="28.5">
+    <row r="681" spans="1:13" ht="30">
       <c r="A681" s="121"/>
       <c r="B681" s="120"/>
       <c r="C681" s="126" t="s">
@@ -36798,7 +36793,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="682" spans="1:13" ht="28.5">
+    <row r="682" spans="1:13" ht="30">
       <c r="A682" s="121"/>
       <c r="B682" s="119" t="s">
         <v>513</v>
@@ -36837,7 +36832,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="28.5">
+    <row r="683" spans="1:13" ht="30">
       <c r="A683" s="144"/>
       <c r="B683" s="119"/>
       <c r="C683" s="194" t="s">
@@ -36872,7 +36867,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="28.5">
+    <row r="684" spans="1:13" ht="30">
       <c r="A684" s="144"/>
       <c r="B684" s="119"/>
       <c r="C684" s="192"/>
@@ -36905,7 +36900,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="685" spans="1:13" ht="28.5">
+    <row r="685" spans="1:13" ht="30">
       <c r="A685" s="144"/>
       <c r="B685" s="119"/>
       <c r="C685" s="189"/>
@@ -36938,7 +36933,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="686" spans="1:13" ht="28.5">
+    <row r="686" spans="1:13" ht="30">
       <c r="A686" s="144"/>
       <c r="B686" s="119"/>
       <c r="C686" s="195"/>
@@ -36971,7 +36966,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="28.5">
+    <row r="687" spans="1:13" ht="30">
       <c r="A687" s="144"/>
       <c r="B687" s="119"/>
       <c r="C687" s="157"/>
@@ -37004,7 +36999,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="28.5">
+    <row r="688" spans="1:13" ht="30">
       <c r="A688" s="144"/>
       <c r="B688" s="119"/>
       <c r="C688" s="236" t="s">
@@ -37039,7 +37034,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="689" spans="1:14" ht="28.5">
+    <row r="689" spans="1:14" ht="30">
       <c r="A689" s="144"/>
       <c r="B689" s="119"/>
       <c r="C689" s="236" t="s">
@@ -37074,7 +37069,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="690" spans="1:14" ht="28.5">
+    <row r="690" spans="1:14" ht="30">
       <c r="A690" s="144"/>
       <c r="B690" s="119"/>
       <c r="C690" s="157"/>
@@ -37107,7 +37102,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="691" spans="1:14" ht="28.5">
+    <row r="691" spans="1:14" ht="30">
       <c r="A691" s="144"/>
       <c r="B691" s="119"/>
       <c r="C691" s="189"/>
@@ -37140,12 +37135,12 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="692" spans="1:14" s="63" customFormat="1" ht="28.5">
+    <row r="692" spans="1:14" s="63" customFormat="1" ht="30">
       <c r="A692" s="144"/>
       <c r="B692" s="119"/>
       <c r="C692" s="136"/>
       <c r="D692" s="195"/>
-      <c r="E692" s="324" t="s">
+      <c r="E692" s="311" t="s">
         <v>542</v>
       </c>
       <c r="F692" s="247" t="s">
@@ -37166,7 +37161,7 @@
       <c r="K692" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="L692" s="333" t="s">
+      <c r="L692" s="320" t="s">
         <v>1859</v>
       </c>
       <c r="M692" s="104" t="s">
@@ -37174,7 +37169,7 @@
       </c>
       <c r="N692" s="88"/>
     </row>
-    <row r="693" spans="1:14" ht="28.5">
+    <row r="693" spans="1:14" ht="30">
       <c r="A693" s="144"/>
       <c r="B693" s="119"/>
       <c r="C693" s="136" t="s">
@@ -37209,7 +37204,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="694" spans="1:14" ht="28.5">
+    <row r="694" spans="1:14" ht="30">
       <c r="A694" s="144"/>
       <c r="B694" s="119"/>
       <c r="C694" s="136"/>
@@ -37258,13 +37253,13 @@
       <c r="G695" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H695" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I695" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J695" s="296" t="s">
+      <c r="H695" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I695" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J695" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K695" s="82" t="s">
@@ -37293,13 +37288,13 @@
       <c r="G696" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H696" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I696" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J696" s="296" t="s">
+      <c r="H696" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I696" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J696" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K696" s="82" t="s">
@@ -37328,13 +37323,13 @@
       <c r="G697" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H697" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I697" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J697" s="296" t="s">
+      <c r="H697" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I697" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J697" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K697" s="82" t="s">
@@ -37363,13 +37358,13 @@
       <c r="G698" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H698" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I698" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J698" s="296" t="s">
+      <c r="H698" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I698" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J698" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K698" s="82" t="s">
@@ -37398,13 +37393,13 @@
       <c r="G699" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="H699" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I699" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J699" s="296" t="s">
+      <c r="H699" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I699" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J699" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K699" s="82" t="s">
@@ -37417,7 +37412,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="700" spans="1:14" ht="28.5">
+    <row r="700" spans="1:14" ht="30">
       <c r="A700" s="144"/>
       <c r="B700" s="119"/>
       <c r="C700" s="136" t="s">
@@ -37452,7 +37447,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="701" spans="1:14" ht="28.5">
+    <row r="701" spans="1:14" ht="30">
       <c r="A701" s="144"/>
       <c r="B701" s="119"/>
       <c r="C701" s="130" t="s">
@@ -37487,7 +37482,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="702" spans="1:14" ht="28.5">
+    <row r="702" spans="1:14" ht="30">
       <c r="A702" s="144"/>
       <c r="B702" s="118" t="s">
         <v>182</v>
@@ -37524,7 +37519,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="703" spans="1:14" ht="28.5">
+    <row r="703" spans="1:14" ht="30">
       <c r="A703" s="144"/>
       <c r="B703" s="119"/>
       <c r="C703" s="192"/>
@@ -37557,7 +37552,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="704" spans="1:14" ht="28.5">
+    <row r="704" spans="1:14" ht="30">
       <c r="A704" s="144"/>
       <c r="B704" s="119"/>
       <c r="C704" s="192" t="s">
@@ -37609,7 +37604,7 @@
       <c r="L705" s="99"/>
       <c r="M705" s="106"/>
     </row>
-    <row r="706" spans="1:13" ht="28.5">
+    <row r="706" spans="1:13" ht="30">
       <c r="A706" s="144"/>
       <c r="B706" s="118" t="s">
         <v>506</v>
@@ -37648,7 +37643,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="28.5">
+    <row r="707" spans="1:13" ht="30">
       <c r="A707" s="144"/>
       <c r="B707" s="119"/>
       <c r="C707" s="152"/>
@@ -37681,7 +37676,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="28.5">
+    <row r="708" spans="1:13" ht="30">
       <c r="A708" s="144"/>
       <c r="B708" s="119"/>
       <c r="C708" s="126" t="s">
@@ -37714,7 +37709,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="28.5">
+    <row r="709" spans="1:13" ht="30">
       <c r="A709" s="144"/>
       <c r="B709" s="118" t="s">
         <v>568</v>
@@ -37753,7 +37748,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="28.5">
+    <row r="710" spans="1:13" ht="30">
       <c r="A710" s="144"/>
       <c r="B710" s="119"/>
       <c r="C710" s="192"/>
@@ -37786,7 +37781,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="28.5">
+    <row r="711" spans="1:13" ht="30">
       <c r="A711" s="144"/>
       <c r="B711" s="119"/>
       <c r="C711" s="192"/>
@@ -37819,7 +37814,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="28.5">
+    <row r="712" spans="1:13" ht="30">
       <c r="A712" s="121"/>
       <c r="B712" s="119"/>
       <c r="C712" s="192"/>
@@ -37852,7 +37847,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="28.5">
+    <row r="713" spans="1:13" ht="30">
       <c r="A713" s="121"/>
       <c r="B713" s="119"/>
       <c r="C713" s="192"/>
@@ -37885,7 +37880,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="28.5">
+    <row r="714" spans="1:13" ht="30">
       <c r="A714" s="121"/>
       <c r="B714" s="119"/>
       <c r="C714" s="215"/>
@@ -37918,7 +37913,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="28.5">
+    <row r="715" spans="1:13" ht="30">
       <c r="A715" s="144"/>
       <c r="B715" s="119"/>
       <c r="C715" s="192" t="s">
@@ -37953,7 +37948,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="28.5">
+    <row r="716" spans="1:13" ht="30">
       <c r="A716" s="144"/>
       <c r="B716" s="119"/>
       <c r="C716" s="192"/>
@@ -37986,7 +37981,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="28.5">
+    <row r="717" spans="1:13" ht="30">
       <c r="A717" s="144"/>
       <c r="B717" s="119"/>
       <c r="C717" s="192"/>
@@ -38019,7 +38014,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="28.5">
+    <row r="718" spans="1:13" ht="30">
       <c r="A718" s="144"/>
       <c r="B718" s="119"/>
       <c r="C718" s="192"/>
@@ -38052,7 +38047,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="28.5">
+    <row r="719" spans="1:13" ht="30">
       <c r="A719" s="144"/>
       <c r="B719" s="119"/>
       <c r="C719" s="152"/>
@@ -38085,7 +38080,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="28.5">
+    <row r="720" spans="1:13" ht="30">
       <c r="A720" s="144"/>
       <c r="B720" s="119"/>
       <c r="C720" s="126" t="s">
@@ -38118,7 +38113,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="721" spans="1:14" ht="28.5">
+    <row r="721" spans="1:14" ht="30">
       <c r="A721" s="144"/>
       <c r="B721" s="118" t="s">
         <v>655</v>
@@ -38157,7 +38152,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="722" spans="1:14" ht="28.5">
+    <row r="722" spans="1:14" ht="30">
       <c r="A722" s="144"/>
       <c r="B722" s="119"/>
       <c r="C722" s="157"/>
@@ -38190,7 +38185,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="723" spans="1:14" ht="28.5">
+    <row r="723" spans="1:14" ht="30">
       <c r="A723" s="144"/>
       <c r="B723" s="119"/>
       <c r="C723" s="157"/>
@@ -38223,7 +38218,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="724" spans="1:14" ht="28.5">
+    <row r="724" spans="1:14" ht="30">
       <c r="A724" s="144"/>
       <c r="B724" s="119"/>
       <c r="C724" s="157"/>
@@ -38256,7 +38251,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="725" spans="1:14" ht="28.5">
+    <row r="725" spans="1:14" ht="30">
       <c r="A725" s="144"/>
       <c r="B725" s="120"/>
       <c r="C725" s="156" t="s">
@@ -38388,7 +38383,7 @@
       </c>
       <c r="M728" s="104"/>
     </row>
-    <row r="729" spans="1:14" ht="28.5">
+    <row r="729" spans="1:14" ht="30">
       <c r="A729" s="144"/>
       <c r="B729" s="118" t="s">
         <v>1939</v>
@@ -38427,7 +38422,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="730" spans="1:14" ht="28.5">
+    <row r="730" spans="1:14" ht="30">
       <c r="A730" s="121"/>
       <c r="B730" s="119"/>
       <c r="C730" s="157" t="s">
@@ -38462,7 +38457,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="731" spans="1:14" ht="28.5">
+    <row r="731" spans="1:14" ht="30">
       <c r="A731" s="121"/>
       <c r="B731" s="119"/>
       <c r="C731" s="153" t="s">
@@ -38497,7 +38492,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="732" spans="1:14" ht="28.5">
+    <row r="732" spans="1:14" ht="30">
       <c r="A732" s="144"/>
       <c r="B732" s="118" t="s">
         <v>1946</v>
@@ -38535,7 +38530,7 @@
       </c>
       <c r="N732" s="63"/>
     </row>
-    <row r="733" spans="1:14" ht="28.5">
+    <row r="733" spans="1:14" ht="30">
       <c r="A733" s="144"/>
       <c r="B733" s="119"/>
       <c r="C733" s="157" t="s">
@@ -39044,7 +39039,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="748" spans="1:14" ht="28.5">
+    <row r="748" spans="1:14" ht="30">
       <c r="A748" s="144"/>
       <c r="B748" s="119"/>
       <c r="C748" s="157" t="s">
@@ -39079,7 +39074,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="749" spans="1:14" ht="28.5">
+    <row r="749" spans="1:14" ht="30">
       <c r="A749" s="144"/>
       <c r="B749" s="119"/>
       <c r="C749" s="167" t="s">
@@ -39241,7 +39236,7 @@
       <c r="I753" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J753" s="304" t="s">
+      <c r="J753" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K753" s="85" t="s">
@@ -39272,7 +39267,7 @@
       <c r="I754" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J754" s="304" t="s">
+      <c r="J754" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K754" s="85" t="s">
@@ -39303,7 +39298,7 @@
       <c r="I755" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J755" s="304" t="s">
+      <c r="J755" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K755" s="85" t="s">
@@ -39338,7 +39333,7 @@
       <c r="I756" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J756" s="304" t="s">
+      <c r="J756" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K756" s="85" t="s">
@@ -39371,7 +39366,7 @@
       <c r="I757" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J757" s="296" t="s">
+      <c r="J757" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K757" s="82" t="s">
@@ -39402,7 +39397,7 @@
       <c r="I758" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J758" s="296" t="s">
+      <c r="J758" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K758" s="82" t="s">
@@ -39433,7 +39428,7 @@
       <c r="I759" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J759" s="296" t="s">
+      <c r="J759" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K759" s="82" t="s">
@@ -39464,7 +39459,7 @@
       <c r="I760" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J760" s="296" t="s">
+      <c r="J760" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K760" s="82" t="s">
@@ -39495,7 +39490,7 @@
       <c r="I761" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J761" s="296" t="s">
+      <c r="J761" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K761" s="82" t="s">
@@ -39528,7 +39523,7 @@
       <c r="I762" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J762" s="296" t="s">
+      <c r="J762" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K762" s="82" t="s">
@@ -39562,7 +39557,7 @@
       <c r="I763" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J763" s="296" t="s">
+      <c r="J763" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K763" s="82" t="s">
@@ -39594,7 +39589,7 @@
       <c r="I764" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J764" s="296" t="s">
+      <c r="J764" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K764" s="82" t="s">
@@ -39626,7 +39621,7 @@
       <c r="I765" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J765" s="296" t="s">
+      <c r="J765" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K765" s="82" t="s">
@@ -39642,7 +39637,7 @@
       <c r="B766" s="119"/>
       <c r="C766" s="136"/>
       <c r="D766" s="195"/>
-      <c r="E766" s="324" t="s">
+      <c r="E766" s="311" t="s">
         <v>542</v>
       </c>
       <c r="F766" s="247" t="s">
@@ -39657,7 +39652,7 @@
       <c r="I766" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="J766" s="296" t="s">
+      <c r="J766" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K766" s="82" t="s">
@@ -39691,7 +39686,7 @@
       <c r="I767" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J767" s="296" t="s">
+      <c r="J767" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K767" s="82" t="s">
@@ -39723,7 +39718,7 @@
       <c r="I768" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J768" s="296" t="s">
+      <c r="J768" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K768" s="82" t="s">
@@ -39751,13 +39746,13 @@
       <c r="G769" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H769" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I769" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J769" s="296" t="s">
+      <c r="H769" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I769" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J769" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K769" s="82" t="s">
@@ -39787,13 +39782,13 @@
       <c r="G770" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H770" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I770" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J770" s="296" t="s">
+      <c r="H770" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I770" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J770" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K770" s="82" t="s">
@@ -39822,13 +39817,13 @@
       <c r="G771" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H771" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I771" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J771" s="296" t="s">
+      <c r="H771" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I771" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J771" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K771" s="82" t="s">
@@ -39857,13 +39852,13 @@
       <c r="G772" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H772" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I772" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J772" s="296" t="s">
+      <c r="H772" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I772" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J772" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K772" s="82" t="s">
@@ -39892,13 +39887,13 @@
       <c r="G773" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="H773" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="I773" s="296" t="s">
-        <v>228</v>
-      </c>
-      <c r="J773" s="296" t="s">
+      <c r="H773" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I773" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J773" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K773" s="82" t="s">
@@ -39933,7 +39928,7 @@
       <c r="I774" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J774" s="296" t="s">
+      <c r="J774" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K774" s="82" t="s">
@@ -39967,7 +39962,7 @@
       <c r="I775" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J775" s="296" t="s">
+      <c r="J775" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K775" s="82" t="s">
@@ -40002,7 +39997,7 @@
       <c r="I776" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J776" s="296" t="s">
+      <c r="J776" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K776" s="82" t="s">
@@ -40033,7 +40028,7 @@
       <c r="I777" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J777" s="304" t="s">
+      <c r="J777" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K777" s="85" t="s">
@@ -40093,7 +40088,7 @@
       <c r="I779" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J779" s="303"/>
+      <c r="J779" s="73"/>
       <c r="K779" s="73"/>
       <c r="L779" s="73"/>
       <c r="M779" s="92"/>
@@ -40124,7 +40119,7 @@
       <c r="I780" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J780" s="304" t="s">
+      <c r="J780" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K780" s="85" t="s">
@@ -40155,7 +40150,7 @@
       <c r="I781" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J781" s="304" t="s">
+      <c r="J781" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K781" s="85" t="s">
@@ -40186,7 +40181,7 @@
       <c r="I782" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J782" s="304" t="s">
+      <c r="J782" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K782" s="85" t="s">
@@ -40223,7 +40218,7 @@
       <c r="I783" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J783" s="296" t="s">
+      <c r="J783" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K783" s="82" t="s">
@@ -40254,7 +40249,7 @@
       <c r="I784" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J784" s="296" t="s">
+      <c r="J784" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K784" s="82" t="s">
@@ -40285,7 +40280,7 @@
       <c r="I785" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J785" s="296" t="s">
+      <c r="J785" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K785" s="82" t="s">
@@ -40316,7 +40311,7 @@
       <c r="I786" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J786" s="296" t="s">
+      <c r="J786" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K786" s="82" t="s">
@@ -40347,7 +40342,7 @@
       <c r="I787" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J787" s="296" t="s">
+      <c r="J787" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K787" s="82" t="s">
@@ -40378,7 +40373,7 @@
       <c r="I788" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J788" s="296" t="s">
+      <c r="J788" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K788" s="82" t="s">
@@ -40411,7 +40406,7 @@
       <c r="I789" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J789" s="296" t="s">
+      <c r="J789" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K789" s="82" t="s">
@@ -40442,7 +40437,7 @@
       <c r="I790" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J790" s="296" t="s">
+      <c r="J790" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K790" s="82" t="s">
@@ -40474,7 +40469,7 @@
       <c r="I791" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J791" s="296" t="s">
+      <c r="J791" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K791" s="82" t="s">
@@ -40506,7 +40501,7 @@
       <c r="I792" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J792" s="296" t="s">
+      <c r="J792" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K792" s="82" t="s">
@@ -40538,7 +40533,7 @@
       <c r="I793" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J793" s="296" t="s">
+      <c r="J793" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K793" s="82" t="s">
@@ -40570,7 +40565,7 @@
       <c r="I794" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J794" s="296" t="s">
+      <c r="J794" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K794" s="82" t="s">
@@ -40608,7 +40603,7 @@
       <c r="I795" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J795" s="304" t="s">
+      <c r="J795" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K795" s="85" t="s">
@@ -40640,7 +40635,7 @@
       <c r="I796" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J796" s="304" t="s">
+      <c r="J796" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K796" s="85" t="s">
@@ -40672,7 +40667,7 @@
       <c r="I797" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J797" s="304" t="s">
+      <c r="J797" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K797" s="85" t="s">
@@ -40704,7 +40699,7 @@
       <c r="I798" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J798" s="304" t="s">
+      <c r="J798" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K798" s="85" t="s">
@@ -40736,7 +40731,7 @@
       <c r="I799" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J799" s="304" t="s">
+      <c r="J799" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K799" s="85" t="s">
@@ -40774,7 +40769,7 @@
       <c r="I800" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J800" s="304" t="s">
+      <c r="J800" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K800" s="85" t="s">
@@ -40806,7 +40801,7 @@
       <c r="I801" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J801" s="304" t="s">
+      <c r="J801" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K801" s="85" t="s">
@@ -40838,7 +40833,7 @@
       <c r="I802" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J802" s="304" t="s">
+      <c r="J802" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K802" s="85" t="s">
@@ -40876,7 +40871,7 @@
       <c r="I803" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J803" s="304" t="s">
+      <c r="J803" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K803" s="85" t="s">
@@ -40909,7 +40904,7 @@
       <c r="I804" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J804" s="304" t="s">
+      <c r="J804" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K804" s="85" t="s">
@@ -40942,7 +40937,7 @@
       <c r="I805" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J805" s="304" t="s">
+      <c r="J805" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K805" s="85" t="s">
@@ -40977,7 +40972,7 @@
       <c r="I806" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J806" s="304" t="s">
+      <c r="J806" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K806" s="85" t="s">
@@ -41010,7 +41005,7 @@
       <c r="I807" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J807" s="304" t="s">
+      <c r="J807" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K807" s="85" t="s">
@@ -41043,7 +41038,7 @@
       <c r="I808" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J808" s="304" t="s">
+      <c r="J808" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K808" s="85" t="s">
@@ -41076,7 +41071,7 @@
       <c r="I809" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J809" s="304" t="s">
+      <c r="J809" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K809" s="85" t="s">
@@ -41113,7 +41108,7 @@
       <c r="I810" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J810" s="304" t="s">
+      <c r="J810" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K810" s="85" t="s">
@@ -41144,7 +41139,7 @@
       <c r="I811" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J811" s="304" t="s">
+      <c r="J811" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K811" s="85" t="s">
@@ -41175,7 +41170,7 @@
       <c r="I812" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J812" s="304" t="s">
+      <c r="J812" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K812" s="85" t="s">
@@ -41212,7 +41207,7 @@
       <c r="I813" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J813" s="304" t="s">
+      <c r="J813" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K813" s="85" t="s">
@@ -41245,7 +41240,7 @@
       <c r="I814" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J814" s="304" t="s">
+      <c r="J814" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K814" s="85" t="s">
@@ -41276,7 +41271,7 @@
       <c r="I815" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J815" s="304" t="s">
+      <c r="J815" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K815" s="85" t="s">
@@ -41307,7 +41302,7 @@
       <c r="I816" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J816" s="304" t="s">
+      <c r="J816" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K816" s="85" t="s">
@@ -41342,7 +41337,7 @@
       <c r="I817" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J817" s="304" t="s">
+      <c r="J817" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K817" s="85" t="s">
@@ -41375,7 +41370,7 @@
       <c r="I818" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J818" s="304" t="s">
+      <c r="J818" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K818" s="85" t="s">
@@ -41406,7 +41401,7 @@
       <c r="I819" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J819" s="304" t="s">
+      <c r="J819" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K819" s="85" t="s">
@@ -41437,7 +41432,7 @@
       <c r="I820" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J820" s="304" t="s">
+      <c r="J820" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K820" s="85" t="s">
@@ -41474,7 +41469,7 @@
       <c r="I821" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J821" s="304" t="s">
+      <c r="J821" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K821" s="85" t="s">
@@ -41507,7 +41502,7 @@
       <c r="I822" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J822" s="304" t="s">
+      <c r="J822" s="298" t="s">
         <v>228</v>
       </c>
       <c r="K822" s="85" t="s">
@@ -41538,7 +41533,7 @@
       <c r="I823" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="J823" s="296" t="s">
+      <c r="J823" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K823" s="82" t="s">
@@ -45865,34 +45860,36 @@
     <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E203"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="177" zoomScaleNormal="75" zoomScaleSheetLayoutView="177" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="18.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75">
+    <row r="2" spans="2:5" ht="19">
       <c r="B2" s="13" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.75">
+    <row r="3" spans="2:5" ht="19">
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="2:5" ht="27">
+    <row r="4" spans="2:5" ht="30">
       <c r="B4" s="12" t="s">
         <v>2112</v>
       </c>
@@ -48080,7 +48077,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="14.25" thickBot="1">
+    <row r="203" spans="2:4" ht="15" thickBot="1">
       <c r="B203" s="26">
         <v>18</v>
       </c>
@@ -48093,18 +48090,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="186" zoomScaleNormal="100" zoomScaleSheetLayoutView="186" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="106.375" customWidth="1"/>
+    <col min="2" max="2" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.5" customHeight="1">
@@ -48140,39 +48139,39 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B10" s="384" t="s">
+      <c r="B10" s="367" t="s">
         <v>2317</v>
       </c>
-      <c r="C10" s="384"/>
-    </row>
-    <row r="11" spans="2:6" ht="14.25">
-      <c r="B11" s="384" t="s">
+      <c r="C10" s="367"/>
+    </row>
+    <row r="11" spans="2:6" ht="15">
+      <c r="B11" s="367" t="s">
         <v>2318</v>
       </c>
-      <c r="C11" s="384"/>
-      <c r="D11" s="384"/>
+      <c r="C11" s="367"/>
+      <c r="D11" s="367"/>
       <c r="E11" s="40"/>
     </row>
-    <row r="12" spans="2:6" ht="14.25">
-      <c r="B12" s="355"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355"/>
+    <row r="12" spans="2:6" ht="15">
+      <c r="B12" s="338"/>
+      <c r="C12" s="338"/>
+      <c r="D12" s="338"/>
       <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B13" s="384" t="s">
+      <c r="B13" s="367" t="s">
         <v>2319</v>
       </c>
-      <c r="C13" s="384"/>
-    </row>
-    <row r="14" spans="2:6" ht="14.25">
+      <c r="C13" s="367"/>
+    </row>
+    <row r="14" spans="2:6" ht="16">
       <c r="B14" s="40" t="s">
         <v>2320</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75">
+    <row r="15" spans="2:6" ht="15">
       <c r="B15" s="56" t="s">
         <v>2321</v>
       </c>
@@ -48182,7 +48181,7 @@
       <c r="B16" s="56"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25">
+    <row r="17" spans="2:4" ht="16">
       <c r="B17" s="40" t="s">
         <v>2322</v>
       </c>
@@ -48198,33 +48197,33 @@
     <row r="20" spans="2:4" ht="13.5" customHeight="1">
       <c r="B20" s="40"/>
     </row>
-    <row r="21" spans="2:4" ht="14.25">
+    <row r="21" spans="2:4" ht="15">
       <c r="B21" s="40"/>
     </row>
-    <row r="22" spans="2:4" ht="14.25">
+    <row r="22" spans="2:4" ht="16">
       <c r="B22" s="41" t="s">
         <v>2324</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="14.25">
+    <row r="23" spans="2:4" ht="15">
       <c r="B23" s="40"/>
     </row>
-    <row r="24" spans="2:4" ht="16.5">
+    <row r="24" spans="2:4" ht="17">
       <c r="B24" s="39"/>
     </row>
-    <row r="25" spans="2:4" ht="16.5">
+    <row r="25" spans="2:4" ht="17">
       <c r="B25" s="39"/>
     </row>
-    <row r="26" spans="2:4" ht="16.5">
+    <row r="26" spans="2:4" ht="17">
       <c r="B26" s="39"/>
     </row>
-    <row r="27" spans="2:4" ht="16.5">
+    <row r="27" spans="2:4" ht="17">
       <c r="B27" s="39"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:4" ht="14.25">
+    <row r="29" spans="2:4" ht="16">
       <c r="B29" s="41" t="s">
         <v>2325</v>
       </c>
@@ -48232,7 +48231,7 @@
     <row r="30" spans="2:4" ht="129" customHeight="1">
       <c r="B30" s="41"/>
     </row>
-    <row r="31" spans="2:4" ht="16.5">
+    <row r="31" spans="2:4" ht="18">
       <c r="B31" s="39" t="s">
         <v>2326</v>
       </c>
@@ -48249,13 +48248,13 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.25">
+    <row r="34" spans="2:2" ht="15">
       <c r="B34" s="40"/>
     </row>
-    <row r="35" spans="2:2" ht="14.25">
+    <row r="35" spans="2:2" ht="15">
       <c r="B35" s="40"/>
     </row>
-    <row r="36" spans="2:2" ht="14.25">
+    <row r="36" spans="2:2" ht="15">
       <c r="B36" s="40"/>
     </row>
   </sheetData>
@@ -48265,6 +48264,8 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>